--- a/data/financial_statements/soci/BALL.xlsx
+++ b/data/financial_statements/soci/BALL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>R&amp;D Expenses</t>
   </si>
   <si>
     <t>SG&amp;A Expenses</t>
@@ -46,6 +49,9 @@
     <t>Non-operating Income/Expense</t>
   </si>
   <si>
+    <t>Income (Other)</t>
+  </si>
+  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -53,12 +59,6 @@
   </si>
   <si>
     <t>Income after Tax</t>
-  </si>
-  <si>
-    <t>Share of Subsidiary Earnings</t>
-  </si>
-  <si>
-    <t>Dividends (Preferred)</t>
   </si>
   <si>
     <t>Non-Controlling Interest</t>
@@ -100,9 +100,6 @@
     <t>Income from Continuous Operations</t>
   </si>
   <si>
-    <t>Income from Discontinued Operations</t>
-  </si>
-  <si>
     <t>Consolidated Net Income/Loss</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
   </si>
   <si>
     <t>EPS (Diluted, from Cont. Ops)</t>
-  </si>
-  <si>
-    <t>EPS (Diluted, from Disc. Ops)</t>
-  </si>
-  <si>
-    <t>EPS (Basic, from Discontinued Ops)</t>
   </si>
   <si>
     <t>EPS (Basic, Consolidated)</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,121 +618,121 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3951000000</v>
+        <v>8619000000</v>
       </c>
       <c r="C2">
-        <v>4134000000</v>
+        <v>8702000000</v>
       </c>
       <c r="D2">
-        <v>3716000000</v>
+        <v>8829000000</v>
       </c>
       <c r="E2">
-        <v>3674000000</v>
+        <v>8612000000</v>
       </c>
       <c r="F2">
-        <v>3553000000</v>
+        <v>8942000000</v>
       </c>
       <c r="G2">
-        <v>3459000000</v>
+        <v>8950000000</v>
       </c>
       <c r="H2">
-        <v>3125000000</v>
+        <v>8851000000</v>
       </c>
       <c r="I2">
-        <v>3102000000</v>
+        <v>8583000000</v>
       </c>
       <c r="J2">
-        <v>3093000000</v>
+        <v>8350000000</v>
       </c>
       <c r="K2">
-        <v>2801000000</v>
+        <v>7176000000</v>
       </c>
       <c r="L2">
-        <v>2785000000</v>
+        <v>8075000000</v>
       </c>
       <c r="M2">
-        <v>2719000000</v>
+        <v>8111000000</v>
       </c>
       <c r="N2">
-        <v>2953000000</v>
+        <v>7991000000</v>
       </c>
       <c r="O2">
-        <v>3017000000</v>
+        <v>8171000000</v>
       </c>
       <c r="P2">
-        <v>2785000000</v>
+        <v>7863000000</v>
       </c>
       <c r="Q2">
-        <v>2803000000</v>
+        <v>7945000000</v>
       </c>
       <c r="R2">
-        <v>2946000000</v>
+        <v>8152000000</v>
       </c>
       <c r="S2">
-        <v>3101000000</v>
+        <v>8390000000</v>
       </c>
       <c r="T2">
-        <v>2785000000</v>
+        <v>8278000000</v>
       </c>
       <c r="U2">
-        <v>2747000000</v>
+        <v>7990000000</v>
       </c>
       <c r="V2">
-        <v>2908000000</v>
+        <v>8172000000</v>
       </c>
       <c r="W2">
-        <v>2855000000</v>
+        <v>7810000000</v>
       </c>
       <c r="X2">
-        <v>2473000000</v>
+        <v>7685000000</v>
       </c>
       <c r="Y2">
-        <v>2523000000</v>
+        <v>7329000000</v>
       </c>
       <c r="Z2">
-        <v>2752000000</v>
+        <v>7709000000</v>
       </c>
       <c r="AA2">
-        <v>2030000000</v>
+        <v>7662000000</v>
       </c>
       <c r="AB2">
-        <v>1756000000</v>
+        <v>7409000000</v>
       </c>
       <c r="AC2">
-        <v>1805000000</v>
+        <v>7298000000</v>
       </c>
       <c r="AD2">
-        <v>2097000000</v>
+        <v>7712000000</v>
       </c>
       <c r="AE2">
-        <v>2172000000</v>
+        <v>7686000000</v>
       </c>
       <c r="AF2">
-        <v>1923000000</v>
+        <v>7578000000</v>
       </c>
       <c r="AG2">
-        <v>2032400000</v>
+        <v>7719000000</v>
       </c>
       <c r="AH2">
-        <v>2238900000</v>
+        <v>8137000000</v>
       </c>
       <c r="AI2">
-        <v>2291900000</v>
+        <v>8134000000</v>
       </c>
       <c r="AJ2">
-        <v>2006800000</v>
+        <v>7831000000</v>
       </c>
       <c r="AK2">
-        <v>1996800000</v>
+        <v>7569000000</v>
       </c>
       <c r="AL2">
-        <v>2277900000</v>
+        <v>7916000000</v>
       </c>
       <c r="AM2">
-        <v>2202400000</v>
+        <v>7752000000</v>
       </c>
       <c r="AN2">
-        <v>1991000000</v>
+        <v>7634000000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -749,121 +740,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.112</v>
+        <v>-0.0361</v>
       </c>
       <c r="C3">
-        <v>0.1951</v>
+        <v>-0.0277</v>
       </c>
       <c r="D3">
-        <v>0.1891</v>
+        <v>-0.0025</v>
       </c>
       <c r="E3">
-        <v>0.1844</v>
+        <v>0.0034</v>
       </c>
       <c r="F3">
-        <v>0.1487</v>
+        <v>0.0709</v>
       </c>
       <c r="G3">
-        <v>0.2349</v>
+        <v>0.2472</v>
       </c>
       <c r="H3">
-        <v>0.1221</v>
+        <v>0.0961</v>
       </c>
       <c r="I3">
-        <v>0.1409</v>
+        <v>0.0582</v>
       </c>
       <c r="J3">
-        <v>0.0474</v>
+        <v>0.0449</v>
       </c>
       <c r="K3">
-        <v>-0.0716</v>
+        <v>-0.1218</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="M3">
-        <v>-0.03</v>
+        <v>0.0209</v>
       </c>
       <c r="N3">
-        <v>0.0024</v>
+        <v>-0.0197</v>
       </c>
       <c r="O3">
-        <v>-0.0271</v>
+        <v>-0.0261</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>-0.0501</v>
       </c>
       <c r="Q3">
-        <v>0.0204</v>
+        <v>-0.0056</v>
       </c>
       <c r="R3">
-        <v>0.0131</v>
+        <v>-0.0024</v>
       </c>
       <c r="S3">
-        <v>0.0862</v>
+        <v>0.0743</v>
       </c>
       <c r="T3">
-        <v>0.1262</v>
+        <v>0.0772</v>
       </c>
       <c r="U3">
-        <v>0.0888</v>
+        <v>0.0902</v>
       </c>
       <c r="V3">
-        <v>0.0567</v>
+        <v>0.0601</v>
       </c>
       <c r="W3">
-        <v>0.4064</v>
+        <v>0.0193</v>
       </c>
       <c r="X3">
-        <v>0.4083</v>
+        <v>0.0373</v>
       </c>
       <c r="Y3">
-        <v>0.3978</v>
+        <v>0.0042</v>
       </c>
       <c r="Z3">
-        <v>0.3124</v>
+        <v>-0.0004</v>
       </c>
       <c r="AA3">
-        <v>-0.0654</v>
+        <v>-0.0031</v>
       </c>
       <c r="AB3">
-        <v>-0.0868</v>
+        <v>-0.0223</v>
       </c>
       <c r="AC3">
-        <v>-0.1119</v>
+        <v>-0.0545</v>
       </c>
       <c r="AD3">
-        <v>-0.0634</v>
+        <v>-0.0522</v>
       </c>
       <c r="AE3">
-        <v>-0.0523</v>
+        <v>-0.0551</v>
       </c>
       <c r="AF3">
-        <v>-0.0418</v>
+        <v>-0.0323</v>
       </c>
       <c r="AG3">
-        <v>0.0178</v>
+        <v>0.0198</v>
       </c>
       <c r="AH3">
-        <v>-0.0171</v>
+        <v>0.0279</v>
       </c>
       <c r="AI3">
-        <v>0.0406</v>
+        <v>0.0493</v>
       </c>
       <c r="AJ3">
-        <v>0.007900000000000001</v>
+        <v>0.0258</v>
       </c>
       <c r="AK3">
-        <v>-0.0555</v>
+        <v>0.0246</v>
       </c>
       <c r="AL3">
-        <v>-0.002</v>
+        <v>0.0559</v>
       </c>
       <c r="AM3">
-        <v>-0.0409</v>
+        <v>0.0289</v>
       </c>
       <c r="AN3">
-        <v>-0.0253</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -871,121 +862,121 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3275000000</v>
+        <v>4728000000</v>
       </c>
       <c r="C4">
-        <v>3445000000</v>
+        <v>5093000000</v>
       </c>
       <c r="D4">
-        <v>3016000000</v>
+        <v>4826000000</v>
       </c>
       <c r="E4">
-        <v>2981000000</v>
+        <v>4698000000</v>
       </c>
       <c r="F4">
-        <v>2851000000</v>
+        <v>4853000000</v>
       </c>
       <c r="G4">
-        <v>2760000000</v>
+        <v>4719000000</v>
       </c>
       <c r="H4">
-        <v>2493000000</v>
+        <v>4525000000</v>
       </c>
       <c r="I4">
-        <v>2448000000</v>
+        <v>4388000000</v>
       </c>
       <c r="J4">
-        <v>2430000000</v>
+        <v>4303000000</v>
       </c>
       <c r="K4">
-        <v>2230000000</v>
+        <v>3805000000</v>
       </c>
       <c r="L4">
-        <v>2215000000</v>
+        <v>4109000000</v>
       </c>
       <c r="M4">
-        <v>2159000000</v>
+        <v>4325000000</v>
       </c>
       <c r="N4">
-        <v>2363000000</v>
+        <v>4188000000</v>
       </c>
       <c r="O4">
-        <v>2428000000</v>
+        <v>4313000000</v>
       </c>
       <c r="P4">
-        <v>2253000000</v>
+        <v>4310000000</v>
       </c>
       <c r="Q4">
-        <v>2246000000</v>
+        <v>4060000000</v>
       </c>
       <c r="R4">
-        <v>2362000000</v>
+        <v>4159000000</v>
       </c>
       <c r="S4">
-        <v>2484000000</v>
+        <v>4227000000</v>
       </c>
       <c r="T4">
-        <v>2237000000</v>
+        <v>4236000000</v>
       </c>
       <c r="U4">
-        <v>2134000000</v>
+        <v>4094000000</v>
       </c>
       <c r="V4">
-        <v>2338000000</v>
+        <v>4059000000</v>
       </c>
       <c r="W4">
-        <v>2270000000</v>
+        <v>4020000000</v>
       </c>
       <c r="X4">
-        <v>1975000000</v>
+        <v>3882000000</v>
       </c>
       <c r="Y4">
-        <v>2009000000</v>
+        <v>3794000000</v>
       </c>
       <c r="Z4">
-        <v>2275000000</v>
+        <v>3847000000</v>
       </c>
       <c r="AA4">
-        <v>1596000000</v>
+        <v>3799000000</v>
       </c>
       <c r="AB4">
-        <v>1416000000</v>
+        <v>3678000000</v>
       </c>
       <c r="AC4">
-        <v>1434000000</v>
+        <v>3827000000</v>
       </c>
       <c r="AD4">
-        <v>1690000000</v>
+        <v>3877000000</v>
       </c>
       <c r="AE4">
-        <v>1775000000</v>
+        <v>3858000000</v>
       </c>
       <c r="AF4">
-        <v>1561000000</v>
+        <v>3821000000</v>
       </c>
       <c r="AG4">
-        <v>1636400000</v>
+        <v>4027000000</v>
       </c>
       <c r="AH4">
-        <v>1807300000</v>
+        <v>4205000000</v>
       </c>
       <c r="AI4">
-        <v>1846400000</v>
+        <v>4184000000</v>
       </c>
       <c r="AJ4">
-        <v>1612900000</v>
+        <v>4031000000</v>
       </c>
       <c r="AK4">
-        <v>1586100000</v>
+        <v>3976000000</v>
       </c>
       <c r="AL4">
-        <v>1846900000</v>
+        <v>4148000000</v>
       </c>
       <c r="AM4">
-        <v>1798900000</v>
+        <v>4013000000</v>
       </c>
       <c r="AN4">
-        <v>1643500000</v>
+        <v>3969000000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -993,121 +984,121 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>676000000</v>
+        <v>3891000000</v>
       </c>
       <c r="C5">
-        <v>689000000</v>
+        <v>3609000000</v>
       </c>
       <c r="D5">
-        <v>700000000</v>
+        <v>4003000000</v>
       </c>
       <c r="E5">
-        <v>693000000</v>
+        <v>3914000000</v>
       </c>
       <c r="F5">
-        <v>702000000</v>
+        <v>4089000000</v>
       </c>
       <c r="G5">
-        <v>699000000</v>
+        <v>4231000000</v>
       </c>
       <c r="H5">
-        <v>632000000</v>
+        <v>4326000000</v>
       </c>
       <c r="I5">
-        <v>654000000</v>
+        <v>4195000000</v>
       </c>
       <c r="J5">
-        <v>663000000</v>
+        <v>4047000000</v>
       </c>
       <c r="K5">
-        <v>571000000</v>
+        <v>3371000000</v>
       </c>
       <c r="L5">
-        <v>570000000</v>
+        <v>3966000000</v>
       </c>
       <c r="M5">
-        <v>560000000</v>
+        <v>3786000000</v>
       </c>
       <c r="N5">
-        <v>590000000</v>
+        <v>3803000000</v>
       </c>
       <c r="O5">
-        <v>589000000</v>
+        <v>3858000000</v>
       </c>
       <c r="P5">
-        <v>532000000</v>
+        <v>3553000000</v>
       </c>
       <c r="Q5">
-        <v>557000000</v>
+        <v>3885000000</v>
       </c>
       <c r="R5">
-        <v>584000000</v>
+        <v>3993000000</v>
       </c>
       <c r="S5">
-        <v>617000000</v>
+        <v>4163000000</v>
       </c>
       <c r="T5">
-        <v>548000000</v>
+        <v>4042000000</v>
       </c>
       <c r="U5">
-        <v>613000000</v>
+        <v>3896000000</v>
       </c>
       <c r="V5">
-        <v>570000000</v>
+        <v>4113000000</v>
       </c>
       <c r="W5">
-        <v>585000000</v>
+        <v>3790000000</v>
       </c>
       <c r="X5">
-        <v>498000000</v>
+        <v>3803000000</v>
       </c>
       <c r="Y5">
-        <v>514000000</v>
+        <v>3535000000</v>
       </c>
       <c r="Z5">
-        <v>477000000</v>
+        <v>3862000000</v>
       </c>
       <c r="AA5">
-        <v>434000000</v>
+        <v>3863000000</v>
       </c>
       <c r="AB5">
-        <v>340000000</v>
+        <v>3731000000</v>
       </c>
       <c r="AC5">
-        <v>371000000</v>
+        <v>3471000000</v>
       </c>
       <c r="AD5">
-        <v>407000000</v>
+        <v>3835000000</v>
       </c>
       <c r="AE5">
-        <v>397000000</v>
+        <v>3828000000</v>
       </c>
       <c r="AF5">
-        <v>362000000</v>
+        <v>3757000000</v>
       </c>
       <c r="AG5">
-        <v>395999900</v>
+        <v>3692000000</v>
       </c>
       <c r="AH5">
-        <v>431599900</v>
+        <v>3932000000</v>
       </c>
       <c r="AI5">
-        <v>445499900</v>
+        <v>3950000000</v>
       </c>
       <c r="AJ5">
-        <v>393900000</v>
+        <v>3800000000</v>
       </c>
       <c r="AK5">
-        <v>410699700</v>
+        <v>3593000000</v>
       </c>
       <c r="AL5">
-        <v>430999900</v>
+        <v>3768000000</v>
       </c>
       <c r="AM5">
-        <v>403499900</v>
+        <v>3739000000</v>
       </c>
       <c r="AN5">
-        <v>347500000</v>
+        <v>3665000000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1115,121 +1106,121 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>159000000</v>
+        <v>461000000</v>
       </c>
       <c r="C6">
-        <v>161000000</v>
+        <v>476000000</v>
       </c>
       <c r="D6">
-        <v>186000000</v>
+        <v>480000000</v>
       </c>
       <c r="E6">
-        <v>122000000</v>
+        <v>474000000</v>
       </c>
       <c r="F6">
-        <v>148000000</v>
+        <v>482000000</v>
       </c>
       <c r="G6">
-        <v>166000000</v>
+        <v>514000000</v>
       </c>
       <c r="H6">
-        <v>157000000</v>
+        <v>524000000</v>
       </c>
       <c r="I6">
-        <v>162000000</v>
+        <v>456000000</v>
       </c>
       <c r="J6">
-        <v>121000000</v>
+        <v>461000000</v>
       </c>
       <c r="K6">
-        <v>111000000</v>
+        <v>424000000</v>
       </c>
       <c r="L6">
-        <v>131000000</v>
+        <v>537000000</v>
       </c>
       <c r="M6">
-        <v>89000000</v>
+        <v>521000000</v>
       </c>
       <c r="N6">
-        <v>90000000</v>
+        <v>443000000</v>
       </c>
       <c r="O6">
-        <v>111000000</v>
+        <v>470000000</v>
       </c>
       <c r="P6">
-        <v>127000000</v>
+        <v>477000000</v>
       </c>
       <c r="Q6">
-        <v>126000000</v>
+        <v>437000000</v>
       </c>
       <c r="R6">
-        <v>113000000</v>
+        <v>430000000</v>
       </c>
       <c r="S6">
-        <v>127000000</v>
+        <v>468000000</v>
       </c>
       <c r="T6">
-        <v>112000000</v>
+        <v>486000000</v>
       </c>
       <c r="U6">
-        <v>116000000</v>
+        <v>448000000</v>
       </c>
       <c r="V6">
-        <v>127000000</v>
+        <v>468000000</v>
       </c>
       <c r="W6">
-        <v>128000000</v>
+        <v>478000000</v>
       </c>
       <c r="X6">
-        <v>143000000</v>
+        <v>476000000</v>
       </c>
       <c r="Y6">
-        <v>164000000</v>
+        <v>450000000</v>
       </c>
       <c r="Z6">
-        <v>135000000</v>
+        <v>427000000</v>
       </c>
       <c r="AA6">
-        <v>105000000</v>
+        <v>437000000</v>
       </c>
       <c r="AB6">
-        <v>108000000</v>
+        <v>450000000</v>
       </c>
       <c r="AC6">
-        <v>109000000</v>
+        <v>433000000</v>
       </c>
       <c r="AD6">
-        <v>107000000</v>
+        <v>429000000</v>
       </c>
       <c r="AE6">
-        <v>118000000</v>
+        <v>438000000</v>
       </c>
       <c r="AF6">
-        <v>116000000</v>
+        <v>463000000</v>
       </c>
       <c r="AG6">
-        <v>123800000</v>
+        <v>436000000</v>
       </c>
       <c r="AH6">
-        <v>123100000</v>
+        <v>434000000</v>
       </c>
       <c r="AI6">
-        <v>111400000</v>
+        <v>448000000</v>
       </c>
       <c r="AJ6">
-        <v>107700000</v>
+        <v>452000000</v>
       </c>
       <c r="AK6">
-        <v>107400000</v>
+        <v>438000000</v>
       </c>
       <c r="AL6">
-        <v>99000000</v>
+        <v>420000000</v>
       </c>
       <c r="AM6">
-        <v>102900000</v>
+        <v>427000000</v>
       </c>
       <c r="AN6">
-        <v>109300000</v>
+        <v>430000000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1237,156 +1228,243 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>523000000</v>
+        <v>1998000000</v>
       </c>
       <c r="C7">
-        <v>-107000000</v>
+        <v>3023000000</v>
       </c>
       <c r="D7">
-        <v>610000000</v>
+        <v>1882000000</v>
       </c>
       <c r="E7">
-        <v>380000000</v>
+        <v>1824000000</v>
       </c>
       <c r="F7">
-        <v>238000000</v>
+        <v>1819000000</v>
       </c>
       <c r="G7">
-        <v>373000000</v>
+        <v>1746000000</v>
       </c>
       <c r="H7">
-        <v>300000000</v>
+        <v>1808000000</v>
       </c>
       <c r="I7">
-        <v>296000000</v>
+        <v>1890000000</v>
       </c>
       <c r="J7">
-        <v>374000000</v>
+        <v>1677000000</v>
       </c>
       <c r="K7">
-        <v>178000000</v>
+        <v>1594000000</v>
       </c>
       <c r="L7">
-        <v>155000000</v>
+        <v>1768000000</v>
       </c>
       <c r="M7">
-        <v>206000000</v>
+        <v>1940000000</v>
       </c>
       <c r="N7">
-        <v>198000000</v>
+        <v>1455000000</v>
       </c>
       <c r="O7">
-        <v>307000000</v>
+        <v>1686000000</v>
       </c>
       <c r="P7">
-        <v>221000000</v>
+        <v>1948000000</v>
       </c>
       <c r="Q7">
-        <v>198000000</v>
+        <v>1682000000</v>
       </c>
       <c r="R7">
-        <v>268000000</v>
+        <v>1547000000</v>
       </c>
       <c r="S7">
-        <v>243000000</v>
+        <v>1800000000</v>
       </c>
       <c r="T7">
-        <v>226000000</v>
+        <v>2573000000</v>
       </c>
       <c r="U7">
-        <v>339000000</v>
+        <v>1755000000</v>
       </c>
       <c r="V7">
-        <v>124000000</v>
+        <v>1637000000</v>
       </c>
       <c r="W7">
-        <v>187000000</v>
+        <v>1620000000</v>
       </c>
       <c r="X7">
-        <v>152000000</v>
+        <v>1614000000</v>
       </c>
       <c r="Y7">
-        <v>162000000</v>
+        <v>1727000000</v>
       </c>
       <c r="Z7">
-        <v>132000000</v>
+        <v>1531000000</v>
       </c>
       <c r="AA7">
-        <v>279000000</v>
+        <v>1560000000</v>
       </c>
       <c r="AB7">
-        <v>-110000000</v>
+        <v>1493000000</v>
       </c>
       <c r="AC7">
-        <v>130000000</v>
+        <v>1585000000</v>
       </c>
       <c r="AD7">
-        <v>76000000</v>
+        <v>1530000000</v>
       </c>
       <c r="AE7">
-        <v>274000000</v>
+        <v>1550000000</v>
       </c>
       <c r="AF7">
-        <v>126000000</v>
+        <v>1564000000</v>
       </c>
       <c r="AG7">
-        <v>137700100</v>
+        <v>1594000000</v>
       </c>
       <c r="AH7">
-        <v>227999900</v>
+        <v>1597000000</v>
       </c>
       <c r="AI7">
-        <v>255899900</v>
+        <v>1646000000</v>
       </c>
       <c r="AJ7">
-        <v>217400000</v>
+        <v>1632000000</v>
       </c>
       <c r="AK7">
-        <v>237300300</v>
+        <v>1576000000</v>
       </c>
       <c r="AL7">
-        <v>211599900</v>
+        <v>1609000000</v>
       </c>
       <c r="AM7">
-        <v>203499900</v>
+        <v>1610000000</v>
       </c>
       <c r="AN7">
-        <v>143000000</v>
+        <v>1589000000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>4156000000</v>
+      </c>
+      <c r="C8">
+        <v>110000000</v>
+      </c>
       <c r="D8">
-        <v>70000000</v>
+        <v>1641000000</v>
       </c>
       <c r="E8">
-        <v>72000000</v>
+        <v>1616000000</v>
       </c>
       <c r="F8">
-        <v>66000000</v>
+        <v>1788000000</v>
       </c>
       <c r="G8">
-        <v>66000000</v>
+        <v>1971000000</v>
       </c>
       <c r="H8">
-        <v>67000000</v>
+        <v>1994000000</v>
       </c>
       <c r="I8">
-        <v>66000000</v>
+        <v>1849000000</v>
       </c>
       <c r="J8">
-        <v>66000000</v>
+        <v>1909000000</v>
       </c>
       <c r="K8">
-        <v>64000000</v>
+        <v>1740000000</v>
       </c>
       <c r="L8">
-        <v>71000000</v>
+        <v>1663000000</v>
       </c>
       <c r="M8">
-        <v>81000000</v>
+        <v>1325000000</v>
+      </c>
+      <c r="N8">
+        <v>2011000000</v>
+      </c>
+      <c r="O8">
+        <v>1702000000</v>
+      </c>
+      <c r="P8">
+        <v>1136000000</v>
+      </c>
+      <c r="Q8">
+        <v>1783000000</v>
+      </c>
+      <c r="R8">
+        <v>2016000000</v>
+      </c>
+      <c r="S8">
+        <v>2401000000</v>
+      </c>
+      <c r="T8">
+        <v>1007000000</v>
+      </c>
+      <c r="U8">
+        <v>1789000000</v>
+      </c>
+      <c r="V8">
+        <v>2008000000</v>
+      </c>
+      <c r="W8">
+        <v>2153000000</v>
+      </c>
+      <c r="X8">
+        <v>1742000000</v>
+      </c>
+      <c r="Y8">
+        <v>1469000000</v>
+      </c>
+      <c r="Z8">
+        <v>1904000000</v>
+      </c>
+      <c r="AA8">
+        <v>1866000000</v>
+      </c>
+      <c r="AB8">
+        <v>1788000000</v>
+      </c>
+      <c r="AC8">
+        <v>1500000000</v>
+      </c>
+      <c r="AD8">
+        <v>1876000000</v>
+      </c>
+      <c r="AE8">
+        <v>1840000000</v>
+      </c>
+      <c r="AF8">
+        <v>1730000000</v>
+      </c>
+      <c r="AG8">
+        <v>1662000000</v>
+      </c>
+      <c r="AH8">
+        <v>1901000000</v>
+      </c>
+      <c r="AI8">
+        <v>1856000000</v>
+      </c>
+      <c r="AJ8">
+        <v>1716000000</v>
+      </c>
+      <c r="AK8">
+        <v>1579000000</v>
+      </c>
+      <c r="AL8">
+        <v>1739000000</v>
+      </c>
+      <c r="AM8">
+        <v>1702000000</v>
+      </c>
+      <c r="AN8">
+        <v>1646000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1394,121 +1472,40 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>82000000</v>
+      </c>
+      <c r="C9">
+        <v>125000000</v>
+      </c>
+      <c r="D9">
+        <v>136000000</v>
+      </c>
+      <c r="E9">
+        <v>112000000</v>
+      </c>
+      <c r="F9">
         <v>79000000</v>
       </c>
-      <c r="C9">
-        <v>70000000</v>
-      </c>
-      <c r="D9">
-        <v>69000000</v>
-      </c>
-      <c r="E9">
-        <v>81000000</v>
-      </c>
-      <c r="F9">
-        <v>69000000</v>
-      </c>
       <c r="G9">
-        <v>66000000</v>
+        <v>125000000</v>
       </c>
       <c r="H9">
-        <v>67000000</v>
+        <v>141000000</v>
       </c>
       <c r="I9">
-        <v>69000000</v>
+        <v>179000000</v>
       </c>
       <c r="J9">
-        <v>69000000</v>
+        <v>155000000</v>
       </c>
       <c r="K9">
-        <v>67000000</v>
+        <v>124000000</v>
       </c>
       <c r="L9">
-        <v>111000000</v>
+        <v>105000000</v>
       </c>
       <c r="M9">
-        <v>83000000</v>
-      </c>
-      <c r="N9">
-        <v>79000000</v>
-      </c>
-      <c r="O9">
-        <v>81000000</v>
-      </c>
-      <c r="P9">
-        <v>81000000</v>
-      </c>
-      <c r="Q9">
-        <v>75000000</v>
-      </c>
-      <c r="R9">
-        <v>76000000</v>
-      </c>
-      <c r="S9">
-        <v>77000000</v>
-      </c>
-      <c r="T9">
-        <v>74000000</v>
-      </c>
-      <c r="U9">
-        <v>71000000</v>
-      </c>
-      <c r="V9">
-        <v>74000000</v>
-      </c>
-      <c r="W9">
-        <v>75000000</v>
-      </c>
-      <c r="X9">
-        <v>68000000</v>
-      </c>
-      <c r="Y9">
-        <v>70000000</v>
-      </c>
-      <c r="Z9">
-        <v>82000000</v>
-      </c>
-      <c r="AA9">
-        <v>87000000</v>
-      </c>
-      <c r="AB9">
-        <v>99000000</v>
-      </c>
-      <c r="AC9">
-        <v>67000000</v>
-      </c>
-      <c r="AD9">
-        <v>59000000</v>
-      </c>
-      <c r="AE9">
-        <v>36000000</v>
-      </c>
-      <c r="AF9">
-        <v>98000000</v>
-      </c>
-      <c r="AG9">
-        <v>39000000</v>
-      </c>
-      <c r="AH9">
-        <v>40100000</v>
-      </c>
-      <c r="AI9">
-        <v>40600000</v>
-      </c>
-      <c r="AJ9">
-        <v>73300000</v>
-      </c>
-      <c r="AK9">
-        <v>45800000</v>
-      </c>
-      <c r="AL9">
-        <v>46800000</v>
-      </c>
-      <c r="AM9">
-        <v>74400000</v>
-      </c>
-      <c r="AN9">
-        <v>44800000</v>
+        <v>135000000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1516,121 +1513,82 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-79000000</v>
+        <v>17000000</v>
       </c>
       <c r="C10">
-        <v>-70000000</v>
+        <v>11000000</v>
       </c>
       <c r="D10">
-        <v>-69000000</v>
+        <v>8000000</v>
       </c>
       <c r="E10">
-        <v>-81000000</v>
+        <v>8000000</v>
       </c>
       <c r="F10">
-        <v>-69000000</v>
+        <v>6000000</v>
       </c>
       <c r="G10">
-        <v>-66000000</v>
+        <v>8000000</v>
       </c>
       <c r="H10">
-        <v>-67000000</v>
+        <v>4000000</v>
       </c>
       <c r="I10">
-        <v>-69000000</v>
+        <v>5000000</v>
       </c>
       <c r="J10">
-        <v>-69000000</v>
+        <v>5000000</v>
       </c>
       <c r="K10">
-        <v>-67000000</v>
+        <v>9000000</v>
       </c>
       <c r="L10">
-        <v>-111000000</v>
+        <v>10000000</v>
       </c>
       <c r="M10">
-        <v>-83000000</v>
-      </c>
-      <c r="N10">
-        <v>-79000000</v>
-      </c>
-      <c r="O10">
-        <v>-81000000</v>
-      </c>
-      <c r="P10">
-        <v>-81000000</v>
-      </c>
-      <c r="Q10">
-        <v>-75000000</v>
-      </c>
-      <c r="R10">
-        <v>-76000000</v>
-      </c>
-      <c r="S10">
-        <v>-77000000</v>
-      </c>
-      <c r="T10">
-        <v>-74000000</v>
-      </c>
-      <c r="U10">
-        <v>-71000000</v>
-      </c>
-      <c r="V10">
-        <v>-74000000</v>
-      </c>
-      <c r="W10">
-        <v>-75000000</v>
-      </c>
-      <c r="X10">
-        <v>-68000000</v>
-      </c>
-      <c r="Y10">
-        <v>-70000000</v>
+        <v>16000000</v>
       </c>
       <c r="Z10">
-        <v>-82000000</v>
+        <v>50000000</v>
       </c>
       <c r="AA10">
-        <v>-87000000</v>
+        <v>38000000</v>
       </c>
       <c r="AB10">
-        <v>-99000000</v>
-      </c>
-      <c r="AC10">
-        <v>-67000000</v>
+        <v>47000000</v>
       </c>
       <c r="AD10">
-        <v>-59000000</v>
+        <v>38000000</v>
       </c>
       <c r="AE10">
-        <v>-36000000</v>
+        <v>35000000</v>
       </c>
       <c r="AF10">
-        <v>-98000000</v>
+        <v>31000000</v>
       </c>
       <c r="AG10">
-        <v>-39000000</v>
+        <v>32000000</v>
       </c>
       <c r="AH10">
-        <v>-40100000</v>
+        <v>28000000</v>
       </c>
       <c r="AI10">
-        <v>-40600000</v>
+        <v>45000000</v>
       </c>
       <c r="AJ10">
-        <v>-73300000</v>
+        <v>37000000</v>
       </c>
       <c r="AK10">
-        <v>-45800000</v>
+        <v>32000000</v>
       </c>
       <c r="AL10">
-        <v>-46800000</v>
+        <v>33000000</v>
       </c>
       <c r="AM10">
-        <v>-74400000</v>
+        <v>41000000</v>
       </c>
       <c r="AN10">
-        <v>-44800000</v>
+        <v>39000000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1638,121 +1596,121 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>444000000</v>
+        <v>-24000000</v>
       </c>
       <c r="C11">
-        <v>-177000000</v>
+        <v>-50000000</v>
       </c>
       <c r="D11">
-        <v>541000000</v>
+        <v>-38000000</v>
       </c>
       <c r="E11">
-        <v>299000000</v>
+        <v>-52000000</v>
       </c>
       <c r="F11">
-        <v>169000000</v>
+        <v>-31000000</v>
       </c>
       <c r="G11">
-        <v>307000000</v>
+        <v>-33000000</v>
       </c>
       <c r="H11">
-        <v>233000000</v>
+        <v>-49000000</v>
       </c>
       <c r="I11">
-        <v>227000000</v>
+        <v>-118000000</v>
       </c>
       <c r="J11">
-        <v>305000000</v>
+        <v>-83000000</v>
       </c>
       <c r="K11">
-        <v>111000000</v>
+        <v>-90000000</v>
       </c>
       <c r="L11">
-        <v>44000000</v>
+        <v>-75000000</v>
       </c>
       <c r="M11">
-        <v>123000000</v>
+        <v>-182000000</v>
       </c>
       <c r="N11">
-        <v>119000000</v>
+        <v>-45000000</v>
       </c>
       <c r="O11">
-        <v>226000000</v>
+        <v>-256000000</v>
       </c>
       <c r="P11">
-        <v>140000000</v>
+        <v>-48000000</v>
       </c>
       <c r="Q11">
-        <v>123000000</v>
+        <v>-63000000</v>
       </c>
       <c r="R11">
-        <v>192000000</v>
+        <v>-51000000</v>
       </c>
       <c r="S11">
-        <v>166000000</v>
+        <v>-51000000</v>
       </c>
       <c r="T11">
-        <v>152000000</v>
+        <v>-42000000</v>
       </c>
       <c r="U11">
-        <v>268000000</v>
+        <v>-117000000</v>
       </c>
       <c r="V11">
-        <v>50000000</v>
+        <v>-11000000</v>
       </c>
       <c r="W11">
-        <v>112000000</v>
+        <v>-11000000</v>
       </c>
       <c r="X11">
-        <v>84000000</v>
+        <v>-5000000</v>
       </c>
       <c r="Y11">
-        <v>92000000</v>
+        <v>141000000</v>
       </c>
       <c r="Z11">
-        <v>50000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AA11">
-        <v>192000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AB11">
-        <v>-209000000</v>
+        <v>-42000000</v>
       </c>
       <c r="AC11">
-        <v>63000000</v>
+        <v>-37000000</v>
       </c>
       <c r="AD11">
-        <v>17000000</v>
+        <v>-31000000</v>
       </c>
       <c r="AE11">
-        <v>238000000</v>
+        <v>-28000000</v>
       </c>
       <c r="AF11">
-        <v>28000000</v>
+        <v>-27000000</v>
       </c>
       <c r="AG11">
-        <v>98700000</v>
+        <v>-24000000</v>
       </c>
       <c r="AH11">
-        <v>187900000</v>
+        <v>-21000000</v>
       </c>
       <c r="AI11">
-        <v>215300000</v>
+        <v>-36000000</v>
       </c>
       <c r="AJ11">
-        <v>144100000</v>
+        <v>-28000000</v>
       </c>
       <c r="AK11">
-        <v>191500000</v>
+        <v>-21000000</v>
       </c>
       <c r="AL11">
-        <v>164800000</v>
+        <v>-23000000</v>
       </c>
       <c r="AM11">
-        <v>129100000</v>
+        <v>-31000000</v>
       </c>
       <c r="AN11">
-        <v>98200000</v>
+        <v>-29000000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1760,121 +1718,31 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>38000000</v>
+        <v>2000000</v>
       </c>
       <c r="C12">
+        <v>-1000000</v>
+      </c>
+      <c r="D12">
+        <v>2000000</v>
+      </c>
+      <c r="E12">
+        <v>3000000</v>
+      </c>
+      <c r="F12">
+        <v>4000000</v>
+      </c>
+      <c r="G12">
+        <v>2000000</v>
+      </c>
+      <c r="H12">
         <v>1000000</v>
       </c>
-      <c r="D12">
-        <v>100000000</v>
-      </c>
-      <c r="E12">
-        <v>10000000</v>
-      </c>
-      <c r="F12">
-        <v>-2000000</v>
-      </c>
-      <c r="G12">
-        <v>116000000</v>
-      </c>
-      <c r="H12">
-        <v>32000000</v>
-      </c>
       <c r="I12">
-        <v>7000000</v>
+        <v>-4000000</v>
       </c>
       <c r="J12">
-        <v>73000000</v>
-      </c>
-      <c r="K12">
-        <v>23000000</v>
-      </c>
-      <c r="L12">
-        <v>-4000000</v>
-      </c>
-      <c r="M12">
-        <v>-2000000</v>
-      </c>
-      <c r="N12">
-        <v>32000000</v>
-      </c>
-      <c r="O12">
-        <v>31000000</v>
-      </c>
-      <c r="P12">
-        <v>10000000</v>
-      </c>
-      <c r="Q12">
-        <v>-35000000</v>
-      </c>
-      <c r="R12">
-        <v>140000000</v>
-      </c>
-      <c r="S12">
-        <v>46000000</v>
-      </c>
-      <c r="T12">
-        <v>34000000</v>
-      </c>
-      <c r="U12">
-        <v>117000000</v>
-      </c>
-      <c r="V12">
-        <v>4000000</v>
-      </c>
-      <c r="W12">
-        <v>22000000</v>
-      </c>
-      <c r="X12">
-        <v>22000000</v>
-      </c>
-      <c r="Y12">
-        <v>48000000</v>
-      </c>
-      <c r="Z12">
-        <v>23000000</v>
-      </c>
-      <c r="AA12">
-        <v>-114000000</v>
-      </c>
-      <c r="AB12">
-        <v>-83000000</v>
-      </c>
-      <c r="AC12">
-        <v>-2000000</v>
-      </c>
-      <c r="AD12">
-        <v>-31000000</v>
-      </c>
-      <c r="AE12">
-        <v>79000000</v>
-      </c>
-      <c r="AF12">
-        <v>1000000</v>
-      </c>
-      <c r="AG12">
-        <v>10400000</v>
-      </c>
-      <c r="AH12">
-        <v>39800000</v>
-      </c>
-      <c r="AI12">
-        <v>60200000</v>
-      </c>
-      <c r="AJ12">
-        <v>39600000</v>
-      </c>
-      <c r="AK12">
-        <v>56600000</v>
-      </c>
-      <c r="AL12">
-        <v>44100000</v>
-      </c>
-      <c r="AM12">
-        <v>30800000</v>
-      </c>
-      <c r="AN12">
-        <v>18100000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -1882,121 +1750,121 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>406000000</v>
+        <v>4132000000</v>
       </c>
       <c r="C13">
-        <v>-178000000</v>
+        <v>60000000</v>
       </c>
       <c r="D13">
-        <v>441000000</v>
+        <v>1603000000</v>
       </c>
       <c r="E13">
-        <v>289000000</v>
+        <v>1564000000</v>
       </c>
       <c r="F13">
-        <v>171000000</v>
+        <v>1757000000</v>
       </c>
       <c r="G13">
-        <v>191000000</v>
+        <v>1938000000</v>
       </c>
       <c r="H13">
-        <v>201000000</v>
+        <v>1945000000</v>
       </c>
       <c r="I13">
-        <v>220000000</v>
+        <v>1731000000</v>
       </c>
       <c r="J13">
-        <v>232000000</v>
+        <v>1826000000</v>
       </c>
       <c r="K13">
-        <v>88000000</v>
+        <v>1650000000</v>
       </c>
       <c r="L13">
-        <v>48000000</v>
+        <v>1588000000</v>
       </c>
       <c r="M13">
-        <v>125000000</v>
+        <v>1143000000</v>
       </c>
       <c r="N13">
-        <v>87000000</v>
+        <v>1966000000</v>
       </c>
       <c r="O13">
-        <v>195000000</v>
+        <v>1446000000</v>
       </c>
       <c r="P13">
-        <v>130000000</v>
+        <v>1088000000</v>
       </c>
       <c r="Q13">
-        <v>158000000</v>
+        <v>1720000000</v>
       </c>
       <c r="R13">
-        <v>52000000</v>
+        <v>1965000000</v>
       </c>
       <c r="S13">
-        <v>120000000</v>
+        <v>2350000000</v>
       </c>
       <c r="T13">
-        <v>118000000</v>
+        <v>965000000</v>
       </c>
       <c r="U13">
-        <v>151000000</v>
+        <v>1672000000</v>
       </c>
       <c r="V13">
-        <v>46000000</v>
+        <v>1997000000</v>
       </c>
       <c r="W13">
-        <v>90000000</v>
+        <v>2142000000</v>
       </c>
       <c r="X13">
-        <v>62000000</v>
+        <v>1737000000</v>
       </c>
       <c r="Y13">
-        <v>44000000</v>
+        <v>1610000000</v>
       </c>
       <c r="Z13">
-        <v>27000000</v>
+        <v>1862000000</v>
       </c>
       <c r="AA13">
-        <v>306000000</v>
+        <v>1835000000</v>
       </c>
       <c r="AB13">
-        <v>-126000000</v>
+        <v>1746000000</v>
       </c>
       <c r="AC13">
-        <v>65000000</v>
+        <v>1463000000</v>
       </c>
       <c r="AD13">
-        <v>48000000</v>
+        <v>1845000000</v>
       </c>
       <c r="AE13">
-        <v>159000000</v>
+        <v>1812000000</v>
       </c>
       <c r="AF13">
-        <v>27000000</v>
+        <v>1703000000</v>
       </c>
       <c r="AG13">
-        <v>88300000</v>
+        <v>1638000000</v>
       </c>
       <c r="AH13">
-        <v>148100000</v>
+        <v>1880000000</v>
       </c>
       <c r="AI13">
-        <v>155100000</v>
+        <v>1820000000</v>
       </c>
       <c r="AJ13">
-        <v>104500000</v>
+        <v>1688000000</v>
       </c>
       <c r="AK13">
-        <v>134900000</v>
+        <v>1558000000</v>
       </c>
       <c r="AL13">
-        <v>120700000</v>
+        <v>1716000000</v>
       </c>
       <c r="AM13">
-        <v>98300000</v>
+        <v>1671000000</v>
       </c>
       <c r="AN13">
-        <v>80100000</v>
+        <v>1617000000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -2004,126 +1872,243 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-12000000</v>
+        <v>271000000</v>
       </c>
       <c r="C14">
-        <v>13000000</v>
+        <v>-23000000</v>
       </c>
       <c r="D14">
-        <v>6000000</v>
+        <v>302000000</v>
       </c>
       <c r="E14">
-        <v>8000000</v>
+        <v>227000000</v>
       </c>
       <c r="F14">
-        <v>8000000</v>
+        <v>324000000</v>
       </c>
       <c r="G14">
-        <v>11000000</v>
+        <v>415000000</v>
       </c>
       <c r="H14">
-        <v>-1000000</v>
+        <v>319000000</v>
       </c>
       <c r="I14">
-        <v>7000000</v>
+        <v>321000000</v>
       </c>
       <c r="J14">
-        <v>8000000</v>
+        <v>391000000</v>
       </c>
       <c r="K14">
-        <v>4000000</v>
+        <v>347000000</v>
       </c>
       <c r="L14">
-        <v>-25000000</v>
+        <v>278000000</v>
       </c>
       <c r="M14">
-        <v>5000000</v>
+        <v>226000000</v>
       </c>
       <c r="N14">
-        <v>5000000</v>
+        <v>378000000</v>
       </c>
       <c r="O14">
-        <v>2000000</v>
+        <v>315000000</v>
       </c>
       <c r="P14">
-        <v>-13000000</v>
+        <v>195000000</v>
       </c>
       <c r="Q14">
-        <v>-9000000</v>
+        <v>371000000</v>
       </c>
       <c r="R14">
-        <v>7000000</v>
+        <v>419000000</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>488000000</v>
       </c>
       <c r="T14">
-        <v>7000000</v>
+        <v>359000000</v>
       </c>
       <c r="U14">
-        <v>8000000</v>
+        <v>1147000000</v>
       </c>
       <c r="V14">
-        <v>5000000</v>
+        <v>564000000</v>
       </c>
       <c r="W14">
-        <v>10000000</v>
+        <v>557000000</v>
       </c>
       <c r="X14">
-        <v>8000000</v>
+        <v>411000000</v>
       </c>
       <c r="Y14">
-        <v>8000000</v>
+        <v>454000000</v>
       </c>
       <c r="Z14">
-        <v>7000000</v>
+        <v>531000000</v>
       </c>
       <c r="AA14">
-        <v>1000000</v>
+        <v>542000000</v>
       </c>
       <c r="AB14">
-        <v>-1000000</v>
+        <v>468000000</v>
+      </c>
+      <c r="AC14">
+        <v>424000000</v>
       </c>
       <c r="AD14">
-        <v>2000000</v>
+        <v>547000000</v>
       </c>
       <c r="AE14">
-        <v>1000000</v>
+        <v>509000000</v>
       </c>
       <c r="AF14">
-        <v>1000000</v>
+        <v>502000000</v>
       </c>
       <c r="AG14">
-        <v>100000</v>
+        <v>459000000</v>
       </c>
       <c r="AH14">
-        <v>300000</v>
+        <v>569000000</v>
       </c>
       <c r="AI14">
-        <v>1200000</v>
+        <v>537000000</v>
       </c>
       <c r="AJ14">
-        <v>400000</v>
+        <v>463000000</v>
       </c>
       <c r="AK14">
-        <v>-300000</v>
+        <v>442000000</v>
       </c>
       <c r="AL14">
-        <v>900000</v>
+        <v>471000000</v>
       </c>
       <c r="AM14">
-        <v>800000</v>
+        <v>458000000</v>
       </c>
       <c r="AN14">
-        <v>-800000</v>
+        <v>470000000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>3861000000</v>
+      </c>
+      <c r="C15">
+        <v>83000000</v>
+      </c>
+      <c r="D15">
+        <v>1301000000</v>
+      </c>
+      <c r="E15">
+        <v>1337000000</v>
+      </c>
+      <c r="F15">
+        <v>1433000000</v>
+      </c>
+      <c r="G15">
+        <v>1523000000</v>
+      </c>
+      <c r="H15">
+        <v>1626000000</v>
+      </c>
+      <c r="I15">
+        <v>1410000000</v>
+      </c>
+      <c r="J15">
+        <v>1435000000</v>
+      </c>
+      <c r="K15">
+        <v>1303000000</v>
+      </c>
+      <c r="L15">
+        <v>1310000000</v>
+      </c>
+      <c r="M15">
+        <v>917000000</v>
+      </c>
+      <c r="N15">
+        <v>1588000000</v>
+      </c>
+      <c r="O15">
+        <v>1131000000</v>
+      </c>
+      <c r="P15">
+        <v>893000000</v>
+      </c>
+      <c r="Q15">
+        <v>1349000000</v>
+      </c>
+      <c r="R15">
+        <v>1546000000</v>
+      </c>
+      <c r="S15">
+        <v>1862000000</v>
+      </c>
+      <c r="T15">
+        <v>606000000</v>
+      </c>
+      <c r="U15">
+        <v>525000000</v>
+      </c>
+      <c r="V15">
+        <v>1433000000</v>
+      </c>
+      <c r="W15">
+        <v>1585000000</v>
+      </c>
+      <c r="X15">
+        <v>1326000000</v>
+      </c>
+      <c r="Y15">
+        <v>1156000000</v>
+      </c>
+      <c r="Z15">
+        <v>1331000000</v>
+      </c>
+      <c r="AA15">
+        <v>1293000000</v>
+      </c>
+      <c r="AB15">
+        <v>1278000000</v>
+      </c>
+      <c r="AC15">
+        <v>1039000000</v>
+      </c>
+      <c r="AD15">
+        <v>1298000000</v>
+      </c>
+      <c r="AE15">
+        <v>1303000000</v>
+      </c>
+      <c r="AF15">
+        <v>1201000000</v>
+      </c>
+      <c r="AG15">
+        <v>1179000000</v>
+      </c>
+      <c r="AH15">
+        <v>1311000000</v>
+      </c>
+      <c r="AI15">
+        <v>1283000000</v>
+      </c>
+      <c r="AJ15">
+        <v>1225000000</v>
+      </c>
+      <c r="AK15">
+        <v>1116000000</v>
+      </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1245000000</v>
+      </c>
+      <c r="AM15">
+        <v>1213000000</v>
+      </c>
+      <c r="AN15">
+        <v>1147000000</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -2131,73 +2116,118 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>4000000</v>
+      </c>
+      <c r="C16">
+        <v>4000000</v>
+      </c>
+      <c r="D16">
+        <v>4000000</v>
+      </c>
+      <c r="E16">
+        <v>1000000</v>
+      </c>
+      <c r="F16">
+        <v>3000000</v>
+      </c>
+      <c r="G16">
+        <v>1000000</v>
+      </c>
+      <c r="H16">
+        <v>3000000</v>
+      </c>
+      <c r="I16">
+        <v>1000000</v>
+      </c>
+      <c r="J16">
+        <v>4000000</v>
+      </c>
+      <c r="K16">
+        <v>-3000000</v>
+      </c>
+      <c r="L16">
         <v>2000000</v>
       </c>
-      <c r="C16">
-        <v>9000000</v>
-      </c>
-      <c r="D16">
+      <c r="M16">
         <v>1000000</v>
       </c>
-      <c r="J16">
-        <v>-1000000</v>
-      </c>
-      <c r="K16">
-        <v>-2000000</v>
-      </c>
-      <c r="M16">
-        <v>-30000000</v>
+      <c r="N16">
+        <v>5000000</v>
+      </c>
+      <c r="O16">
+        <v>4000000</v>
+      </c>
+      <c r="P16">
+        <v>2000000</v>
       </c>
       <c r="Q16">
-        <v>-2000000</v>
+        <v>2000000</v>
+      </c>
+      <c r="R16">
+        <v>3000000</v>
       </c>
       <c r="S16">
+        <v>5000000</v>
+      </c>
+      <c r="T16">
+        <v>4000000</v>
+      </c>
+      <c r="U16">
+        <v>2000000</v>
+      </c>
+      <c r="V16">
+        <v>4000000</v>
+      </c>
+      <c r="W16">
+        <v>2000000</v>
+      </c>
+      <c r="X16">
+        <v>3000000</v>
+      </c>
+      <c r="Y16">
         <v>1000000</v>
       </c>
-      <c r="V16">
+      <c r="Z16">
+        <v>2000000</v>
+      </c>
+      <c r="AA16">
+        <v>2000000</v>
+      </c>
+      <c r="AB16">
         <v>3000000</v>
       </c>
-      <c r="W16">
+      <c r="AC16">
         <v>1000000</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>2000000</v>
       </c>
-      <c r="Z16">
+      <c r="AE16">
         <v>3000000</v>
       </c>
-      <c r="AC16">
-        <v>10000000</v>
-      </c>
-      <c r="AD16">
-        <v>5000000</v>
-      </c>
       <c r="AF16">
-        <v>7000000</v>
-      </c>
-      <c r="AG16">
-        <v>12400000</v>
+        <v>2000000</v>
       </c>
       <c r="AH16">
-        <v>1000000</v>
+        <v>8000000</v>
       </c>
       <c r="AI16">
-        <v>3200000</v>
+        <v>16000000</v>
       </c>
       <c r="AJ16">
-        <v>11400000</v>
+        <v>18000000</v>
       </c>
       <c r="AK16">
-        <v>10100000</v>
+        <v>13000000</v>
       </c>
       <c r="AL16">
-        <v>6700000</v>
+        <v>15000000</v>
       </c>
       <c r="AM16">
-        <v>4000000</v>
+        <v>16000000</v>
       </c>
       <c r="AN16">
-        <v>7400000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -2205,121 +2235,121 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>392000000</v>
+        <v>3859000000</v>
       </c>
       <c r="C17">
-        <v>-174000000</v>
+        <v>78000000</v>
       </c>
       <c r="D17">
-        <v>446000000</v>
+        <v>1299000000</v>
       </c>
       <c r="E17">
-        <v>297000000</v>
+        <v>1339000000</v>
       </c>
       <c r="F17">
-        <v>179000000</v>
+        <v>1434000000</v>
       </c>
       <c r="G17">
-        <v>202000000</v>
+        <v>1524000000</v>
       </c>
       <c r="H17">
-        <v>200000000</v>
+        <v>1624000000</v>
       </c>
       <c r="I17">
-        <v>227000000</v>
+        <v>1405000000</v>
       </c>
       <c r="J17">
-        <v>241000000</v>
+        <v>1430000000</v>
       </c>
       <c r="K17">
-        <v>94000000</v>
+        <v>1306000000</v>
       </c>
       <c r="L17">
-        <v>23000000</v>
+        <v>1308000000</v>
       </c>
       <c r="M17">
-        <v>160000000</v>
+        <v>916000000</v>
       </c>
       <c r="N17">
-        <v>92000000</v>
+        <v>1583000000</v>
       </c>
       <c r="O17">
-        <v>197000000</v>
+        <v>1127000000</v>
       </c>
       <c r="P17">
-        <v>117000000</v>
+        <v>891000000</v>
       </c>
       <c r="Q17">
-        <v>151000000</v>
+        <v>1347000000</v>
       </c>
       <c r="R17">
-        <v>59000000</v>
+        <v>1543000000</v>
       </c>
       <c r="S17">
-        <v>119000000</v>
+        <v>1857000000</v>
       </c>
       <c r="T17">
-        <v>125000000</v>
+        <v>602000000</v>
       </c>
       <c r="U17">
-        <v>159000000</v>
+        <v>523000000</v>
       </c>
       <c r="V17">
-        <v>48000000</v>
+        <v>1429000000</v>
       </c>
       <c r="W17">
-        <v>99000000</v>
+        <v>1583000000</v>
       </c>
       <c r="X17">
-        <v>68000000</v>
+        <v>1323000000</v>
       </c>
       <c r="Y17">
-        <v>52000000</v>
+        <v>1155000000</v>
       </c>
       <c r="Z17">
-        <v>31000000</v>
+        <v>1329000000</v>
       </c>
       <c r="AA17">
-        <v>307000000</v>
+        <v>1291000000</v>
       </c>
       <c r="AB17">
-        <v>-127000000</v>
+        <v>1275000000</v>
       </c>
       <c r="AC17">
-        <v>55000000</v>
+        <v>1038000000</v>
       </c>
       <c r="AD17">
-        <v>45000000</v>
+        <v>1296000000</v>
       </c>
       <c r="AE17">
-        <v>160000000</v>
+        <v>1300000000</v>
       </c>
       <c r="AF17">
-        <v>21000000</v>
+        <v>1199000000</v>
       </c>
       <c r="AG17">
-        <v>76000000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH17">
-        <v>147400000</v>
+        <v>1303000000</v>
       </c>
       <c r="AI17">
-        <v>153100000</v>
+        <v>1267000000</v>
       </c>
       <c r="AJ17">
-        <v>93500000</v>
+        <v>1207000000</v>
       </c>
       <c r="AK17">
-        <v>124500000</v>
+        <v>1103000000</v>
       </c>
       <c r="AL17">
-        <v>115200000</v>
+        <v>1230000000</v>
       </c>
       <c r="AM17">
-        <v>95100000</v>
+        <v>1197000000</v>
       </c>
       <c r="AN17">
-        <v>72000000</v>
+        <v>1129000000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -2327,121 +2357,121 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.25</v>
+        <v>6.79</v>
       </c>
       <c r="C18">
-        <v>-0.55</v>
+        <v>0.14</v>
       </c>
       <c r="D18">
-        <v>1.39</v>
+        <v>2.27</v>
       </c>
       <c r="E18">
-        <v>0.92</v>
+        <v>2.33</v>
       </c>
       <c r="F18">
-        <v>0.55</v>
+        <v>2.47</v>
       </c>
       <c r="G18">
-        <v>0.62</v>
+        <v>2.62</v>
       </c>
       <c r="H18">
-        <v>0.61</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
-        <v>0.6899999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="J18">
-        <v>0.74</v>
+        <v>2.45</v>
       </c>
       <c r="K18">
-        <v>0.29</v>
+        <v>2.24</v>
       </c>
       <c r="L18">
-        <v>0.07000000000000001</v>
+        <v>2.24</v>
       </c>
       <c r="M18">
-        <v>0.49</v>
+        <v>1.68</v>
       </c>
       <c r="N18">
-        <v>0.28</v>
+        <v>2.75</v>
       </c>
       <c r="O18">
-        <v>0.59</v>
+        <v>1.95</v>
       </c>
       <c r="P18">
-        <v>0.35</v>
+        <v>1.54</v>
       </c>
       <c r="Q18">
-        <v>0.45</v>
+        <v>2.32</v>
       </c>
       <c r="R18">
-        <v>0.17</v>
+        <v>2.64</v>
       </c>
       <c r="S18">
-        <v>0.34</v>
+        <v>3.14</v>
       </c>
       <c r="T18">
-        <v>0.36</v>
+        <v>1.01</v>
       </c>
       <c r="U18">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
       <c r="V18">
-        <v>0.14</v>
+        <v>2.39</v>
       </c>
       <c r="W18">
-        <v>0.28</v>
+        <v>2.65</v>
       </c>
       <c r="X18">
-        <v>0.195</v>
+        <v>2.21</v>
       </c>
       <c r="Y18">
-        <v>0.04</v>
+        <v>1.93</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AA18">
-        <v>1.3</v>
+        <v>2.13</v>
       </c>
       <c r="AB18">
-        <v>-0.45</v>
+        <v>2.1</v>
       </c>
       <c r="AC18">
-        <v>0.2</v>
+        <v>1.69</v>
       </c>
       <c r="AD18">
-        <v>0.16</v>
+        <v>2.09</v>
       </c>
       <c r="AE18">
-        <v>0.58</v>
+        <v>2.06</v>
       </c>
       <c r="AF18">
-        <v>0.075</v>
+        <v>1.88</v>
       </c>
       <c r="AG18">
-        <v>0.28</v>
+        <v>1.85</v>
       </c>
       <c r="AH18">
-        <v>0.535</v>
+        <v>2.02</v>
       </c>
       <c r="AI18">
-        <v>0.55</v>
+        <v>1.94</v>
       </c>
       <c r="AJ18">
-        <v>0.335</v>
+        <v>1.83</v>
       </c>
       <c r="AK18">
-        <v>0.435</v>
+        <v>1.65</v>
       </c>
       <c r="AL18">
-        <v>0.4</v>
+        <v>1.81</v>
       </c>
       <c r="AM18">
-        <v>0.325</v>
+        <v>1.74</v>
       </c>
       <c r="AN18">
-        <v>0.24</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -2449,121 +2479,121 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.24</v>
+        <v>6.77</v>
       </c>
       <c r="C19">
-        <v>-0.55</v>
+        <v>0.14</v>
       </c>
       <c r="D19">
-        <v>1.37</v>
+        <v>2.26</v>
       </c>
       <c r="E19">
-        <v>0.9</v>
+        <v>2.31</v>
       </c>
       <c r="F19">
-        <v>0.54</v>
+        <v>2.45</v>
       </c>
       <c r="G19">
-        <v>0.61</v>
+        <v>2.59</v>
       </c>
       <c r="H19">
-        <v>0.6</v>
+        <v>2.77</v>
       </c>
       <c r="I19">
-        <v>0.68</v>
+        <v>2.38</v>
       </c>
       <c r="J19">
-        <v>0.72</v>
+        <v>2.43</v>
       </c>
       <c r="K19">
-        <v>0.28</v>
+        <v>2.22</v>
       </c>
       <c r="L19">
-        <v>0.07000000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="M19">
-        <v>0.48</v>
+        <v>1.66</v>
       </c>
       <c r="N19">
-        <v>0.27</v>
+        <v>2.72</v>
       </c>
       <c r="O19">
-        <v>0.58</v>
+        <v>1.92</v>
       </c>
       <c r="P19">
-        <v>0.34</v>
+        <v>1.51</v>
       </c>
       <c r="Q19">
-        <v>0.44</v>
+        <v>2.27</v>
       </c>
       <c r="R19">
-        <v>0.17</v>
+        <v>2.58</v>
       </c>
       <c r="S19">
-        <v>0.34</v>
+        <v>3.07</v>
       </c>
       <c r="T19">
-        <v>0.35</v>
+        <v>0.98</v>
       </c>
       <c r="U19">
-        <v>0.52</v>
+        <v>0.85</v>
       </c>
       <c r="V19">
-        <v>0.13</v>
+        <v>2.33</v>
       </c>
       <c r="W19">
-        <v>0.28</v>
+        <v>2.58</v>
       </c>
       <c r="X19">
-        <v>0.19</v>
+        <v>2.16</v>
       </c>
       <c r="Y19">
-        <v>0.04</v>
+        <v>1.88</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AA19">
-        <v>1.27</v>
+        <v>2.08</v>
       </c>
       <c r="AB19">
-        <v>-0.45</v>
+        <v>2.05</v>
       </c>
       <c r="AC19">
-        <v>0.195</v>
+        <v>1.66</v>
       </c>
       <c r="AD19">
-        <v>0.16</v>
+        <v>2.05</v>
       </c>
       <c r="AE19">
-        <v>0.5649999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="AF19">
-        <v>0.075</v>
+        <v>1.85</v>
       </c>
       <c r="AG19">
-        <v>0.27</v>
+        <v>1.81</v>
       </c>
       <c r="AH19">
-        <v>0.52</v>
+        <v>1.98</v>
       </c>
       <c r="AI19">
-        <v>0.535</v>
+        <v>1.91</v>
       </c>
       <c r="AJ19">
-        <v>0.325</v>
+        <v>1.79</v>
       </c>
       <c r="AK19">
-        <v>0.425</v>
+        <v>1.62</v>
       </c>
       <c r="AL19">
-        <v>0.39</v>
+        <v>1.78</v>
       </c>
       <c r="AM19">
-        <v>0.315</v>
+        <v>1.71</v>
       </c>
       <c r="AN19">
-        <v>0.235</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -2571,121 +2601,121 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>314054000</v>
+        <v>568800000</v>
       </c>
       <c r="C20">
-        <v>317006000</v>
+        <v>571000000</v>
       </c>
       <c r="D20">
-        <v>320904000</v>
+        <v>572300000</v>
       </c>
       <c r="E20">
-        <v>325989000</v>
+        <v>579000000</v>
       </c>
       <c r="F20">
-        <v>325876000</v>
+        <v>579600000</v>
       </c>
       <c r="G20">
-        <v>327625000</v>
+        <v>581000000</v>
       </c>
       <c r="H20">
-        <v>327811000</v>
+        <v>580500000</v>
       </c>
       <c r="I20">
-        <v>326260000</v>
+        <v>577600000</v>
       </c>
       <c r="J20">
-        <v>326549000</v>
+        <v>577800000</v>
       </c>
       <c r="K20">
-        <v>325994000</v>
+        <v>577000000</v>
       </c>
       <c r="L20">
-        <v>325346000</v>
+        <v>576800000</v>
       </c>
       <c r="M20">
-        <v>331102000</v>
+        <v>577000000</v>
       </c>
       <c r="N20">
-        <v>331148000</v>
+        <v>576500000</v>
       </c>
       <c r="O20">
-        <v>332825000</v>
+        <v>577700000</v>
       </c>
       <c r="P20">
-        <v>334239000</v>
+        <v>577500000</v>
       </c>
       <c r="Q20">
-        <v>344796000</v>
+        <v>588500000</v>
       </c>
       <c r="R20">
-        <v>342982000</v>
+        <v>585600000</v>
       </c>
       <c r="S20">
-        <v>348221000</v>
+        <v>591400000</v>
       </c>
       <c r="T20">
-        <v>350215000</v>
+        <v>596200000</v>
       </c>
       <c r="U20">
-        <v>350269000</v>
+        <v>597500000</v>
       </c>
       <c r="V20">
-        <v>350327000</v>
+        <v>597600000</v>
       </c>
       <c r="W20">
-        <v>351066000</v>
+        <v>598100000</v>
       </c>
       <c r="X20">
-        <v>350048000</v>
+        <v>598100000</v>
       </c>
       <c r="Y20">
-        <v>316542000</v>
+        <v>604700000</v>
       </c>
       <c r="Z20">
-        <v>349128000</v>
+        <v>604400000</v>
       </c>
       <c r="AA20">
-        <v>284076000</v>
+        <v>606900000</v>
       </c>
       <c r="AB20">
-        <v>283586000</v>
+        <v>607400000</v>
       </c>
       <c r="AC20">
-        <v>274600000</v>
+        <v>625600000</v>
       </c>
       <c r="AD20">
-        <v>274674000</v>
+        <v>620600000</v>
       </c>
       <c r="AE20">
-        <v>275602000</v>
+        <v>631300000</v>
       </c>
       <c r="AF20">
-        <v>274172000</v>
+        <v>636200000</v>
       </c>
       <c r="AG20">
-        <v>277016000</v>
+        <v>649200000</v>
       </c>
       <c r="AH20">
-        <v>276020000</v>
+        <v>645300000</v>
       </c>
       <c r="AI20">
-        <v>278024000</v>
+        <v>652000000</v>
       </c>
       <c r="AJ20">
-        <v>280810000</v>
+        <v>661500000</v>
       </c>
       <c r="AK20">
-        <v>291886000</v>
+        <v>681900000</v>
       </c>
       <c r="AL20">
-        <v>289428000</v>
+        <v>679800000</v>
       </c>
       <c r="AM20">
-        <v>294176000</v>
+        <v>688200000</v>
       </c>
       <c r="AN20">
-        <v>297952000</v>
+        <v>691100000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -2693,121 +2723,121 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>317061000</v>
+        <v>570000000</v>
       </c>
       <c r="C21">
-        <v>317006000</v>
+        <v>572700000</v>
       </c>
       <c r="D21">
-        <v>325916000</v>
+        <v>575000000</v>
       </c>
       <c r="E21">
-        <v>331615000</v>
+        <v>585300000</v>
       </c>
       <c r="F21">
-        <v>331595000</v>
+        <v>586300000</v>
       </c>
       <c r="G21">
-        <v>333378000</v>
+        <v>588600000</v>
       </c>
       <c r="H21">
-        <v>333673000</v>
+        <v>586300000</v>
       </c>
       <c r="I21">
-        <v>332815000</v>
+        <v>582200000</v>
       </c>
       <c r="J21">
-        <v>332654000</v>
+        <v>582400000</v>
       </c>
       <c r="K21">
-        <v>331717000</v>
+        <v>580800000</v>
       </c>
       <c r="L21">
-        <v>332326000</v>
+        <v>581500000</v>
       </c>
       <c r="M21">
-        <v>340121000</v>
+        <v>585100000</v>
       </c>
       <c r="N21">
-        <v>340632000</v>
+        <v>583000000</v>
       </c>
       <c r="O21">
-        <v>341637000</v>
+        <v>586100000</v>
       </c>
       <c r="P21">
-        <v>342676000</v>
+        <v>588500000</v>
       </c>
       <c r="Q21">
-        <v>352321000</v>
+        <v>602000000</v>
       </c>
       <c r="R21">
-        <v>349709000</v>
+        <v>598400000</v>
       </c>
       <c r="S21">
-        <v>354904000</v>
+        <v>604200000</v>
       </c>
       <c r="T21">
-        <v>357552000</v>
+        <v>612700000</v>
       </c>
       <c r="U21">
-        <v>356985000</v>
+        <v>612700000</v>
       </c>
       <c r="V21">
-        <v>358556000</v>
+        <v>612700000</v>
       </c>
       <c r="W21">
-        <v>358979000</v>
+        <v>612800000</v>
       </c>
       <c r="X21">
-        <v>357934000</v>
+        <v>612000000</v>
       </c>
       <c r="Y21">
-        <v>322884000</v>
+        <v>618700000</v>
       </c>
       <c r="Z21">
-        <v>355404000</v>
+        <v>618800000</v>
       </c>
       <c r="AA21">
-        <v>290454000</v>
+        <v>620900000</v>
       </c>
       <c r="AB21">
-        <v>283586000</v>
+        <v>621300000</v>
       </c>
       <c r="AC21">
-        <v>281968000</v>
+        <v>637200000</v>
       </c>
       <c r="AD21">
-        <v>281716000</v>
+        <v>631200000</v>
       </c>
       <c r="AE21">
-        <v>283080000</v>
+        <v>643000000</v>
       </c>
       <c r="AF21">
-        <v>282152000</v>
+        <v>649200000</v>
       </c>
       <c r="AG21">
-        <v>284860000</v>
+        <v>662000000</v>
       </c>
       <c r="AH21">
-        <v>284180000</v>
+        <v>657900000</v>
       </c>
       <c r="AI21">
-        <v>285720000</v>
+        <v>664600000</v>
       </c>
       <c r="AJ21">
-        <v>288116000</v>
+        <v>674500000</v>
       </c>
       <c r="AK21">
-        <v>298446000</v>
+        <v>693600000</v>
       </c>
       <c r="AL21">
-        <v>295790000</v>
+        <v>691800000</v>
       </c>
       <c r="AM21">
-        <v>300610000</v>
+        <v>699100000</v>
       </c>
       <c r="AN21">
-        <v>304632000</v>
+        <v>702100000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -2815,121 +2845,121 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.1711</v>
+        <v>0.4514</v>
       </c>
       <c r="C22">
-        <v>0.1667</v>
+        <v>0.4147</v>
       </c>
       <c r="D22">
-        <v>0.1884</v>
+        <v>0.4534</v>
       </c>
       <c r="E22">
-        <v>0.1886</v>
+        <v>0.4545</v>
       </c>
       <c r="F22">
-        <v>0.1976</v>
+        <v>0.4573</v>
       </c>
       <c r="G22">
-        <v>0.2021</v>
+        <v>0.4727</v>
       </c>
       <c r="H22">
-        <v>0.2022</v>
+        <v>0.4888</v>
       </c>
       <c r="I22">
-        <v>0.2108</v>
+        <v>0.4888</v>
       </c>
       <c r="J22">
-        <v>0.2144</v>
+        <v>0.4847</v>
       </c>
       <c r="K22">
-        <v>0.2039</v>
+        <v>0.4698</v>
       </c>
       <c r="L22">
-        <v>0.2047</v>
+        <v>0.4911</v>
       </c>
       <c r="M22">
-        <v>0.206</v>
+        <v>0.4668</v>
       </c>
       <c r="N22">
-        <v>0.1998</v>
+        <v>0.4759</v>
       </c>
       <c r="O22">
-        <v>0.1952</v>
+        <v>0.4722</v>
       </c>
       <c r="P22">
-        <v>0.191</v>
+        <v>0.4519</v>
       </c>
       <c r="Q22">
-        <v>0.1987</v>
+        <v>0.489</v>
       </c>
       <c r="R22">
-        <v>0.1982</v>
+        <v>0.4898</v>
       </c>
       <c r="S22">
-        <v>0.199</v>
+        <v>0.4962</v>
       </c>
       <c r="T22">
-        <v>0.1968</v>
+        <v>0.4883</v>
       </c>
       <c r="U22">
-        <v>0.2232</v>
+        <v>0.4876</v>
       </c>
       <c r="V22">
-        <v>0.196</v>
+        <v>0.5033</v>
       </c>
       <c r="W22">
-        <v>0.2049</v>
+        <v>0.4853</v>
       </c>
       <c r="X22">
-        <v>0.2014</v>
+        <v>0.4949</v>
       </c>
       <c r="Y22">
-        <v>0.2037</v>
+        <v>0.4823</v>
       </c>
       <c r="Z22">
-        <v>0.1733</v>
+        <v>0.501</v>
       </c>
       <c r="AA22">
-        <v>0.2138</v>
+        <v>0.5042</v>
       </c>
       <c r="AB22">
-        <v>0.1936</v>
+        <v>0.5036</v>
       </c>
       <c r="AC22">
-        <v>0.2055</v>
+        <v>0.4756</v>
       </c>
       <c r="AD22">
-        <v>0.1941</v>
+        <v>0.4973</v>
       </c>
       <c r="AE22">
-        <v>0.1828</v>
+        <v>0.498</v>
       </c>
       <c r="AF22">
-        <v>0.1882</v>
+        <v>0.4958</v>
       </c>
       <c r="AG22">
-        <v>0.1948</v>
+        <v>0.4783</v>
       </c>
       <c r="AH22">
-        <v>0.1928</v>
+        <v>0.4832</v>
       </c>
       <c r="AI22">
-        <v>0.1944</v>
+        <v>0.4856</v>
       </c>
       <c r="AJ22">
-        <v>0.1963</v>
+        <v>0.4853</v>
       </c>
       <c r="AK22">
-        <v>0.2057</v>
+        <v>0.4747</v>
       </c>
       <c r="AL22">
-        <v>0.1892</v>
+        <v>0.476</v>
       </c>
       <c r="AM22">
-        <v>0.1832</v>
+        <v>0.4823</v>
       </c>
       <c r="AN22">
-        <v>0.1745</v>
+        <v>0.4801</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -2937,121 +2967,121 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.1324</v>
+        <v>0.4822</v>
       </c>
       <c r="C23">
-        <v>-0.0259</v>
+        <v>0.0126</v>
       </c>
       <c r="D23">
-        <v>0.1642</v>
+        <v>0.1859</v>
       </c>
       <c r="E23">
-        <v>0.1034</v>
+        <v>0.1876</v>
       </c>
       <c r="F23">
-        <v>0.067</v>
+        <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0.1078</v>
+        <v>0.2202</v>
       </c>
       <c r="H23">
-        <v>0.096</v>
+        <v>0.2253</v>
       </c>
       <c r="I23">
-        <v>0.0954</v>
+        <v>0.2154</v>
       </c>
       <c r="J23">
-        <v>0.1209</v>
+        <v>0.2286</v>
       </c>
       <c r="K23">
-        <v>0.0635</v>
+        <v>0.2425</v>
       </c>
       <c r="L23">
-        <v>0.0557</v>
+        <v>0.2059</v>
       </c>
       <c r="M23">
-        <v>0.07580000000000001</v>
+        <v>0.1634</v>
       </c>
       <c r="N23">
-        <v>0.06710000000000001</v>
+        <v>0.2517</v>
       </c>
       <c r="O23">
-        <v>0.1018</v>
+        <v>0.2083</v>
       </c>
       <c r="P23">
-        <v>0.0794</v>
+        <v>0.1445</v>
       </c>
       <c r="Q23">
-        <v>0.0706</v>
+        <v>0.2244</v>
       </c>
       <c r="R23">
-        <v>0.091</v>
+        <v>0.2473</v>
       </c>
       <c r="S23">
-        <v>0.0784</v>
+        <v>0.2862</v>
       </c>
       <c r="T23">
-        <v>0.08110000000000001</v>
+        <v>0.1216</v>
       </c>
       <c r="U23">
-        <v>0.1234</v>
+        <v>0.2239</v>
       </c>
       <c r="V23">
-        <v>0.0426</v>
+        <v>0.2457</v>
       </c>
       <c r="W23">
-        <v>0.0655</v>
+        <v>0.2757</v>
       </c>
       <c r="X23">
-        <v>0.0615</v>
+        <v>0.2267</v>
       </c>
       <c r="Y23">
-        <v>0.06419999999999999</v>
+        <v>0.2004</v>
       </c>
       <c r="Z23">
-        <v>0.048</v>
+        <v>0.247</v>
       </c>
       <c r="AA23">
-        <v>0.1374</v>
+        <v>0.2435</v>
       </c>
       <c r="AB23">
-        <v>-0.0626</v>
+        <v>0.2413</v>
       </c>
       <c r="AC23">
-        <v>0.07199999999999999</v>
+        <v>0.2055</v>
       </c>
       <c r="AD23">
-        <v>0.0362</v>
+        <v>0.2433</v>
       </c>
       <c r="AE23">
-        <v>0.1262</v>
+        <v>0.2394</v>
       </c>
       <c r="AF23">
-        <v>0.0655</v>
+        <v>0.2283</v>
       </c>
       <c r="AG23">
-        <v>0.0678</v>
+        <v>0.2153</v>
       </c>
       <c r="AH23">
-        <v>0.1018</v>
+        <v>0.2336</v>
       </c>
       <c r="AI23">
-        <v>0.1117</v>
+        <v>0.2282</v>
       </c>
       <c r="AJ23">
-        <v>0.1083</v>
+        <v>0.2191</v>
       </c>
       <c r="AK23">
-        <v>0.1188</v>
+        <v>0.2086</v>
       </c>
       <c r="AL23">
-        <v>0.0929</v>
+        <v>0.2197</v>
       </c>
       <c r="AM23">
-        <v>0.0924</v>
+        <v>0.2196</v>
       </c>
       <c r="AN23">
-        <v>0.0718</v>
+        <v>0.2156</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -3059,121 +3089,121 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.1124</v>
+        <v>0.4794</v>
       </c>
       <c r="C24">
-        <v>-0.0428</v>
+        <v>0.0069</v>
       </c>
       <c r="D24">
-        <v>0.1456</v>
+        <v>0.1816</v>
       </c>
       <c r="E24">
-        <v>0.0814</v>
+        <v>0.1816</v>
       </c>
       <c r="F24">
-        <v>0.0476</v>
+        <v>0.1965</v>
       </c>
       <c r="G24">
-        <v>0.0888</v>
+        <v>0.2165</v>
       </c>
       <c r="H24">
-        <v>0.0746</v>
+        <v>0.2197</v>
       </c>
       <c r="I24">
-        <v>0.0732</v>
+        <v>0.2017</v>
       </c>
       <c r="J24">
-        <v>0.09859999999999999</v>
+        <v>0.2187</v>
       </c>
       <c r="K24">
-        <v>0.0396</v>
+        <v>0.2299</v>
       </c>
       <c r="L24">
-        <v>0.0158</v>
+        <v>0.1967</v>
       </c>
       <c r="M24">
-        <v>0.0452</v>
+        <v>0.1409</v>
       </c>
       <c r="N24">
-        <v>0.0403</v>
+        <v>0.246</v>
       </c>
       <c r="O24">
-        <v>0.07489999999999999</v>
+        <v>0.177</v>
       </c>
       <c r="P24">
-        <v>0.0503</v>
+        <v>0.1384</v>
       </c>
       <c r="Q24">
-        <v>0.0439</v>
+        <v>0.2165</v>
       </c>
       <c r="R24">
-        <v>0.06519999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="S24">
-        <v>0.0535</v>
+        <v>0.2801</v>
       </c>
       <c r="T24">
-        <v>0.0546</v>
+        <v>0.1166</v>
       </c>
       <c r="U24">
-        <v>0.09760000000000001</v>
+        <v>0.2093</v>
       </c>
       <c r="V24">
-        <v>0.0172</v>
+        <v>0.2444</v>
       </c>
       <c r="W24">
-        <v>0.0392</v>
+        <v>0.2743</v>
       </c>
       <c r="X24">
-        <v>0.034</v>
+        <v>0.226</v>
       </c>
       <c r="Y24">
-        <v>0.0365</v>
+        <v>0.2197</v>
       </c>
       <c r="Z24">
-        <v>0.0182</v>
+        <v>0.2415</v>
       </c>
       <c r="AA24">
-        <v>0.0946</v>
+        <v>0.2395</v>
       </c>
       <c r="AB24">
-        <v>-0.119</v>
+        <v>0.2357</v>
       </c>
       <c r="AC24">
-        <v>0.0349</v>
+        <v>0.2005</v>
       </c>
       <c r="AD24">
-        <v>0.0081</v>
+        <v>0.2392</v>
       </c>
       <c r="AE24">
-        <v>0.1096</v>
+        <v>0.2358</v>
       </c>
       <c r="AF24">
-        <v>0.0146</v>
+        <v>0.2247</v>
       </c>
       <c r="AG24">
-        <v>0.0486</v>
+        <v>0.2122</v>
       </c>
       <c r="AH24">
-        <v>0.0839</v>
+        <v>0.231</v>
       </c>
       <c r="AI24">
-        <v>0.0939</v>
+        <v>0.2238</v>
       </c>
       <c r="AJ24">
-        <v>0.0718</v>
+        <v>0.2156</v>
       </c>
       <c r="AK24">
-        <v>0.0959</v>
+        <v>0.2058</v>
       </c>
       <c r="AL24">
-        <v>0.0723</v>
+        <v>0.2168</v>
       </c>
       <c r="AM24">
-        <v>0.0586</v>
+        <v>0.2156</v>
       </c>
       <c r="AN24">
-        <v>0.0493</v>
+        <v>0.2118</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -3181,121 +3211,121 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.0992</v>
+        <v>0.4477</v>
       </c>
       <c r="C25">
-        <v>-0.0421</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D25">
-        <v>0.12</v>
+        <v>0.1471</v>
       </c>
       <c r="E25">
-        <v>0.0808</v>
+        <v>0.1555</v>
       </c>
       <c r="F25">
-        <v>0.0504</v>
+        <v>0.1604</v>
       </c>
       <c r="G25">
-        <v>0.0584</v>
+        <v>0.1703</v>
       </c>
       <c r="H25">
-        <v>0.064</v>
+        <v>0.1835</v>
       </c>
       <c r="I25">
-        <v>0.0732</v>
+        <v>0.1637</v>
       </c>
       <c r="J25">
-        <v>0.0779</v>
+        <v>0.1713</v>
       </c>
       <c r="K25">
-        <v>0.0336</v>
+        <v>0.182</v>
       </c>
       <c r="L25">
-        <v>0.0083</v>
+        <v>0.162</v>
       </c>
       <c r="M25">
-        <v>0.0588</v>
+        <v>0.1129</v>
       </c>
       <c r="N25">
-        <v>0.0312</v>
+        <v>0.1981</v>
       </c>
       <c r="O25">
-        <v>0.0653</v>
+        <v>0.1379</v>
       </c>
       <c r="P25">
-        <v>0.042</v>
+        <v>0.1133</v>
       </c>
       <c r="Q25">
-        <v>0.0539</v>
+        <v>0.1695</v>
       </c>
       <c r="R25">
-        <v>0.02</v>
+        <v>0.1893</v>
       </c>
       <c r="S25">
-        <v>0.0384</v>
+        <v>0.2213</v>
       </c>
       <c r="T25">
-        <v>0.0449</v>
+        <v>0.0727</v>
       </c>
       <c r="U25">
-        <v>0.0579</v>
+        <v>0.0655</v>
       </c>
       <c r="V25">
-        <v>0.0165</v>
+        <v>0.1749</v>
       </c>
       <c r="W25">
-        <v>0.0347</v>
+        <v>0.2027</v>
       </c>
       <c r="X25">
-        <v>0.0275</v>
+        <v>0.1722</v>
       </c>
       <c r="Y25">
-        <v>0.0206</v>
+        <v>0.1576</v>
       </c>
       <c r="Z25">
-        <v>0.0113</v>
+        <v>0.1724</v>
       </c>
       <c r="AA25">
-        <v>0.1512</v>
+        <v>0.1685</v>
       </c>
       <c r="AB25">
-        <v>-0.0723</v>
+        <v>0.1721</v>
       </c>
       <c r="AC25">
-        <v>0.0305</v>
+        <v>0.1422</v>
       </c>
       <c r="AD25">
-        <v>0.0215</v>
+        <v>0.168</v>
       </c>
       <c r="AE25">
-        <v>0.0737</v>
+        <v>0.1691</v>
       </c>
       <c r="AF25">
-        <v>0.0109</v>
+        <v>0.1582</v>
       </c>
       <c r="AG25">
-        <v>0.0374</v>
+        <v>0.1527</v>
       </c>
       <c r="AH25">
-        <v>0.0658</v>
+        <v>0.1601</v>
       </c>
       <c r="AI25">
-        <v>0.0668</v>
+        <v>0.1558</v>
       </c>
       <c r="AJ25">
-        <v>0.0466</v>
+        <v>0.1541</v>
       </c>
       <c r="AK25">
-        <v>0.0623</v>
+        <v>0.1457</v>
       </c>
       <c r="AL25">
-        <v>0.0506</v>
+        <v>0.1554</v>
       </c>
       <c r="AM25">
-        <v>0.0432</v>
+        <v>0.1544</v>
       </c>
       <c r="AN25">
-        <v>0.0362</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -3303,121 +3333,121 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>680000000</v>
+        <v>4606000000</v>
       </c>
       <c r="C26">
-        <v>61000000</v>
+        <v>572000000</v>
       </c>
       <c r="D26">
-        <v>795000000</v>
+        <v>2100000000</v>
       </c>
       <c r="E26">
-        <v>565000000</v>
+        <v>2123000000</v>
       </c>
       <c r="F26">
-        <v>413000000</v>
+        <v>2264000000</v>
       </c>
       <c r="G26">
-        <v>545000000</v>
+        <v>2443000000</v>
       </c>
       <c r="H26">
-        <v>468000000</v>
+        <v>2454000000</v>
       </c>
       <c r="I26">
-        <v>465000000</v>
+        <v>2347000000</v>
       </c>
       <c r="J26">
-        <v>534000000</v>
+        <v>2390000000</v>
       </c>
       <c r="K26">
-        <v>348000000</v>
+        <v>2232000000</v>
       </c>
       <c r="L26">
-        <v>324000000</v>
+        <v>2103000000</v>
       </c>
       <c r="M26">
-        <v>374000000</v>
+        <v>1788000000</v>
       </c>
       <c r="N26">
-        <v>367000000</v>
+        <v>2390000000</v>
       </c>
       <c r="O26">
-        <v>478000000</v>
+        <v>2078000000</v>
       </c>
       <c r="P26">
-        <v>391000000</v>
+        <v>1511000000</v>
       </c>
       <c r="Q26">
-        <v>371000000</v>
+        <v>2154000000</v>
       </c>
       <c r="R26">
-        <v>439000000</v>
+        <v>2371000000</v>
       </c>
       <c r="S26">
-        <v>421000000</v>
+        <v>2781000000</v>
       </c>
       <c r="T26">
-        <v>406000000</v>
+        <v>1389000000</v>
       </c>
       <c r="U26">
-        <v>529000000</v>
+        <v>2138000000</v>
       </c>
       <c r="V26">
-        <v>286000000</v>
+        <v>2385000000</v>
       </c>
       <c r="W26">
-        <v>416000000</v>
+        <v>2533000000</v>
       </c>
       <c r="X26">
-        <v>300000000</v>
+        <v>2180000000</v>
       </c>
       <c r="Y26">
-        <v>316000000</v>
+        <v>1853000000</v>
       </c>
       <c r="Z26">
-        <v>278000000</v>
+        <v>2272000000</v>
       </c>
       <c r="AA26">
-        <v>357000000</v>
+        <v>2232000000</v>
       </c>
       <c r="AB26">
-        <v>-35000000</v>
+        <v>2144000000</v>
       </c>
       <c r="AC26">
-        <v>204000000</v>
+        <v>1897000000</v>
       </c>
       <c r="AD26">
-        <v>149000000</v>
+        <v>2231000000</v>
       </c>
       <c r="AE26">
-        <v>345000000</v>
+        <v>2184000000</v>
       </c>
       <c r="AF26">
-        <v>194000000</v>
+        <v>2069000000</v>
       </c>
       <c r="AG26">
-        <v>209000100</v>
+        <v>2012000000</v>
       </c>
       <c r="AH26">
-        <v>299299900</v>
+        <v>2251000000</v>
       </c>
       <c r="AI26">
-        <v>325499900</v>
+        <v>2214000000</v>
       </c>
       <c r="AJ26">
-        <v>286200000</v>
+        <v>2066000000</v>
       </c>
       <c r="AK26">
-        <v>313600300</v>
+        <v>1936000000</v>
       </c>
       <c r="AL26">
-        <v>288199900</v>
+        <v>2082000000</v>
       </c>
       <c r="AM26">
-        <v>277999900</v>
+        <v>2037000000</v>
       </c>
       <c r="AN26">
-        <v>215500000</v>
+        <v>1982000000</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -3425,121 +3455,121 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>523000000</v>
+        <v>4156000000</v>
       </c>
       <c r="C27">
-        <v>-107000000</v>
+        <v>110000000</v>
       </c>
       <c r="D27">
-        <v>610000000</v>
+        <v>1641000000</v>
       </c>
       <c r="E27">
-        <v>380000000</v>
+        <v>1616000000</v>
       </c>
       <c r="F27">
-        <v>238000000</v>
+        <v>1788000000</v>
       </c>
       <c r="G27">
-        <v>373000000</v>
+        <v>1971000000</v>
       </c>
       <c r="H27">
-        <v>300000000</v>
+        <v>1994000000</v>
       </c>
       <c r="I27">
-        <v>296000000</v>
+        <v>1849000000</v>
       </c>
       <c r="J27">
-        <v>374000000</v>
+        <v>1909000000</v>
       </c>
       <c r="K27">
-        <v>178000000</v>
+        <v>1740000000</v>
       </c>
       <c r="L27">
-        <v>155000000</v>
+        <v>1663000000</v>
       </c>
       <c r="M27">
-        <v>206000000</v>
+        <v>1325000000</v>
       </c>
       <c r="N27">
-        <v>198000000</v>
+        <v>2011000000</v>
       </c>
       <c r="O27">
-        <v>307000000</v>
+        <v>1702000000</v>
       </c>
       <c r="P27">
-        <v>221000000</v>
+        <v>1136000000</v>
       </c>
       <c r="Q27">
-        <v>198000000</v>
+        <v>1783000000</v>
       </c>
       <c r="R27">
-        <v>268000000</v>
+        <v>2016000000</v>
       </c>
       <c r="S27">
-        <v>243000000</v>
+        <v>2401000000</v>
       </c>
       <c r="T27">
-        <v>226000000</v>
+        <v>1007000000</v>
       </c>
       <c r="U27">
-        <v>339000000</v>
+        <v>1789000000</v>
       </c>
       <c r="V27">
-        <v>124000000</v>
+        <v>2008000000</v>
       </c>
       <c r="W27">
-        <v>187000000</v>
+        <v>2153000000</v>
       </c>
       <c r="X27">
-        <v>152000000</v>
+        <v>1742000000</v>
       </c>
       <c r="Y27">
-        <v>162000000</v>
+        <v>1469000000</v>
       </c>
       <c r="Z27">
-        <v>132000000</v>
+        <v>1904000000</v>
       </c>
       <c r="AA27">
-        <v>279000000</v>
+        <v>1866000000</v>
       </c>
       <c r="AB27">
-        <v>-110000000</v>
+        <v>1788000000</v>
       </c>
       <c r="AC27">
-        <v>130000000</v>
+        <v>1500000000</v>
       </c>
       <c r="AD27">
-        <v>76000000</v>
+        <v>1876000000</v>
       </c>
       <c r="AE27">
-        <v>274000000</v>
+        <v>1840000000</v>
       </c>
       <c r="AF27">
-        <v>126000000</v>
+        <v>1730000000</v>
       </c>
       <c r="AG27">
-        <v>137700200</v>
+        <v>1662000000</v>
       </c>
       <c r="AH27">
-        <v>227999900</v>
+        <v>1901000000</v>
       </c>
       <c r="AI27">
-        <v>255899900</v>
+        <v>1856000000</v>
       </c>
       <c r="AJ27">
-        <v>217400000</v>
+        <v>1716000000</v>
       </c>
       <c r="AK27">
-        <v>237300200</v>
+        <v>1579000000</v>
       </c>
       <c r="AL27">
-        <v>211599900</v>
+        <v>1739000000</v>
       </c>
       <c r="AM27">
-        <v>203499900</v>
+        <v>1702000000</v>
       </c>
       <c r="AN27">
-        <v>143000000</v>
+        <v>1646000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -3547,135 +3577,243 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>394000000</v>
+        <v>3863000000</v>
       </c>
       <c r="C28">
-        <v>-165000000</v>
+        <v>82000000</v>
       </c>
       <c r="D28">
-        <v>447000000</v>
+        <v>1303000000</v>
       </c>
       <c r="E28">
-        <v>297000000</v>
+        <v>1340000000</v>
       </c>
       <c r="F28">
-        <v>179000000</v>
+        <v>1437000000</v>
       </c>
       <c r="G28">
-        <v>202000000</v>
+        <v>1525000000</v>
       </c>
       <c r="H28">
-        <v>200000000</v>
+        <v>1627000000</v>
       </c>
       <c r="I28">
-        <v>227000000</v>
+        <v>1406000000</v>
       </c>
       <c r="J28">
-        <v>240000000</v>
+        <v>1434000000</v>
       </c>
       <c r="K28">
-        <v>92000000</v>
+        <v>1303000000</v>
       </c>
       <c r="L28">
-        <v>23000000</v>
+        <v>1310000000</v>
       </c>
       <c r="M28">
-        <v>130000000</v>
+        <v>917000000</v>
       </c>
       <c r="N28">
-        <v>92000000</v>
+        <v>1588000000</v>
       </c>
       <c r="O28">
-        <v>197000000</v>
+        <v>1131000000</v>
       </c>
       <c r="P28">
-        <v>117000000</v>
+        <v>893000000</v>
       </c>
       <c r="Q28">
-        <v>149000000</v>
+        <v>1349000000</v>
       </c>
       <c r="R28">
-        <v>59000000</v>
+        <v>1546000000</v>
       </c>
       <c r="S28">
-        <v>120000000</v>
+        <v>1862000000</v>
       </c>
       <c r="T28">
-        <v>125000000</v>
+        <v>606000000</v>
       </c>
       <c r="U28">
-        <v>159000000</v>
+        <v>525000000</v>
       </c>
       <c r="V28">
-        <v>51000000</v>
+        <v>1433000000</v>
       </c>
       <c r="W28">
-        <v>100000000</v>
+        <v>1585000000</v>
       </c>
       <c r="X28">
-        <v>70000000</v>
+        <v>1326000000</v>
       </c>
       <c r="Y28">
-        <v>52000000</v>
+        <v>1156000000</v>
       </c>
       <c r="Z28">
-        <v>34000000</v>
+        <v>1331000000</v>
       </c>
       <c r="AA28">
-        <v>307000000</v>
+        <v>1293000000</v>
       </c>
       <c r="AB28">
-        <v>-127000000</v>
+        <v>1278000000</v>
       </c>
       <c r="AC28">
-        <v>65000000</v>
+        <v>1039000000</v>
       </c>
       <c r="AD28">
-        <v>50000000</v>
+        <v>1298000000</v>
       </c>
       <c r="AE28">
-        <v>160000000</v>
+        <v>1303000000</v>
       </c>
       <c r="AF28">
-        <v>28000000</v>
+        <v>1201000000</v>
       </c>
       <c r="AG28">
-        <v>88400000</v>
+        <v>1179000000</v>
       </c>
       <c r="AH28">
-        <v>148400000</v>
+        <v>1311000000</v>
       </c>
       <c r="AI28">
-        <v>156300000</v>
+        <v>1283000000</v>
       </c>
       <c r="AJ28">
-        <v>104900000</v>
+        <v>1225000000</v>
       </c>
       <c r="AK28">
-        <v>134600000</v>
+        <v>1116000000</v>
       </c>
       <c r="AL28">
-        <v>121600000</v>
+        <v>1245000000</v>
       </c>
       <c r="AM28">
-        <v>99100000</v>
+        <v>1213000000</v>
       </c>
       <c r="AN28">
-        <v>79300000</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
       <c r="A29" t="s">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>3863000000</v>
+      </c>
+      <c r="C29">
+        <v>82000000</v>
+      </c>
+      <c r="D29">
+        <v>1303000000</v>
+      </c>
+      <c r="E29">
+        <v>1340000000</v>
+      </c>
+      <c r="F29">
+        <v>1437000000</v>
+      </c>
+      <c r="G29">
+        <v>1525000000</v>
+      </c>
+      <c r="H29">
+        <v>1627000000</v>
+      </c>
+      <c r="I29">
+        <v>1406000000</v>
+      </c>
+      <c r="J29">
+        <v>1434000000</v>
+      </c>
+      <c r="K29">
+        <v>1303000000</v>
+      </c>
+      <c r="L29">
+        <v>1310000000</v>
+      </c>
+      <c r="M29">
+        <v>917000000</v>
+      </c>
+      <c r="N29">
+        <v>1588000000</v>
+      </c>
+      <c r="O29">
+        <v>1131000000</v>
+      </c>
+      <c r="P29">
+        <v>893000000</v>
+      </c>
+      <c r="Q29">
+        <v>1349000000</v>
+      </c>
+      <c r="R29">
+        <v>1546000000</v>
+      </c>
+      <c r="S29">
+        <v>1862000000</v>
+      </c>
+      <c r="T29">
+        <v>606000000</v>
+      </c>
+      <c r="U29">
+        <v>525000000</v>
+      </c>
+      <c r="V29">
+        <v>1433000000</v>
+      </c>
+      <c r="W29">
+        <v>1585000000</v>
+      </c>
+      <c r="X29">
+        <v>1326000000</v>
+      </c>
+      <c r="Y29">
+        <v>1156000000</v>
+      </c>
+      <c r="Z29">
+        <v>1331000000</v>
+      </c>
+      <c r="AA29">
+        <v>1293000000</v>
+      </c>
+      <c r="AB29">
+        <v>1278000000</v>
+      </c>
+      <c r="AC29">
+        <v>1039000000</v>
+      </c>
+      <c r="AD29">
+        <v>1298000000</v>
+      </c>
+      <c r="AE29">
+        <v>1303000000</v>
+      </c>
+      <c r="AF29">
+        <v>1201000000</v>
+      </c>
+      <c r="AG29">
+        <v>1179000000</v>
+      </c>
+      <c r="AH29">
+        <v>1311000000</v>
+      </c>
+      <c r="AI29">
+        <v>1283000000</v>
+      </c>
+      <c r="AJ29">
+        <v>1225000000</v>
+      </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1116000000</v>
       </c>
       <c r="AL29">
-        <v>300000</v>
+        <v>1245000000</v>
+      </c>
+      <c r="AM29">
+        <v>1213000000</v>
       </c>
       <c r="AN29">
-        <v>100000</v>
+        <v>1147000000</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -3683,121 +3821,121 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>394000000</v>
+        <v>6.7915</v>
       </c>
       <c r="C30">
-        <v>-165000000</v>
+        <v>0.1436</v>
       </c>
       <c r="D30">
-        <v>447000000</v>
+        <v>2.2768</v>
       </c>
       <c r="E30">
-        <v>297000000</v>
+        <v>2.3332</v>
       </c>
       <c r="F30">
-        <v>179000000</v>
+        <v>2.4793</v>
       </c>
       <c r="G30">
-        <v>202000000</v>
+        <v>2.6248</v>
       </c>
       <c r="H30">
-        <v>200000000</v>
+        <v>2.8028</v>
       </c>
       <c r="I30">
-        <v>227000000</v>
+        <v>2.4296</v>
       </c>
       <c r="J30">
-        <v>240000000</v>
+        <v>2.4818</v>
       </c>
       <c r="K30">
-        <v>92000000</v>
+        <v>2.2582</v>
       </c>
       <c r="L30">
-        <v>23000000</v>
+        <v>2.2712</v>
       </c>
       <c r="M30">
-        <v>130000000</v>
+        <v>1.5906</v>
       </c>
       <c r="N30">
-        <v>92000000</v>
+        <v>2.7546</v>
       </c>
       <c r="O30">
-        <v>197000000</v>
+        <v>1.9578</v>
       </c>
       <c r="P30">
-        <v>117000000</v>
+        <v>1.5463</v>
       </c>
       <c r="Q30">
-        <v>149000000</v>
+        <v>2.3081</v>
       </c>
       <c r="R30">
-        <v>59000000</v>
+        <v>2.64</v>
       </c>
       <c r="S30">
-        <v>120000000</v>
+        <v>3.1485</v>
       </c>
       <c r="T30">
-        <v>125000000</v>
+        <v>1.0164</v>
       </c>
       <c r="U30">
-        <v>159000000</v>
+        <v>0.8839</v>
       </c>
       <c r="V30">
-        <v>51000000</v>
+        <v>2.3979</v>
       </c>
       <c r="W30">
-        <v>100000000</v>
+        <v>2.6501</v>
       </c>
       <c r="X30">
-        <v>70000000</v>
+        <v>2.217</v>
       </c>
       <c r="Y30">
-        <v>52000000</v>
+        <v>1.9277</v>
       </c>
       <c r="Z30">
-        <v>34000000</v>
+        <v>2.2022</v>
       </c>
       <c r="AA30">
-        <v>307000000</v>
+        <v>2.1305</v>
       </c>
       <c r="AB30">
-        <v>-127000000</v>
+        <v>2.1041</v>
       </c>
       <c r="AC30">
-        <v>65000000</v>
+        <v>1.6949</v>
       </c>
       <c r="AD30">
-        <v>50000000</v>
+        <v>2.0915</v>
       </c>
       <c r="AE30">
-        <v>160000000</v>
+        <v>2.064</v>
       </c>
       <c r="AF30">
-        <v>28000000</v>
+        <v>1.8878</v>
       </c>
       <c r="AG30">
-        <v>88400000</v>
+        <v>1.8474</v>
       </c>
       <c r="AH30">
-        <v>148400000</v>
+        <v>2.0316</v>
       </c>
       <c r="AI30">
-        <v>156300000</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ30">
-        <v>104900000</v>
+        <v>1.8519</v>
       </c>
       <c r="AK30">
-        <v>134600000</v>
+        <v>1.6696</v>
       </c>
       <c r="AL30">
-        <v>121900000</v>
+        <v>1.8314</v>
       </c>
       <c r="AM30">
-        <v>99100000</v>
+        <v>1.7626</v>
       </c>
       <c r="AN30">
-        <v>79400000</v>
+        <v>1.6597</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -3805,121 +3943,121 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.2546</v>
+        <v>6.7772</v>
       </c>
       <c r="C31">
-        <v>-0.5205</v>
+        <v>0.1432</v>
       </c>
       <c r="D31">
-        <v>1.3929</v>
+        <v>2.2661</v>
       </c>
       <c r="E31">
-        <v>0.9174</v>
+        <v>2.313</v>
       </c>
       <c r="F31">
-        <v>0.5493</v>
+        <v>2.451</v>
       </c>
       <c r="G31">
-        <v>0.6166</v>
+        <v>2.5909</v>
       </c>
       <c r="H31">
-        <v>0.6101</v>
+        <v>2.775</v>
       </c>
       <c r="I31">
-        <v>0.696</v>
+        <v>2.4077</v>
       </c>
       <c r="J31">
-        <v>0.735</v>
+        <v>2.4622</v>
       </c>
       <c r="K31">
-        <v>0.2822</v>
+        <v>2.2435</v>
       </c>
       <c r="L31">
-        <v>0.0707</v>
+        <v>2.2528</v>
       </c>
       <c r="M31">
-        <v>0.3991</v>
+        <v>1.5696</v>
       </c>
       <c r="N31">
-        <v>0.2778</v>
+        <v>2.7238</v>
       </c>
       <c r="O31">
-        <v>0.5919</v>
+        <v>1.9297</v>
       </c>
       <c r="P31">
-        <v>0.35</v>
+        <v>1.5174</v>
       </c>
       <c r="Q31">
-        <v>0.4403</v>
+        <v>2.2543</v>
       </c>
       <c r="R31">
-        <v>0.172</v>
+        <v>2.5836</v>
       </c>
       <c r="S31">
-        <v>0.3446</v>
+        <v>3.0818</v>
       </c>
       <c r="T31">
-        <v>0.3569</v>
+        <v>0.9891</v>
       </c>
       <c r="U31">
-        <v>0.4545</v>
+        <v>0.8548</v>
       </c>
       <c r="V31">
-        <v>0.1456</v>
+        <v>2.3388</v>
       </c>
       <c r="W31">
-        <v>0.2848</v>
+        <v>2.5865</v>
       </c>
       <c r="X31">
-        <v>0.2</v>
+        <v>2.1667</v>
       </c>
       <c r="Y31">
-        <v>0.1101</v>
+        <v>1.8848</v>
       </c>
       <c r="Z31">
-        <v>0.0974</v>
+        <v>2.1509</v>
       </c>
       <c r="AA31">
-        <v>1.0807</v>
+        <v>2.0825</v>
       </c>
       <c r="AB31">
-        <v>-0.4478</v>
+        <v>2.057</v>
       </c>
       <c r="AC31">
-        <v>0.2387</v>
+        <v>1.6645</v>
       </c>
       <c r="AD31">
-        <v>0.182</v>
+        <v>2.0564</v>
       </c>
       <c r="AE31">
-        <v>0.5805</v>
+        <v>2.0264</v>
       </c>
       <c r="AF31">
-        <v>0.1021</v>
+        <v>1.85</v>
       </c>
       <c r="AG31">
-        <v>0.3243</v>
+        <v>1.8105</v>
       </c>
       <c r="AH31">
-        <v>0.5376</v>
+        <v>1.9927</v>
       </c>
       <c r="AI31">
-        <v>0.5622</v>
+        <v>1.9305</v>
       </c>
       <c r="AJ31">
-        <v>0.3736</v>
+        <v>1.8162</v>
       </c>
       <c r="AK31">
-        <v>0.43</v>
+        <v>1.6381</v>
       </c>
       <c r="AL31">
-        <v>0.4</v>
+        <v>1.7997</v>
       </c>
       <c r="AM31">
-        <v>0.325</v>
+        <v>1.7351</v>
       </c>
       <c r="AN31">
-        <v>0.24</v>
+        <v>1.6337</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -3927,149 +4065,365 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.2427</v>
+        <v>6.7915</v>
       </c>
       <c r="C32">
-        <v>-0.5205</v>
+        <v>0.1436</v>
       </c>
       <c r="D32">
-        <v>1.3715</v>
+        <v>2.2768</v>
       </c>
       <c r="E32">
-        <v>0.9025</v>
+        <v>2.3332</v>
       </c>
       <c r="F32">
-        <v>0.5397999999999999</v>
+        <v>2.4793</v>
       </c>
       <c r="G32">
-        <v>0.6059</v>
+        <v>2.6248</v>
       </c>
       <c r="H32">
-        <v>0.5994</v>
+        <v>2.8028</v>
       </c>
       <c r="I32">
-        <v>0.6807</v>
+        <v>2.4296</v>
       </c>
       <c r="J32">
-        <v>0.7215</v>
+        <v>2.4818</v>
       </c>
       <c r="K32">
-        <v>0.2773</v>
+        <v>2.2582</v>
       </c>
       <c r="L32">
-        <v>0.0692</v>
+        <v>2.2712</v>
       </c>
       <c r="M32">
-        <v>0.3878</v>
+        <v>1.5906</v>
       </c>
       <c r="N32">
-        <v>0.2701</v>
+        <v>2.7546</v>
       </c>
       <c r="O32">
-        <v>0.5766</v>
+        <v>1.9578</v>
       </c>
       <c r="P32">
-        <v>0.3414</v>
+        <v>1.5463</v>
       </c>
       <c r="Q32">
-        <v>0.4293</v>
+        <v>2.3081</v>
       </c>
       <c r="R32">
-        <v>0.1687</v>
+        <v>2.64</v>
       </c>
       <c r="S32">
-        <v>0.3381</v>
+        <v>3.1485</v>
       </c>
       <c r="T32">
-        <v>0.3496</v>
+        <v>1.0164</v>
       </c>
       <c r="U32">
-        <v>0.4481</v>
+        <v>0.8839</v>
       </c>
       <c r="V32">
-        <v>0.1422</v>
+        <v>2.3979</v>
       </c>
       <c r="W32">
-        <v>0.2786</v>
+        <v>2.6501</v>
       </c>
       <c r="X32">
-        <v>0.1956</v>
+        <v>2.217</v>
       </c>
       <c r="Y32">
-        <v>0.119</v>
+        <v>1.9277</v>
       </c>
       <c r="Z32">
-        <v>0.09569999999999999</v>
+        <v>2.2022</v>
       </c>
       <c r="AA32">
-        <v>1.057</v>
+        <v>2.1305</v>
       </c>
       <c r="AB32">
-        <v>-0.4478</v>
+        <v>2.1041</v>
       </c>
       <c r="AC32">
-        <v>0.2327</v>
+        <v>1.6949</v>
       </c>
       <c r="AD32">
-        <v>0.1775</v>
+        <v>2.0915</v>
       </c>
       <c r="AE32">
-        <v>0.5652</v>
+        <v>2.064</v>
       </c>
       <c r="AF32">
-        <v>0.0992</v>
+        <v>1.8878</v>
       </c>
       <c r="AG32">
-        <v>0.3149</v>
+        <v>1.8474</v>
       </c>
       <c r="AH32">
-        <v>0.5222</v>
+        <v>2.0316</v>
       </c>
       <c r="AI32">
-        <v>0.547</v>
+        <v>1.9678</v>
       </c>
       <c r="AJ32">
-        <v>0.3641</v>
+        <v>1.8519</v>
       </c>
       <c r="AK32">
-        <v>0.425</v>
+        <v>1.6696</v>
       </c>
       <c r="AL32">
-        <v>0.39</v>
+        <v>1.8314</v>
       </c>
       <c r="AM32">
-        <v>0.315</v>
+        <v>1.7626</v>
       </c>
       <c r="AN32">
-        <v>0.235</v>
+        <v>1.6597</v>
       </c>
     </row>
     <row r="33" spans="1:40">
       <c r="A33" t="s">
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>6.7772</v>
+      </c>
+      <c r="C33">
+        <v>0.1432</v>
+      </c>
+      <c r="D33">
+        <v>2.2661</v>
+      </c>
+      <c r="E33">
+        <v>2.313</v>
+      </c>
+      <c r="F33">
+        <v>2.451</v>
+      </c>
+      <c r="G33">
+        <v>2.5909</v>
+      </c>
+      <c r="H33">
+        <v>2.775</v>
+      </c>
+      <c r="I33">
+        <v>2.4077</v>
+      </c>
+      <c r="J33">
+        <v>2.4622</v>
+      </c>
+      <c r="K33">
+        <v>2.2435</v>
+      </c>
+      <c r="L33">
+        <v>2.2528</v>
+      </c>
+      <c r="M33">
+        <v>1.5696</v>
+      </c>
+      <c r="N33">
+        <v>2.7238</v>
+      </c>
+      <c r="O33">
+        <v>1.9297</v>
+      </c>
+      <c r="P33">
+        <v>1.5174</v>
+      </c>
+      <c r="Q33">
+        <v>2.2543</v>
+      </c>
+      <c r="R33">
+        <v>2.5836</v>
+      </c>
+      <c r="S33">
+        <v>3.0818</v>
+      </c>
+      <c r="T33">
+        <v>0.9891</v>
+      </c>
+      <c r="U33">
+        <v>0.8548</v>
+      </c>
+      <c r="V33">
+        <v>2.3388</v>
+      </c>
+      <c r="W33">
+        <v>2.5865</v>
+      </c>
+      <c r="X33">
+        <v>2.1667</v>
+      </c>
+      <c r="Y33">
+        <v>1.8848</v>
+      </c>
+      <c r="Z33">
+        <v>2.1509</v>
+      </c>
+      <c r="AA33">
+        <v>2.0825</v>
+      </c>
+      <c r="AB33">
+        <v>2.057</v>
+      </c>
+      <c r="AC33">
+        <v>1.6645</v>
+      </c>
+      <c r="AD33">
+        <v>2.0564</v>
+      </c>
+      <c r="AE33">
+        <v>2.0264</v>
+      </c>
+      <c r="AF33">
+        <v>1.85</v>
+      </c>
+      <c r="AG33">
+        <v>1.8105</v>
+      </c>
+      <c r="AH33">
+        <v>1.9927</v>
+      </c>
+      <c r="AI33">
+        <v>1.9305</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8162</v>
+      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1.6381</v>
       </c>
       <c r="AL33">
-        <v>0.001</v>
+        <v>1.7997</v>
+      </c>
+      <c r="AM33">
+        <v>1.7351</v>
       </c>
       <c r="AN33">
-        <v>0.0003</v>
+        <v>1.6337</v>
       </c>
     </row>
     <row r="34" spans="1:40">
       <c r="A34" t="s">
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>570000000</v>
+      </c>
+      <c r="C34">
+        <v>572700000</v>
+      </c>
+      <c r="D34">
+        <v>575000000</v>
+      </c>
+      <c r="E34">
+        <v>579900000</v>
+      </c>
+      <c r="F34">
+        <v>586300000</v>
+      </c>
+      <c r="G34">
+        <v>588600000</v>
+      </c>
+      <c r="H34">
+        <v>586300000</v>
+      </c>
+      <c r="I34">
+        <v>584000000</v>
+      </c>
+      <c r="J34">
+        <v>582400000</v>
+      </c>
+      <c r="K34">
+        <v>580800000</v>
+      </c>
+      <c r="L34">
+        <v>581500000</v>
+      </c>
+      <c r="M34">
+        <v>582700000</v>
+      </c>
+      <c r="N34">
+        <v>583000000</v>
+      </c>
+      <c r="O34">
+        <v>586100000</v>
+      </c>
+      <c r="P34">
+        <v>588500000</v>
+      </c>
+      <c r="Q34">
+        <v>592600000</v>
+      </c>
+      <c r="R34">
+        <v>598400000</v>
+      </c>
+      <c r="S34">
+        <v>604200000</v>
+      </c>
+      <c r="T34">
+        <v>612700000</v>
+      </c>
+      <c r="U34">
+        <v>613400000</v>
+      </c>
+      <c r="V34">
+        <v>612700000</v>
+      </c>
+      <c r="W34">
+        <v>612800000</v>
+      </c>
+      <c r="X34">
+        <v>612000000</v>
+      </c>
+      <c r="Y34">
+        <v>613800000</v>
+      </c>
+      <c r="Z34">
+        <v>618800000</v>
+      </c>
+      <c r="AA34">
+        <v>620900000</v>
+      </c>
+      <c r="AB34">
+        <v>621300000</v>
+      </c>
+      <c r="AC34">
+        <v>625400000</v>
+      </c>
+      <c r="AD34">
+        <v>631200000</v>
+      </c>
+      <c r="AE34">
+        <v>643000000</v>
+      </c>
+      <c r="AF34">
+        <v>649200000</v>
+      </c>
+      <c r="AG34">
+        <v>650900000</v>
+      </c>
+      <c r="AH34">
+        <v>657900000</v>
+      </c>
+      <c r="AI34">
+        <v>664600000</v>
+      </c>
+      <c r="AJ34">
+        <v>674500000</v>
+      </c>
       <c r="AK34">
-        <v>0</v>
+        <v>681300000</v>
       </c>
       <c r="AL34">
-        <v>0.001</v>
+        <v>691800000</v>
+      </c>
+      <c r="AM34">
+        <v>699100000</v>
       </c>
       <c r="AN34">
-        <v>0.0003</v>
+        <v>702100000</v>
       </c>
     </row>
     <row r="35" spans="1:40">
@@ -4077,121 +4431,121 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.2546</v>
+        <v>0.5344</v>
       </c>
       <c r="C35">
-        <v>-0.5205</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="D35">
-        <v>1.3929</v>
+        <v>0.2379</v>
       </c>
       <c r="E35">
-        <v>0.9174</v>
+        <v>0.2465</v>
       </c>
       <c r="F35">
-        <v>0.5493</v>
+        <v>0.2532</v>
       </c>
       <c r="G35">
-        <v>0.6166</v>
+        <v>0.273</v>
       </c>
       <c r="H35">
-        <v>0.6101</v>
+        <v>0.2773</v>
       </c>
       <c r="I35">
-        <v>0.696</v>
+        <v>0.2734</v>
       </c>
       <c r="J35">
-        <v>0.735</v>
+        <v>0.2862</v>
       </c>
       <c r="K35">
-        <v>0.2822</v>
+        <v>0.311</v>
       </c>
       <c r="L35">
-        <v>0.0707</v>
+        <v>0.2604</v>
       </c>
       <c r="M35">
-        <v>0.3991</v>
+        <v>0.2204</v>
       </c>
       <c r="N35">
-        <v>0.2778</v>
+        <v>0.2991</v>
       </c>
       <c r="O35">
-        <v>0.5919</v>
+        <v>0.2543</v>
       </c>
       <c r="P35">
-        <v>0.35</v>
+        <v>0.1922</v>
       </c>
       <c r="Q35">
-        <v>0.4403</v>
+        <v>0.2711</v>
       </c>
       <c r="R35">
-        <v>0.172</v>
+        <v>0.2908</v>
       </c>
       <c r="S35">
-        <v>0.3446</v>
+        <v>0.3315</v>
       </c>
       <c r="T35">
-        <v>0.3569</v>
+        <v>0.1678</v>
       </c>
       <c r="U35">
-        <v>0.4545</v>
+        <v>0.2676</v>
       </c>
       <c r="V35">
-        <v>0.1456</v>
+        <v>0.2919</v>
       </c>
       <c r="W35">
-        <v>0.2848</v>
+        <v>0.3243</v>
       </c>
       <c r="X35">
-        <v>0.2</v>
+        <v>0.2837</v>
       </c>
       <c r="Y35">
-        <v>0.1101</v>
+        <v>0.2528</v>
       </c>
       <c r="Z35">
-        <v>0.0974</v>
+        <v>0.2947</v>
       </c>
       <c r="AA35">
-        <v>1.0807</v>
+        <v>0.2913</v>
       </c>
       <c r="AB35">
-        <v>-0.4478</v>
+        <v>0.2894</v>
       </c>
       <c r="AC35">
-        <v>0.2387</v>
+        <v>0.2599</v>
       </c>
       <c r="AD35">
-        <v>0.182</v>
+        <v>0.2893</v>
       </c>
       <c r="AE35">
-        <v>0.5805</v>
+        <v>0.2842</v>
       </c>
       <c r="AF35">
-        <v>0.1021</v>
+        <v>0.273</v>
       </c>
       <c r="AG35">
-        <v>0.3243</v>
+        <v>0.2607</v>
       </c>
       <c r="AH35">
-        <v>0.5376</v>
+        <v>0.2766</v>
       </c>
       <c r="AI35">
-        <v>0.5622</v>
+        <v>0.2722</v>
       </c>
       <c r="AJ35">
-        <v>0.3736</v>
+        <v>0.2638</v>
       </c>
       <c r="AK35">
-        <v>0.4658</v>
+        <v>0.2558</v>
       </c>
       <c r="AL35">
-        <v>0.4212</v>
+        <v>0.263</v>
       </c>
       <c r="AM35">
-        <v>0.3369</v>
+        <v>0.2628</v>
       </c>
       <c r="AN35">
-        <v>0.2665</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="36" spans="1:40">
@@ -4199,487 +4553,121 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.2427</v>
+        <v>0.1776</v>
       </c>
       <c r="C36">
-        <v>-0.5205</v>
+        <v>0.1295</v>
       </c>
       <c r="D36">
-        <v>1.3715</v>
+        <v>0.1145</v>
       </c>
       <c r="E36">
-        <v>0.9025</v>
+        <v>0.2328</v>
       </c>
       <c r="F36">
-        <v>0.5397999999999999</v>
+        <v>0.2096</v>
       </c>
       <c r="G36">
-        <v>0.6059</v>
+        <v>0.2108</v>
       </c>
       <c r="H36">
-        <v>0.5994</v>
+        <v>0.1907</v>
       </c>
       <c r="I36">
-        <v>0.6807</v>
+        <v>0.293</v>
       </c>
       <c r="J36">
-        <v>0.7215</v>
+        <v>0.297</v>
       </c>
       <c r="K36">
-        <v>0.2773</v>
+        <v>0.2655</v>
       </c>
       <c r="L36">
-        <v>0.0692</v>
+        <v>0.1502</v>
       </c>
       <c r="M36">
-        <v>0.3878</v>
+        <v>0.2883</v>
       </c>
       <c r="N36">
-        <v>0.2701</v>
+        <v>0.253</v>
       </c>
       <c r="O36">
-        <v>0.5766</v>
+        <v>0.2034</v>
       </c>
       <c r="P36">
-        <v>0.3414</v>
+        <v>0.1333</v>
       </c>
       <c r="Q36">
-        <v>0.4293</v>
+        <v>0.2842</v>
       </c>
       <c r="R36">
-        <v>0.1687</v>
+        <v>0.2624</v>
       </c>
       <c r="S36">
-        <v>0.3381</v>
+        <v>0.2263</v>
       </c>
       <c r="T36">
-        <v>0.3496</v>
+        <v>0.0173</v>
       </c>
       <c r="U36">
-        <v>0.4481</v>
+        <v>0.2328</v>
       </c>
       <c r="V36">
-        <v>0.1422</v>
+        <v>0.2141</v>
       </c>
       <c r="W36">
-        <v>0.2786</v>
+        <v>0.2102</v>
       </c>
       <c r="X36">
-        <v>0.1956</v>
+        <v>0.1286</v>
       </c>
       <c r="Y36">
-        <v>0.119</v>
+        <v>0.3014</v>
       </c>
       <c r="Z36">
-        <v>0.09569999999999999</v>
+        <v>0.2475</v>
       </c>
       <c r="AA36">
-        <v>1.057</v>
+        <v>0.1677</v>
       </c>
       <c r="AB36">
-        <v>-0.4478</v>
+        <v>0.1701</v>
       </c>
       <c r="AC36">
-        <v>0.2327</v>
+        <v>0.3204</v>
       </c>
       <c r="AD36">
-        <v>0.1775</v>
+        <v>0.2158</v>
       </c>
       <c r="AE36">
-        <v>0.5652</v>
+        <v>0.1741</v>
       </c>
       <c r="AF36">
-        <v>0.0992</v>
+        <v>0.1425</v>
       </c>
       <c r="AG36">
-        <v>0.3149</v>
+        <v>0.2828</v>
       </c>
       <c r="AH36">
-        <v>0.5222</v>
+        <v>0.2103</v>
       </c>
       <c r="AI36">
-        <v>0.547</v>
+        <v>0.2016</v>
       </c>
       <c r="AJ36">
-        <v>0.3641</v>
+        <v>0.1394</v>
       </c>
       <c r="AK36">
-        <v>0.4551</v>
+        <v>0.2633</v>
       </c>
       <c r="AL36">
-        <v>0.4121</v>
+        <v>0.1454</v>
       </c>
       <c r="AM36">
-        <v>0.3297</v>
+        <v>0.2166</v>
       </c>
       <c r="AN36">
-        <v>0.2606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>317061000</v>
-      </c>
-      <c r="C37">
-        <v>317006000</v>
-      </c>
-      <c r="D37">
-        <v>325916000</v>
-      </c>
-      <c r="E37">
-        <v>328218000</v>
-      </c>
-      <c r="F37">
-        <v>331595000</v>
-      </c>
-      <c r="G37">
-        <v>333378000</v>
-      </c>
-      <c r="H37">
-        <v>333673000</v>
-      </c>
-      <c r="I37">
-        <v>333898000</v>
-      </c>
-      <c r="J37">
-        <v>332654000</v>
-      </c>
-      <c r="K37">
-        <v>331717000</v>
-      </c>
-      <c r="L37">
-        <v>332326000</v>
-      </c>
-      <c r="M37">
-        <v>334860000</v>
-      </c>
-      <c r="N37">
-        <v>340632000</v>
-      </c>
-      <c r="O37">
-        <v>341637000</v>
-      </c>
-      <c r="P37">
-        <v>342676000</v>
-      </c>
-      <c r="Q37">
-        <v>346274000</v>
-      </c>
-      <c r="R37">
-        <v>349709000</v>
-      </c>
-      <c r="S37">
-        <v>354904000</v>
-      </c>
-      <c r="T37">
-        <v>357552000</v>
-      </c>
-      <c r="U37">
-        <v>356384000</v>
-      </c>
-      <c r="V37">
-        <v>358556000</v>
-      </c>
-      <c r="W37">
-        <v>358979000</v>
-      </c>
-      <c r="X37">
-        <v>357934000</v>
-      </c>
-      <c r="Y37">
-        <v>355540000</v>
-      </c>
-      <c r="Z37">
-        <v>355404000</v>
-      </c>
-      <c r="AA37">
-        <v>290454000</v>
-      </c>
-      <c r="AB37">
-        <v>283586000</v>
-      </c>
-      <c r="AC37">
-        <v>281050000</v>
-      </c>
-      <c r="AD37">
-        <v>281716000</v>
-      </c>
-      <c r="AE37">
-        <v>283080000</v>
-      </c>
-      <c r="AF37">
-        <v>282152000</v>
-      </c>
-      <c r="AG37">
-        <v>281492000</v>
-      </c>
-      <c r="AH37">
-        <v>284180000</v>
-      </c>
-      <c r="AI37">
-        <v>285720000</v>
-      </c>
-      <c r="AJ37">
-        <v>288116000</v>
-      </c>
-      <c r="AK37">
-        <v>293270000</v>
-      </c>
-      <c r="AL37">
-        <v>295790000</v>
-      </c>
-      <c r="AM37">
-        <v>300610000</v>
-      </c>
-      <c r="AN37">
-        <v>304632000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>0.1721</v>
-      </c>
-      <c r="C38">
-        <v>0.0148</v>
-      </c>
-      <c r="D38">
-        <v>0.2139</v>
-      </c>
-      <c r="E38">
-        <v>0.1538</v>
-      </c>
-      <c r="F38">
-        <v>0.1162</v>
-      </c>
-      <c r="G38">
-        <v>0.1576</v>
-      </c>
-      <c r="H38">
-        <v>0.1498</v>
-      </c>
-      <c r="I38">
-        <v>0.1499</v>
-      </c>
-      <c r="J38">
-        <v>0.1726</v>
-      </c>
-      <c r="K38">
-        <v>0.1242</v>
-      </c>
-      <c r="L38">
-        <v>0.1163</v>
-      </c>
-      <c r="M38">
-        <v>0.1376</v>
-      </c>
-      <c r="N38">
-        <v>0.1243</v>
-      </c>
-      <c r="O38">
-        <v>0.1584</v>
-      </c>
-      <c r="P38">
-        <v>0.1404</v>
-      </c>
-      <c r="Q38">
-        <v>0.1324</v>
-      </c>
-      <c r="R38">
-        <v>0.149</v>
-      </c>
-      <c r="S38">
-        <v>0.1358</v>
-      </c>
-      <c r="T38">
-        <v>0.1458</v>
-      </c>
-      <c r="U38">
-        <v>0.1926</v>
-      </c>
-      <c r="V38">
-        <v>0.0983</v>
-      </c>
-      <c r="W38">
-        <v>0.1457</v>
-      </c>
-      <c r="X38">
-        <v>0.1213</v>
-      </c>
-      <c r="Y38">
-        <v>0.1252</v>
-      </c>
-      <c r="Z38">
-        <v>0.101</v>
-      </c>
-      <c r="AA38">
-        <v>0.1759</v>
-      </c>
-      <c r="AB38">
-        <v>-0.0199</v>
-      </c>
-      <c r="AC38">
-        <v>0.113</v>
-      </c>
-      <c r="AD38">
-        <v>0.0711</v>
-      </c>
-      <c r="AE38">
-        <v>0.1588</v>
-      </c>
-      <c r="AF38">
-        <v>0.1009</v>
-      </c>
-      <c r="AG38">
-        <v>0.1028</v>
-      </c>
-      <c r="AH38">
-        <v>0.1337</v>
-      </c>
-      <c r="AI38">
-        <v>0.142</v>
-      </c>
-      <c r="AJ38">
-        <v>0.1426</v>
-      </c>
-      <c r="AK38">
-        <v>0.1571</v>
-      </c>
-      <c r="AL38">
-        <v>0.1265</v>
-      </c>
-      <c r="AM38">
-        <v>0.1262</v>
-      </c>
-      <c r="AN38">
-        <v>0.1082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>0.044</v>
-      </c>
-      <c r="C39">
-        <v>0.0982</v>
-      </c>
-      <c r="D39">
-        <v>-0.2164</v>
-      </c>
-      <c r="E39">
-        <v>0.2406</v>
-      </c>
-      <c r="F39">
-        <v>0.1993</v>
-      </c>
-      <c r="G39">
-        <v>0.1865</v>
-      </c>
-      <c r="H39">
-        <v>-0.1526</v>
-      </c>
-      <c r="I39">
-        <v>0.3504</v>
-      </c>
-      <c r="J39">
-        <v>0.1866</v>
-      </c>
-      <c r="K39">
-        <v>0.1699</v>
-      </c>
-      <c r="L39">
-        <v>-0.2542</v>
-      </c>
-      <c r="M39">
-        <v>0.3281</v>
-      </c>
-      <c r="N39">
-        <v>0.1365</v>
-      </c>
-      <c r="O39">
-        <v>0.1266</v>
-      </c>
-      <c r="P39">
-        <v>-0.0463</v>
-      </c>
-      <c r="Q39">
-        <v>0.1923</v>
-      </c>
-      <c r="R39">
-        <v>0.2013</v>
-      </c>
-      <c r="S39">
-        <v>0.1638</v>
-      </c>
-      <c r="T39">
-        <v>-0.0266</v>
-      </c>
-      <c r="U39">
-        <v>0.2672</v>
-      </c>
-      <c r="V39">
-        <v>0.1661</v>
-      </c>
-      <c r="W39">
-        <v>0.2319</v>
-      </c>
-      <c r="X39">
-        <v>-0.1622</v>
-      </c>
-      <c r="Y39">
-        <v>0.2481</v>
-      </c>
-      <c r="Z39">
-        <v>-0.1704</v>
-      </c>
-      <c r="AA39">
-        <v>0.2079</v>
-      </c>
-      <c r="AB39">
-        <v>-0.2198</v>
-      </c>
-      <c r="AC39">
-        <v>0.2271</v>
-      </c>
-      <c r="AD39">
-        <v>0.1841</v>
-      </c>
-      <c r="AE39">
-        <v>0.1805</v>
-      </c>
-      <c r="AF39">
-        <v>-0.0941</v>
-      </c>
-      <c r="AG39">
-        <v>0.1781</v>
-      </c>
-      <c r="AH39">
-        <v>0.1965</v>
-      </c>
-      <c r="AI39">
-        <v>0.1511</v>
-      </c>
-      <c r="AJ39">
-        <v>-0.0679</v>
-      </c>
-      <c r="AK39">
-        <v>0.2142</v>
-      </c>
-      <c r="AL39">
-        <v>0.2186</v>
-      </c>
-      <c r="AM39">
-        <v>0.1081</v>
-      </c>
-      <c r="AN39">
-        <v>-0.163</v>
+        <v>0.1302</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_statements/soci/BALL.xlsx
+++ b/data/financial_statements/soci/BALL.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -31,9 +148,6 @@
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>R&amp;D Expenses</t>
-  </si>
-  <si>
     <t>SG&amp;A Expenses</t>
   </si>
   <si>
@@ -49,9 +163,6 @@
     <t>Non-operating Income/Expense</t>
   </si>
   <si>
-    <t>Income (Other)</t>
-  </si>
-  <si>
     <t>EBT</t>
   </si>
   <si>
@@ -61,6 +172,12 @@
     <t>Income after Tax</t>
   </si>
   <si>
+    <t>Share of Subsidiary Earnings</t>
+  </si>
+  <si>
+    <t>Dividends (Preferred)</t>
+  </si>
+  <si>
     <t>Non-Controlling Interest</t>
   </si>
   <si>
@@ -100,6 +217,9 @@
     <t>Income from Continuous Operations</t>
   </si>
   <si>
+    <t>Income from Discontinued Operations</t>
+  </si>
+  <si>
     <t>Consolidated Net Income/Loss</t>
   </si>
   <si>
@@ -107,6 +227,12 @@
   </si>
   <si>
     <t>EPS (Diluted, from Cont. Ops)</t>
+  </si>
+  <si>
+    <t>EPS (Diluted, from Disc. Ops)</t>
+  </si>
+  <si>
+    <t>EPS (Basic, from Discontinued Ops)</t>
   </si>
   <si>
     <t>EPS (Basic, Consolidated)</t>
@@ -128,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,4181 +613,4184 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>8619000000</v>
+        <v>3951000000</v>
       </c>
       <c r="C2">
-        <v>8702000000</v>
+        <v>4134000000</v>
       </c>
       <c r="D2">
-        <v>8829000000</v>
+        <v>3716000000</v>
       </c>
       <c r="E2">
-        <v>8612000000</v>
+        <v>3674000000</v>
       </c>
       <c r="F2">
-        <v>8942000000</v>
+        <v>3553000000</v>
       </c>
       <c r="G2">
-        <v>8950000000</v>
+        <v>3459000000</v>
       </c>
       <c r="H2">
-        <v>8851000000</v>
+        <v>3125000000</v>
       </c>
       <c r="I2">
-        <v>8583000000</v>
+        <v>3102000000</v>
       </c>
       <c r="J2">
-        <v>8350000000</v>
+        <v>3093000000</v>
       </c>
       <c r="K2">
-        <v>7176000000</v>
+        <v>2801000000</v>
       </c>
       <c r="L2">
-        <v>8075000000</v>
+        <v>2785000000</v>
       </c>
       <c r="M2">
-        <v>8111000000</v>
+        <v>2719000000</v>
       </c>
       <c r="N2">
-        <v>7991000000</v>
+        <v>2953000000</v>
       </c>
       <c r="O2">
-        <v>8171000000</v>
+        <v>3017000000</v>
       </c>
       <c r="P2">
-        <v>7863000000</v>
+        <v>2785000000</v>
       </c>
       <c r="Q2">
-        <v>7945000000</v>
+        <v>2803000000</v>
       </c>
       <c r="R2">
-        <v>8152000000</v>
+        <v>2946000000</v>
       </c>
       <c r="S2">
-        <v>8390000000</v>
+        <v>3101000000</v>
       </c>
       <c r="T2">
-        <v>8278000000</v>
+        <v>2785000000</v>
       </c>
       <c r="U2">
-        <v>7990000000</v>
+        <v>2747000000</v>
       </c>
       <c r="V2">
-        <v>8172000000</v>
+        <v>2908000000</v>
       </c>
       <c r="W2">
-        <v>7810000000</v>
+        <v>2855000000</v>
       </c>
       <c r="X2">
-        <v>7685000000</v>
+        <v>2473000000</v>
       </c>
       <c r="Y2">
-        <v>7329000000</v>
+        <v>2523000000</v>
       </c>
       <c r="Z2">
-        <v>7709000000</v>
+        <v>2752000000</v>
       </c>
       <c r="AA2">
-        <v>7662000000</v>
+        <v>2030000000</v>
       </c>
       <c r="AB2">
-        <v>7409000000</v>
+        <v>1756000000</v>
       </c>
       <c r="AC2">
-        <v>7298000000</v>
+        <v>1805000000</v>
       </c>
       <c r="AD2">
-        <v>7712000000</v>
+        <v>2097000000</v>
       </c>
       <c r="AE2">
-        <v>7686000000</v>
+        <v>2172000000</v>
       </c>
       <c r="AF2">
-        <v>7578000000</v>
+        <v>1923000000</v>
       </c>
       <c r="AG2">
-        <v>7719000000</v>
+        <v>2032400000</v>
       </c>
       <c r="AH2">
-        <v>8137000000</v>
+        <v>2238900000</v>
       </c>
       <c r="AI2">
-        <v>8134000000</v>
+        <v>2291900000</v>
       </c>
       <c r="AJ2">
-        <v>7831000000</v>
+        <v>2006800000</v>
       </c>
       <c r="AK2">
-        <v>7569000000</v>
+        <v>1996800000</v>
       </c>
       <c r="AL2">
-        <v>7916000000</v>
+        <v>2277900000</v>
       </c>
       <c r="AM2">
-        <v>7752000000</v>
+        <v>2202400000</v>
       </c>
       <c r="AN2">
-        <v>7634000000</v>
+        <v>1991000000</v>
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.0361</v>
+        <v>0.112</v>
       </c>
       <c r="C3">
-        <v>-0.0277</v>
+        <v>0.1951</v>
       </c>
       <c r="D3">
-        <v>-0.0025</v>
+        <v>0.1891</v>
       </c>
       <c r="E3">
-        <v>0.0034</v>
+        <v>0.1844</v>
       </c>
       <c r="F3">
-        <v>0.0709</v>
+        <v>0.1487</v>
       </c>
       <c r="G3">
-        <v>0.2472</v>
+        <v>0.2349</v>
       </c>
       <c r="H3">
-        <v>0.0961</v>
+        <v>0.1221</v>
       </c>
       <c r="I3">
-        <v>0.0582</v>
+        <v>0.1409</v>
       </c>
       <c r="J3">
-        <v>0.0449</v>
+        <v>0.0474</v>
       </c>
       <c r="K3">
-        <v>-0.1218</v>
+        <v>-0.0716</v>
       </c>
       <c r="L3">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0209</v>
+        <v>-0.03</v>
       </c>
       <c r="N3">
-        <v>-0.0197</v>
+        <v>0.0024</v>
       </c>
       <c r="O3">
-        <v>-0.0261</v>
+        <v>-0.0271</v>
       </c>
       <c r="P3">
-        <v>-0.0501</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-0.0056</v>
+        <v>0.0204</v>
       </c>
       <c r="R3">
-        <v>-0.0024</v>
+        <v>0.0131</v>
       </c>
       <c r="S3">
-        <v>0.0743</v>
+        <v>0.0862</v>
       </c>
       <c r="T3">
-        <v>0.0772</v>
+        <v>0.1262</v>
       </c>
       <c r="U3">
-        <v>0.0902</v>
+        <v>0.0888</v>
       </c>
       <c r="V3">
-        <v>0.0601</v>
+        <v>0.0567</v>
       </c>
       <c r="W3">
-        <v>0.0193</v>
+        <v>0.4064</v>
       </c>
       <c r="X3">
-        <v>0.0373</v>
+        <v>0.4083</v>
       </c>
       <c r="Y3">
-        <v>0.0042</v>
+        <v>0.3978</v>
       </c>
       <c r="Z3">
-        <v>-0.0004</v>
+        <v>0.3124</v>
       </c>
       <c r="AA3">
-        <v>-0.0031</v>
+        <v>-0.0654</v>
       </c>
       <c r="AB3">
-        <v>-0.0223</v>
+        <v>-0.0868</v>
       </c>
       <c r="AC3">
-        <v>-0.0545</v>
+        <v>-0.1119</v>
       </c>
       <c r="AD3">
-        <v>-0.0522</v>
+        <v>-0.0634</v>
       </c>
       <c r="AE3">
-        <v>-0.0551</v>
+        <v>-0.0523</v>
       </c>
       <c r="AF3">
-        <v>-0.0323</v>
+        <v>-0.0418</v>
       </c>
       <c r="AG3">
-        <v>0.0198</v>
+        <v>0.0178</v>
       </c>
       <c r="AH3">
-        <v>0.0279</v>
+        <v>-0.0171</v>
       </c>
       <c r="AI3">
-        <v>0.0493</v>
+        <v>0.0406</v>
       </c>
       <c r="AJ3">
-        <v>0.0258</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.0246</v>
+        <v>-0.0555</v>
       </c>
       <c r="AL3">
-        <v>0.0559</v>
+        <v>-0.002</v>
       </c>
       <c r="AM3">
-        <v>0.0289</v>
+        <v>-0.0409</v>
       </c>
       <c r="AN3">
-        <v>0.0198</v>
+        <v>-0.0253</v>
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>4728000000</v>
+        <v>3275000000</v>
       </c>
       <c r="C4">
-        <v>5093000000</v>
+        <v>3445000000</v>
       </c>
       <c r="D4">
-        <v>4826000000</v>
+        <v>3016000000</v>
       </c>
       <c r="E4">
-        <v>4698000000</v>
+        <v>2981000000</v>
       </c>
       <c r="F4">
-        <v>4853000000</v>
+        <v>2851000000</v>
       </c>
       <c r="G4">
-        <v>4719000000</v>
+        <v>2760000000</v>
       </c>
       <c r="H4">
-        <v>4525000000</v>
+        <v>2493000000</v>
       </c>
       <c r="I4">
-        <v>4388000000</v>
+        <v>2448000000</v>
       </c>
       <c r="J4">
-        <v>4303000000</v>
+        <v>2430000000</v>
       </c>
       <c r="K4">
-        <v>3805000000</v>
+        <v>2230000000</v>
       </c>
       <c r="L4">
-        <v>4109000000</v>
+        <v>2215000000</v>
       </c>
       <c r="M4">
-        <v>4325000000</v>
+        <v>2159000000</v>
       </c>
       <c r="N4">
-        <v>4188000000</v>
+        <v>2363000000</v>
       </c>
       <c r="O4">
-        <v>4313000000</v>
+        <v>2428000000</v>
       </c>
       <c r="P4">
-        <v>4310000000</v>
+        <v>2253000000</v>
       </c>
       <c r="Q4">
-        <v>4060000000</v>
+        <v>2246000000</v>
       </c>
       <c r="R4">
-        <v>4159000000</v>
+        <v>2362000000</v>
       </c>
       <c r="S4">
-        <v>4227000000</v>
+        <v>2484000000</v>
       </c>
       <c r="T4">
-        <v>4236000000</v>
+        <v>2237000000</v>
       </c>
       <c r="U4">
-        <v>4094000000</v>
+        <v>2134000000</v>
       </c>
       <c r="V4">
-        <v>4059000000</v>
+        <v>2338000000</v>
       </c>
       <c r="W4">
-        <v>4020000000</v>
+        <v>2270000000</v>
       </c>
       <c r="X4">
-        <v>3882000000</v>
+        <v>1975000000</v>
       </c>
       <c r="Y4">
-        <v>3794000000</v>
+        <v>2009000000</v>
       </c>
       <c r="Z4">
-        <v>3847000000</v>
+        <v>2275000000</v>
       </c>
       <c r="AA4">
-        <v>3799000000</v>
+        <v>1596000000</v>
       </c>
       <c r="AB4">
-        <v>3678000000</v>
+        <v>1416000000</v>
       </c>
       <c r="AC4">
-        <v>3827000000</v>
+        <v>1434000000</v>
       </c>
       <c r="AD4">
-        <v>3877000000</v>
+        <v>1690000000</v>
       </c>
       <c r="AE4">
-        <v>3858000000</v>
+        <v>1775000000</v>
       </c>
       <c r="AF4">
-        <v>3821000000</v>
+        <v>1561000000</v>
       </c>
       <c r="AG4">
-        <v>4027000000</v>
+        <v>1636400000</v>
       </c>
       <c r="AH4">
-        <v>4205000000</v>
+        <v>1807300000</v>
       </c>
       <c r="AI4">
-        <v>4184000000</v>
+        <v>1846400000</v>
       </c>
       <c r="AJ4">
-        <v>4031000000</v>
+        <v>1612900000</v>
       </c>
       <c r="AK4">
-        <v>3976000000</v>
+        <v>1586100000</v>
       </c>
       <c r="AL4">
-        <v>4148000000</v>
+        <v>1846900000</v>
       </c>
       <c r="AM4">
-        <v>4013000000</v>
+        <v>1798900000</v>
       </c>
       <c r="AN4">
-        <v>3969000000</v>
+        <v>1643500000</v>
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3891000000</v>
+        <v>676000000</v>
       </c>
       <c r="C5">
-        <v>3609000000</v>
+        <v>689000000</v>
       </c>
       <c r="D5">
-        <v>4003000000</v>
+        <v>700000000</v>
       </c>
       <c r="E5">
-        <v>3914000000</v>
+        <v>693000000</v>
       </c>
       <c r="F5">
-        <v>4089000000</v>
+        <v>702000000</v>
       </c>
       <c r="G5">
-        <v>4231000000</v>
+        <v>699000000</v>
       </c>
       <c r="H5">
-        <v>4326000000</v>
+        <v>632000000</v>
       </c>
       <c r="I5">
-        <v>4195000000</v>
+        <v>654000000</v>
       </c>
       <c r="J5">
-        <v>4047000000</v>
+        <v>663000000</v>
       </c>
       <c r="K5">
-        <v>3371000000</v>
+        <v>571000000</v>
       </c>
       <c r="L5">
-        <v>3966000000</v>
+        <v>570000000</v>
       </c>
       <c r="M5">
-        <v>3786000000</v>
+        <v>560000000</v>
       </c>
       <c r="N5">
-        <v>3803000000</v>
+        <v>590000000</v>
       </c>
       <c r="O5">
-        <v>3858000000</v>
+        <v>589000000</v>
       </c>
       <c r="P5">
-        <v>3553000000</v>
+        <v>532000000</v>
       </c>
       <c r="Q5">
-        <v>3885000000</v>
+        <v>557000000</v>
       </c>
       <c r="R5">
-        <v>3993000000</v>
+        <v>584000000</v>
       </c>
       <c r="S5">
-        <v>4163000000</v>
+        <v>617000000</v>
       </c>
       <c r="T5">
-        <v>4042000000</v>
+        <v>548000000</v>
       </c>
       <c r="U5">
-        <v>3896000000</v>
+        <v>613000000</v>
       </c>
       <c r="V5">
-        <v>4113000000</v>
+        <v>570000000</v>
       </c>
       <c r="W5">
-        <v>3790000000</v>
+        <v>585000000</v>
       </c>
       <c r="X5">
-        <v>3803000000</v>
+        <v>498000000</v>
       </c>
       <c r="Y5">
-        <v>3535000000</v>
+        <v>514000000</v>
       </c>
       <c r="Z5">
-        <v>3862000000</v>
+        <v>477000000</v>
       </c>
       <c r="AA5">
-        <v>3863000000</v>
+        <v>434000000</v>
       </c>
       <c r="AB5">
-        <v>3731000000</v>
+        <v>340000000</v>
       </c>
       <c r="AC5">
-        <v>3471000000</v>
+        <v>371000000</v>
       </c>
       <c r="AD5">
-        <v>3835000000</v>
+        <v>407000000</v>
       </c>
       <c r="AE5">
-        <v>3828000000</v>
+        <v>397000000</v>
       </c>
       <c r="AF5">
-        <v>3757000000</v>
+        <v>362000000</v>
       </c>
       <c r="AG5">
-        <v>3692000000</v>
+        <v>395999900</v>
       </c>
       <c r="AH5">
-        <v>3932000000</v>
+        <v>431599900</v>
       </c>
       <c r="AI5">
-        <v>3950000000</v>
+        <v>445499900</v>
       </c>
       <c r="AJ5">
-        <v>3800000000</v>
+        <v>393900000</v>
       </c>
       <c r="AK5">
-        <v>3593000000</v>
+        <v>410699700</v>
       </c>
       <c r="AL5">
-        <v>3768000000</v>
+        <v>430999900</v>
       </c>
       <c r="AM5">
-        <v>3739000000</v>
+        <v>403499900</v>
       </c>
       <c r="AN5">
-        <v>3665000000</v>
+        <v>347500000</v>
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>461000000</v>
+        <v>159000000</v>
       </c>
       <c r="C6">
-        <v>476000000</v>
+        <v>161000000</v>
       </c>
       <c r="D6">
-        <v>480000000</v>
+        <v>186000000</v>
       </c>
       <c r="E6">
-        <v>474000000</v>
+        <v>122000000</v>
       </c>
       <c r="F6">
-        <v>482000000</v>
+        <v>148000000</v>
       </c>
       <c r="G6">
-        <v>514000000</v>
+        <v>166000000</v>
       </c>
       <c r="H6">
-        <v>524000000</v>
+        <v>157000000</v>
       </c>
       <c r="I6">
-        <v>456000000</v>
+        <v>162000000</v>
       </c>
       <c r="J6">
-        <v>461000000</v>
+        <v>121000000</v>
       </c>
       <c r="K6">
-        <v>424000000</v>
+        <v>111000000</v>
       </c>
       <c r="L6">
-        <v>537000000</v>
+        <v>131000000</v>
       </c>
       <c r="M6">
-        <v>521000000</v>
+        <v>89000000</v>
       </c>
       <c r="N6">
-        <v>443000000</v>
+        <v>90000000</v>
       </c>
       <c r="O6">
-        <v>470000000</v>
+        <v>111000000</v>
       </c>
       <c r="P6">
-        <v>477000000</v>
+        <v>127000000</v>
       </c>
       <c r="Q6">
-        <v>437000000</v>
+        <v>126000000</v>
       </c>
       <c r="R6">
-        <v>430000000</v>
+        <v>113000000</v>
       </c>
       <c r="S6">
-        <v>468000000</v>
+        <v>127000000</v>
       </c>
       <c r="T6">
-        <v>486000000</v>
+        <v>112000000</v>
       </c>
       <c r="U6">
-        <v>448000000</v>
+        <v>116000000</v>
       </c>
       <c r="V6">
-        <v>468000000</v>
+        <v>127000000</v>
       </c>
       <c r="W6">
-        <v>478000000</v>
+        <v>128000000</v>
       </c>
       <c r="X6">
-        <v>476000000</v>
+        <v>143000000</v>
       </c>
       <c r="Y6">
-        <v>450000000</v>
+        <v>164000000</v>
       </c>
       <c r="Z6">
-        <v>427000000</v>
+        <v>135000000</v>
       </c>
       <c r="AA6">
-        <v>437000000</v>
+        <v>105000000</v>
       </c>
       <c r="AB6">
-        <v>450000000</v>
+        <v>108000000</v>
       </c>
       <c r="AC6">
-        <v>433000000</v>
+        <v>109000000</v>
       </c>
       <c r="AD6">
-        <v>429000000</v>
+        <v>107000000</v>
       </c>
       <c r="AE6">
-        <v>438000000</v>
+        <v>118000000</v>
       </c>
       <c r="AF6">
-        <v>463000000</v>
+        <v>116000000</v>
       </c>
       <c r="AG6">
-        <v>436000000</v>
+        <v>123800000</v>
       </c>
       <c r="AH6">
-        <v>434000000</v>
+        <v>123100000</v>
       </c>
       <c r="AI6">
-        <v>448000000</v>
+        <v>111400000</v>
       </c>
       <c r="AJ6">
-        <v>452000000</v>
+        <v>107700000</v>
       </c>
       <c r="AK6">
-        <v>438000000</v>
+        <v>107400000</v>
       </c>
       <c r="AL6">
-        <v>420000000</v>
+        <v>99000000</v>
       </c>
       <c r="AM6">
-        <v>427000000</v>
+        <v>102900000</v>
       </c>
       <c r="AN6">
-        <v>430000000</v>
+        <v>109300000</v>
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>1998000000</v>
+        <v>523000000</v>
       </c>
       <c r="C7">
-        <v>3023000000</v>
+        <v>-107000000</v>
       </c>
       <c r="D7">
-        <v>1882000000</v>
+        <v>610000000</v>
       </c>
       <c r="E7">
-        <v>1824000000</v>
+        <v>380000000</v>
       </c>
       <c r="F7">
-        <v>1819000000</v>
+        <v>238000000</v>
       </c>
       <c r="G7">
-        <v>1746000000</v>
+        <v>373000000</v>
       </c>
       <c r="H7">
-        <v>1808000000</v>
+        <v>300000000</v>
       </c>
       <c r="I7">
-        <v>1890000000</v>
+        <v>296000000</v>
       </c>
       <c r="J7">
-        <v>1677000000</v>
+        <v>374000000</v>
       </c>
       <c r="K7">
-        <v>1594000000</v>
+        <v>178000000</v>
       </c>
       <c r="L7">
-        <v>1768000000</v>
+        <v>155000000</v>
       </c>
       <c r="M7">
-        <v>1940000000</v>
+        <v>206000000</v>
       </c>
       <c r="N7">
-        <v>1455000000</v>
+        <v>198000000</v>
       </c>
       <c r="O7">
-        <v>1686000000</v>
+        <v>307000000</v>
       </c>
       <c r="P7">
-        <v>1948000000</v>
+        <v>221000000</v>
       </c>
       <c r="Q7">
-        <v>1682000000</v>
+        <v>198000000</v>
       </c>
       <c r="R7">
-        <v>1547000000</v>
+        <v>268000000</v>
       </c>
       <c r="S7">
-        <v>1800000000</v>
+        <v>243000000</v>
       </c>
       <c r="T7">
-        <v>2573000000</v>
+        <v>226000000</v>
       </c>
       <c r="U7">
-        <v>1755000000</v>
+        <v>339000000</v>
       </c>
       <c r="V7">
-        <v>1637000000</v>
+        <v>124000000</v>
       </c>
       <c r="W7">
-        <v>1620000000</v>
+        <v>187000000</v>
       </c>
       <c r="X7">
-        <v>1614000000</v>
+        <v>152000000</v>
       </c>
       <c r="Y7">
-        <v>1727000000</v>
+        <v>162000000</v>
       </c>
       <c r="Z7">
-        <v>1531000000</v>
+        <v>132000000</v>
       </c>
       <c r="AA7">
-        <v>1560000000</v>
+        <v>279000000</v>
       </c>
       <c r="AB7">
-        <v>1493000000</v>
+        <v>-110000000</v>
       </c>
       <c r="AC7">
-        <v>1585000000</v>
+        <v>130000000</v>
       </c>
       <c r="AD7">
-        <v>1530000000</v>
+        <v>76000000</v>
       </c>
       <c r="AE7">
-        <v>1550000000</v>
+        <v>274000000</v>
       </c>
       <c r="AF7">
-        <v>1564000000</v>
+        <v>126000000</v>
       </c>
       <c r="AG7">
-        <v>1594000000</v>
+        <v>137700100</v>
       </c>
       <c r="AH7">
-        <v>1597000000</v>
+        <v>227999900</v>
       </c>
       <c r="AI7">
-        <v>1646000000</v>
+        <v>255899900</v>
       </c>
       <c r="AJ7">
-        <v>1632000000</v>
+        <v>217400000</v>
       </c>
       <c r="AK7">
-        <v>1576000000</v>
+        <v>237300300</v>
       </c>
       <c r="AL7">
-        <v>1609000000</v>
+        <v>211599900</v>
       </c>
       <c r="AM7">
-        <v>1610000000</v>
+        <v>203499900</v>
       </c>
       <c r="AN7">
-        <v>1589000000</v>
+        <v>143000000</v>
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4156000000</v>
-      </c>
-      <c r="C8">
-        <v>110000000</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>1641000000</v>
+        <v>70000000</v>
       </c>
       <c r="E8">
-        <v>1616000000</v>
+        <v>72000000</v>
       </c>
       <c r="F8">
-        <v>1788000000</v>
+        <v>66000000</v>
       </c>
       <c r="G8">
-        <v>1971000000</v>
+        <v>66000000</v>
       </c>
       <c r="H8">
-        <v>1994000000</v>
+        <v>67000000</v>
       </c>
       <c r="I8">
-        <v>1849000000</v>
+        <v>66000000</v>
       </c>
       <c r="J8">
-        <v>1909000000</v>
+        <v>66000000</v>
       </c>
       <c r="K8">
-        <v>1740000000</v>
+        <v>64000000</v>
       </c>
       <c r="L8">
-        <v>1663000000</v>
+        <v>71000000</v>
       </c>
       <c r="M8">
-        <v>1325000000</v>
-      </c>
-      <c r="N8">
-        <v>2011000000</v>
-      </c>
-      <c r="O8">
-        <v>1702000000</v>
-      </c>
-      <c r="P8">
-        <v>1136000000</v>
-      </c>
-      <c r="Q8">
-        <v>1783000000</v>
-      </c>
-      <c r="R8">
-        <v>2016000000</v>
-      </c>
-      <c r="S8">
-        <v>2401000000</v>
-      </c>
-      <c r="T8">
-        <v>1007000000</v>
-      </c>
-      <c r="U8">
-        <v>1789000000</v>
-      </c>
-      <c r="V8">
-        <v>2008000000</v>
-      </c>
-      <c r="W8">
-        <v>2153000000</v>
-      </c>
-      <c r="X8">
-        <v>1742000000</v>
-      </c>
-      <c r="Y8">
-        <v>1469000000</v>
-      </c>
-      <c r="Z8">
-        <v>1904000000</v>
-      </c>
-      <c r="AA8">
-        <v>1866000000</v>
-      </c>
-      <c r="AB8">
-        <v>1788000000</v>
-      </c>
-      <c r="AC8">
-        <v>1500000000</v>
-      </c>
-      <c r="AD8">
-        <v>1876000000</v>
-      </c>
-      <c r="AE8">
-        <v>1840000000</v>
-      </c>
-      <c r="AF8">
-        <v>1730000000</v>
-      </c>
-      <c r="AG8">
-        <v>1662000000</v>
-      </c>
-      <c r="AH8">
-        <v>1901000000</v>
-      </c>
-      <c r="AI8">
-        <v>1856000000</v>
-      </c>
-      <c r="AJ8">
-        <v>1716000000</v>
-      </c>
-      <c r="AK8">
-        <v>1579000000</v>
-      </c>
-      <c r="AL8">
-        <v>1739000000</v>
-      </c>
-      <c r="AM8">
-        <v>1702000000</v>
-      </c>
-      <c r="AN8">
-        <v>1646000000</v>
+        <v>81000000</v>
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
+        <v>79000000</v>
+      </c>
+      <c r="C9">
+        <v>70000000</v>
+      </c>
+      <c r="D9">
+        <v>69000000</v>
+      </c>
+      <c r="E9">
+        <v>81000000</v>
+      </c>
+      <c r="F9">
+        <v>69000000</v>
+      </c>
+      <c r="G9">
+        <v>66000000</v>
+      </c>
+      <c r="H9">
+        <v>67000000</v>
+      </c>
+      <c r="I9">
+        <v>69000000</v>
+      </c>
+      <c r="J9">
+        <v>69000000</v>
+      </c>
+      <c r="K9">
+        <v>67000000</v>
+      </c>
+      <c r="L9">
+        <v>111000000</v>
+      </c>
+      <c r="M9">
+        <v>83000000</v>
+      </c>
+      <c r="N9">
+        <v>79000000</v>
+      </c>
+      <c r="O9">
+        <v>81000000</v>
+      </c>
+      <c r="P9">
+        <v>81000000</v>
+      </c>
+      <c r="Q9">
+        <v>75000000</v>
+      </c>
+      <c r="R9">
+        <v>76000000</v>
+      </c>
+      <c r="S9">
+        <v>77000000</v>
+      </c>
+      <c r="T9">
+        <v>74000000</v>
+      </c>
+      <c r="U9">
+        <v>71000000</v>
+      </c>
+      <c r="V9">
+        <v>74000000</v>
+      </c>
+      <c r="W9">
+        <v>75000000</v>
+      </c>
+      <c r="X9">
+        <v>68000000</v>
+      </c>
+      <c r="Y9">
+        <v>70000000</v>
+      </c>
+      <c r="Z9">
         <v>82000000</v>
       </c>
-      <c r="C9">
-        <v>125000000</v>
-      </c>
-      <c r="D9">
-        <v>136000000</v>
-      </c>
-      <c r="E9">
-        <v>112000000</v>
-      </c>
-      <c r="F9">
-        <v>79000000</v>
-      </c>
-      <c r="G9">
-        <v>125000000</v>
-      </c>
-      <c r="H9">
-        <v>141000000</v>
-      </c>
-      <c r="I9">
-        <v>179000000</v>
-      </c>
-      <c r="J9">
-        <v>155000000</v>
-      </c>
-      <c r="K9">
-        <v>124000000</v>
-      </c>
-      <c r="L9">
-        <v>105000000</v>
-      </c>
-      <c r="M9">
-        <v>135000000</v>
+      <c r="AA9">
+        <v>87000000</v>
+      </c>
+      <c r="AB9">
+        <v>99000000</v>
+      </c>
+      <c r="AC9">
+        <v>67000000</v>
+      </c>
+      <c r="AD9">
+        <v>59000000</v>
+      </c>
+      <c r="AE9">
+        <v>36000000</v>
+      </c>
+      <c r="AF9">
+        <v>98000000</v>
+      </c>
+      <c r="AG9">
+        <v>39000000</v>
+      </c>
+      <c r="AH9">
+        <v>40100000</v>
+      </c>
+      <c r="AI9">
+        <v>40600000</v>
+      </c>
+      <c r="AJ9">
+        <v>73300000</v>
+      </c>
+      <c r="AK9">
+        <v>45800000</v>
+      </c>
+      <c r="AL9">
+        <v>46800000</v>
+      </c>
+      <c r="AM9">
+        <v>74400000</v>
+      </c>
+      <c r="AN9">
+        <v>44800000</v>
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>17000000</v>
+        <v>-79000000</v>
       </c>
       <c r="C10">
-        <v>11000000</v>
+        <v>-70000000</v>
       </c>
       <c r="D10">
-        <v>8000000</v>
+        <v>-69000000</v>
       </c>
       <c r="E10">
-        <v>8000000</v>
+        <v>-81000000</v>
       </c>
       <c r="F10">
-        <v>6000000</v>
+        <v>-69000000</v>
       </c>
       <c r="G10">
-        <v>8000000</v>
+        <v>-66000000</v>
       </c>
       <c r="H10">
-        <v>4000000</v>
+        <v>-67000000</v>
       </c>
       <c r="I10">
-        <v>5000000</v>
+        <v>-69000000</v>
       </c>
       <c r="J10">
-        <v>5000000</v>
+        <v>-69000000</v>
       </c>
       <c r="K10">
-        <v>9000000</v>
+        <v>-67000000</v>
       </c>
       <c r="L10">
-        <v>10000000</v>
+        <v>-111000000</v>
       </c>
       <c r="M10">
-        <v>16000000</v>
+        <v>-83000000</v>
+      </c>
+      <c r="N10">
+        <v>-79000000</v>
+      </c>
+      <c r="O10">
+        <v>-81000000</v>
+      </c>
+      <c r="P10">
+        <v>-81000000</v>
+      </c>
+      <c r="Q10">
+        <v>-75000000</v>
+      </c>
+      <c r="R10">
+        <v>-76000000</v>
+      </c>
+      <c r="S10">
+        <v>-77000000</v>
+      </c>
+      <c r="T10">
+        <v>-74000000</v>
+      </c>
+      <c r="U10">
+        <v>-71000000</v>
+      </c>
+      <c r="V10">
+        <v>-74000000</v>
+      </c>
+      <c r="W10">
+        <v>-75000000</v>
+      </c>
+      <c r="X10">
+        <v>-68000000</v>
+      </c>
+      <c r="Y10">
+        <v>-70000000</v>
       </c>
       <c r="Z10">
-        <v>50000000</v>
+        <v>-82000000</v>
       </c>
       <c r="AA10">
-        <v>38000000</v>
+        <v>-87000000</v>
       </c>
       <c r="AB10">
-        <v>47000000</v>
+        <v>-99000000</v>
+      </c>
+      <c r="AC10">
+        <v>-67000000</v>
       </c>
       <c r="AD10">
-        <v>38000000</v>
+        <v>-59000000</v>
       </c>
       <c r="AE10">
-        <v>35000000</v>
+        <v>-36000000</v>
       </c>
       <c r="AF10">
-        <v>31000000</v>
+        <v>-98000000</v>
       </c>
       <c r="AG10">
-        <v>32000000</v>
+        <v>-39000000</v>
       </c>
       <c r="AH10">
-        <v>28000000</v>
+        <v>-40100000</v>
       </c>
       <c r="AI10">
-        <v>45000000</v>
+        <v>-40600000</v>
       </c>
       <c r="AJ10">
-        <v>37000000</v>
+        <v>-73300000</v>
       </c>
       <c r="AK10">
-        <v>32000000</v>
+        <v>-45800000</v>
       </c>
       <c r="AL10">
-        <v>33000000</v>
+        <v>-46800000</v>
       </c>
       <c r="AM10">
-        <v>41000000</v>
+        <v>-74400000</v>
       </c>
       <c r="AN10">
-        <v>39000000</v>
+        <v>-44800000</v>
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>-24000000</v>
+        <v>444000000</v>
       </c>
       <c r="C11">
-        <v>-50000000</v>
+        <v>-177000000</v>
       </c>
       <c r="D11">
-        <v>-38000000</v>
+        <v>541000000</v>
       </c>
       <c r="E11">
-        <v>-52000000</v>
+        <v>299000000</v>
       </c>
       <c r="F11">
-        <v>-31000000</v>
+        <v>169000000</v>
       </c>
       <c r="G11">
-        <v>-33000000</v>
+        <v>307000000</v>
       </c>
       <c r="H11">
-        <v>-49000000</v>
+        <v>233000000</v>
       </c>
       <c r="I11">
-        <v>-118000000</v>
+        <v>227000000</v>
       </c>
       <c r="J11">
-        <v>-83000000</v>
+        <v>305000000</v>
       </c>
       <c r="K11">
-        <v>-90000000</v>
+        <v>111000000</v>
       </c>
       <c r="L11">
-        <v>-75000000</v>
+        <v>44000000</v>
       </c>
       <c r="M11">
-        <v>-182000000</v>
+        <v>123000000</v>
       </c>
       <c r="N11">
-        <v>-45000000</v>
+        <v>119000000</v>
       </c>
       <c r="O11">
-        <v>-256000000</v>
+        <v>226000000</v>
       </c>
       <c r="P11">
-        <v>-48000000</v>
+        <v>140000000</v>
       </c>
       <c r="Q11">
-        <v>-63000000</v>
+        <v>123000000</v>
       </c>
       <c r="R11">
-        <v>-51000000</v>
+        <v>192000000</v>
       </c>
       <c r="S11">
-        <v>-51000000</v>
+        <v>166000000</v>
       </c>
       <c r="T11">
-        <v>-42000000</v>
+        <v>152000000</v>
       </c>
       <c r="U11">
-        <v>-117000000</v>
+        <v>268000000</v>
       </c>
       <c r="V11">
-        <v>-11000000</v>
+        <v>50000000</v>
       </c>
       <c r="W11">
-        <v>-11000000</v>
+        <v>112000000</v>
       </c>
       <c r="X11">
-        <v>-5000000</v>
+        <v>84000000</v>
       </c>
       <c r="Y11">
-        <v>141000000</v>
+        <v>92000000</v>
       </c>
       <c r="Z11">
-        <v>-42000000</v>
+        <v>50000000</v>
       </c>
       <c r="AA11">
-        <v>-31000000</v>
+        <v>192000000</v>
       </c>
       <c r="AB11">
-        <v>-42000000</v>
+        <v>-209000000</v>
       </c>
       <c r="AC11">
-        <v>-37000000</v>
+        <v>63000000</v>
       </c>
       <c r="AD11">
-        <v>-31000000</v>
+        <v>17000000</v>
       </c>
       <c r="AE11">
-        <v>-28000000</v>
+        <v>238000000</v>
       </c>
       <c r="AF11">
-        <v>-27000000</v>
+        <v>28000000</v>
       </c>
       <c r="AG11">
-        <v>-24000000</v>
+        <v>98700000</v>
       </c>
       <c r="AH11">
-        <v>-21000000</v>
+        <v>187900000</v>
       </c>
       <c r="AI11">
-        <v>-36000000</v>
+        <v>215300000</v>
       </c>
       <c r="AJ11">
-        <v>-28000000</v>
+        <v>144100000</v>
       </c>
       <c r="AK11">
-        <v>-21000000</v>
+        <v>191500000</v>
       </c>
       <c r="AL11">
-        <v>-23000000</v>
+        <v>164800000</v>
       </c>
       <c r="AM11">
-        <v>-31000000</v>
+        <v>129100000</v>
       </c>
       <c r="AN11">
-        <v>-29000000</v>
+        <v>98200000</v>
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="C12">
-        <v>-1000000</v>
+        <v>1000000</v>
       </c>
       <c r="D12">
-        <v>2000000</v>
+        <v>100000000</v>
       </c>
       <c r="E12">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="F12">
+        <v>-2000000</v>
+      </c>
+      <c r="G12">
+        <v>116000000</v>
+      </c>
+      <c r="H12">
+        <v>32000000</v>
+      </c>
+      <c r="I12">
+        <v>7000000</v>
+      </c>
+      <c r="J12">
+        <v>73000000</v>
+      </c>
+      <c r="K12">
+        <v>23000000</v>
+      </c>
+      <c r="L12">
+        <v>-4000000</v>
+      </c>
+      <c r="M12">
+        <v>-2000000</v>
+      </c>
+      <c r="N12">
+        <v>32000000</v>
+      </c>
+      <c r="O12">
+        <v>31000000</v>
+      </c>
+      <c r="P12">
+        <v>10000000</v>
+      </c>
+      <c r="Q12">
+        <v>-35000000</v>
+      </c>
+      <c r="R12">
+        <v>140000000</v>
+      </c>
+      <c r="S12">
+        <v>46000000</v>
+      </c>
+      <c r="T12">
+        <v>34000000</v>
+      </c>
+      <c r="U12">
+        <v>117000000</v>
+      </c>
+      <c r="V12">
         <v>4000000</v>
       </c>
-      <c r="G12">
-        <v>2000000</v>
-      </c>
-      <c r="H12">
+      <c r="W12">
+        <v>22000000</v>
+      </c>
+      <c r="X12">
+        <v>22000000</v>
+      </c>
+      <c r="Y12">
+        <v>48000000</v>
+      </c>
+      <c r="Z12">
+        <v>23000000</v>
+      </c>
+      <c r="AA12">
+        <v>-114000000</v>
+      </c>
+      <c r="AB12">
+        <v>-83000000</v>
+      </c>
+      <c r="AC12">
+        <v>-2000000</v>
+      </c>
+      <c r="AD12">
+        <v>-31000000</v>
+      </c>
+      <c r="AE12">
+        <v>79000000</v>
+      </c>
+      <c r="AF12">
         <v>1000000</v>
       </c>
-      <c r="I12">
-        <v>-4000000</v>
-      </c>
-      <c r="J12">
-        <v>-1000000</v>
+      <c r="AG12">
+        <v>10400000</v>
+      </c>
+      <c r="AH12">
+        <v>39800000</v>
+      </c>
+      <c r="AI12">
+        <v>60200000</v>
+      </c>
+      <c r="AJ12">
+        <v>39600000</v>
+      </c>
+      <c r="AK12">
+        <v>56600000</v>
+      </c>
+      <c r="AL12">
+        <v>44100000</v>
+      </c>
+      <c r="AM12">
+        <v>30800000</v>
+      </c>
+      <c r="AN12">
+        <v>18100000</v>
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>4132000000</v>
+        <v>406000000</v>
       </c>
       <c r="C13">
-        <v>60000000</v>
+        <v>-178000000</v>
       </c>
       <c r="D13">
-        <v>1603000000</v>
+        <v>441000000</v>
       </c>
       <c r="E13">
-        <v>1564000000</v>
+        <v>289000000</v>
       </c>
       <c r="F13">
-        <v>1757000000</v>
+        <v>171000000</v>
       </c>
       <c r="G13">
-        <v>1938000000</v>
+        <v>191000000</v>
       </c>
       <c r="H13">
-        <v>1945000000</v>
+        <v>201000000</v>
       </c>
       <c r="I13">
-        <v>1731000000</v>
+        <v>220000000</v>
       </c>
       <c r="J13">
-        <v>1826000000</v>
+        <v>232000000</v>
       </c>
       <c r="K13">
-        <v>1650000000</v>
+        <v>88000000</v>
       </c>
       <c r="L13">
-        <v>1588000000</v>
+        <v>48000000</v>
       </c>
       <c r="M13">
-        <v>1143000000</v>
+        <v>125000000</v>
       </c>
       <c r="N13">
-        <v>1966000000</v>
+        <v>87000000</v>
       </c>
       <c r="O13">
-        <v>1446000000</v>
+        <v>195000000</v>
       </c>
       <c r="P13">
-        <v>1088000000</v>
+        <v>130000000</v>
       </c>
       <c r="Q13">
-        <v>1720000000</v>
+        <v>158000000</v>
       </c>
       <c r="R13">
-        <v>1965000000</v>
+        <v>52000000</v>
       </c>
       <c r="S13">
-        <v>2350000000</v>
+        <v>120000000</v>
       </c>
       <c r="T13">
-        <v>965000000</v>
+        <v>118000000</v>
       </c>
       <c r="U13">
-        <v>1672000000</v>
+        <v>151000000</v>
       </c>
       <c r="V13">
-        <v>1997000000</v>
+        <v>46000000</v>
       </c>
       <c r="W13">
-        <v>2142000000</v>
+        <v>90000000</v>
       </c>
       <c r="X13">
-        <v>1737000000</v>
+        <v>62000000</v>
       </c>
       <c r="Y13">
-        <v>1610000000</v>
+        <v>44000000</v>
       </c>
       <c r="Z13">
-        <v>1862000000</v>
+        <v>27000000</v>
       </c>
       <c r="AA13">
-        <v>1835000000</v>
+        <v>306000000</v>
       </c>
       <c r="AB13">
-        <v>1746000000</v>
+        <v>-126000000</v>
       </c>
       <c r="AC13">
-        <v>1463000000</v>
+        <v>65000000</v>
       </c>
       <c r="AD13">
-        <v>1845000000</v>
+        <v>48000000</v>
       </c>
       <c r="AE13">
-        <v>1812000000</v>
+        <v>159000000</v>
       </c>
       <c r="AF13">
-        <v>1703000000</v>
+        <v>27000000</v>
       </c>
       <c r="AG13">
-        <v>1638000000</v>
+        <v>88300000</v>
       </c>
       <c r="AH13">
-        <v>1880000000</v>
+        <v>148100000</v>
       </c>
       <c r="AI13">
-        <v>1820000000</v>
+        <v>155100000</v>
       </c>
       <c r="AJ13">
-        <v>1688000000</v>
+        <v>104500000</v>
       </c>
       <c r="AK13">
-        <v>1558000000</v>
+        <v>134900000</v>
       </c>
       <c r="AL13">
-        <v>1716000000</v>
+        <v>120700000</v>
       </c>
       <c r="AM13">
-        <v>1671000000</v>
+        <v>98300000</v>
       </c>
       <c r="AN13">
-        <v>1617000000</v>
+        <v>80100000</v>
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>271000000</v>
+        <v>-12000000</v>
       </c>
       <c r="C14">
-        <v>-23000000</v>
+        <v>13000000</v>
       </c>
       <c r="D14">
-        <v>302000000</v>
+        <v>6000000</v>
       </c>
       <c r="E14">
-        <v>227000000</v>
+        <v>8000000</v>
       </c>
       <c r="F14">
-        <v>324000000</v>
+        <v>8000000</v>
       </c>
       <c r="G14">
-        <v>415000000</v>
+        <v>11000000</v>
       </c>
       <c r="H14">
-        <v>319000000</v>
+        <v>-1000000</v>
       </c>
       <c r="I14">
-        <v>321000000</v>
+        <v>7000000</v>
       </c>
       <c r="J14">
-        <v>391000000</v>
+        <v>8000000</v>
       </c>
       <c r="K14">
-        <v>347000000</v>
+        <v>4000000</v>
       </c>
       <c r="L14">
-        <v>278000000</v>
+        <v>-25000000</v>
       </c>
       <c r="M14">
-        <v>226000000</v>
+        <v>5000000</v>
       </c>
       <c r="N14">
-        <v>378000000</v>
+        <v>5000000</v>
       </c>
       <c r="O14">
-        <v>315000000</v>
+        <v>2000000</v>
       </c>
       <c r="P14">
-        <v>195000000</v>
+        <v>-13000000</v>
       </c>
       <c r="Q14">
-        <v>371000000</v>
+        <v>-9000000</v>
       </c>
       <c r="R14">
-        <v>419000000</v>
+        <v>7000000</v>
       </c>
       <c r="S14">
-        <v>488000000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>359000000</v>
+        <v>7000000</v>
       </c>
       <c r="U14">
-        <v>1147000000</v>
+        <v>8000000</v>
       </c>
       <c r="V14">
-        <v>564000000</v>
+        <v>5000000</v>
       </c>
       <c r="W14">
-        <v>557000000</v>
+        <v>10000000</v>
       </c>
       <c r="X14">
-        <v>411000000</v>
+        <v>8000000</v>
       </c>
       <c r="Y14">
-        <v>454000000</v>
+        <v>8000000</v>
       </c>
       <c r="Z14">
-        <v>531000000</v>
+        <v>7000000</v>
       </c>
       <c r="AA14">
-        <v>542000000</v>
+        <v>1000000</v>
       </c>
       <c r="AB14">
-        <v>468000000</v>
-      </c>
-      <c r="AC14">
-        <v>424000000</v>
+        <v>-1000000</v>
       </c>
       <c r="AD14">
-        <v>547000000</v>
+        <v>2000000</v>
       </c>
       <c r="AE14">
-        <v>509000000</v>
+        <v>1000000</v>
       </c>
       <c r="AF14">
-        <v>502000000</v>
+        <v>1000000</v>
       </c>
       <c r="AG14">
-        <v>459000000</v>
+        <v>100000</v>
       </c>
       <c r="AH14">
-        <v>569000000</v>
+        <v>300000</v>
       </c>
       <c r="AI14">
-        <v>537000000</v>
+        <v>1200000</v>
       </c>
       <c r="AJ14">
-        <v>463000000</v>
+        <v>400000</v>
       </c>
       <c r="AK14">
-        <v>442000000</v>
+        <v>-300000</v>
       </c>
       <c r="AL14">
-        <v>471000000</v>
+        <v>900000</v>
       </c>
       <c r="AM14">
-        <v>458000000</v>
+        <v>800000</v>
       </c>
       <c r="AN14">
-        <v>470000000</v>
+        <v>-800000</v>
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>3861000000</v>
-      </c>
-      <c r="C15">
-        <v>83000000</v>
-      </c>
-      <c r="D15">
-        <v>1301000000</v>
-      </c>
-      <c r="E15">
-        <v>1337000000</v>
-      </c>
-      <c r="F15">
-        <v>1433000000</v>
-      </c>
-      <c r="G15">
-        <v>1523000000</v>
-      </c>
-      <c r="H15">
-        <v>1626000000</v>
-      </c>
-      <c r="I15">
-        <v>1410000000</v>
-      </c>
-      <c r="J15">
-        <v>1435000000</v>
-      </c>
-      <c r="K15">
-        <v>1303000000</v>
-      </c>
-      <c r="L15">
-        <v>1310000000</v>
-      </c>
-      <c r="M15">
-        <v>917000000</v>
-      </c>
-      <c r="N15">
-        <v>1588000000</v>
-      </c>
-      <c r="O15">
-        <v>1131000000</v>
-      </c>
-      <c r="P15">
-        <v>893000000</v>
-      </c>
-      <c r="Q15">
-        <v>1349000000</v>
-      </c>
-      <c r="R15">
-        <v>1546000000</v>
-      </c>
-      <c r="S15">
-        <v>1862000000</v>
-      </c>
-      <c r="T15">
-        <v>606000000</v>
-      </c>
-      <c r="U15">
-        <v>525000000</v>
-      </c>
-      <c r="V15">
-        <v>1433000000</v>
-      </c>
-      <c r="W15">
-        <v>1585000000</v>
-      </c>
-      <c r="X15">
-        <v>1326000000</v>
-      </c>
-      <c r="Y15">
-        <v>1156000000</v>
-      </c>
-      <c r="Z15">
-        <v>1331000000</v>
-      </c>
-      <c r="AA15">
-        <v>1293000000</v>
-      </c>
-      <c r="AB15">
-        <v>1278000000</v>
-      </c>
-      <c r="AC15">
-        <v>1039000000</v>
-      </c>
-      <c r="AD15">
-        <v>1298000000</v>
-      </c>
-      <c r="AE15">
-        <v>1303000000</v>
-      </c>
-      <c r="AF15">
-        <v>1201000000</v>
-      </c>
-      <c r="AG15">
-        <v>1179000000</v>
-      </c>
-      <c r="AH15">
-        <v>1311000000</v>
-      </c>
-      <c r="AI15">
-        <v>1283000000</v>
-      </c>
-      <c r="AJ15">
-        <v>1225000000</v>
-      </c>
-      <c r="AK15">
-        <v>1116000000</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AL15">
-        <v>1245000000</v>
-      </c>
-      <c r="AM15">
-        <v>1213000000</v>
-      </c>
-      <c r="AN15">
-        <v>1147000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
+        <v>2000000</v>
+      </c>
+      <c r="C16">
+        <v>9000000</v>
+      </c>
+      <c r="D16">
+        <v>1000000</v>
+      </c>
+      <c r="J16">
+        <v>-1000000</v>
+      </c>
+      <c r="K16">
+        <v>-2000000</v>
+      </c>
+      <c r="M16">
+        <v>-30000000</v>
+      </c>
+      <c r="Q16">
+        <v>-2000000</v>
+      </c>
+      <c r="S16">
+        <v>1000000</v>
+      </c>
+      <c r="V16">
+        <v>3000000</v>
+      </c>
+      <c r="W16">
+        <v>1000000</v>
+      </c>
+      <c r="X16">
+        <v>2000000</v>
+      </c>
+      <c r="Z16">
+        <v>3000000</v>
+      </c>
+      <c r="AC16">
+        <v>10000000</v>
+      </c>
+      <c r="AD16">
+        <v>5000000</v>
+      </c>
+      <c r="AF16">
+        <v>7000000</v>
+      </c>
+      <c r="AG16">
+        <v>12400000</v>
+      </c>
+      <c r="AH16">
+        <v>1000000</v>
+      </c>
+      <c r="AI16">
+        <v>3200000</v>
+      </c>
+      <c r="AJ16">
+        <v>11400000</v>
+      </c>
+      <c r="AK16">
+        <v>10100000</v>
+      </c>
+      <c r="AL16">
+        <v>6700000</v>
+      </c>
+      <c r="AM16">
         <v>4000000</v>
       </c>
-      <c r="C16">
-        <v>4000000</v>
-      </c>
-      <c r="D16">
-        <v>4000000</v>
-      </c>
-      <c r="E16">
-        <v>1000000</v>
-      </c>
-      <c r="F16">
-        <v>3000000</v>
-      </c>
-      <c r="G16">
-        <v>1000000</v>
-      </c>
-      <c r="H16">
-        <v>3000000</v>
-      </c>
-      <c r="I16">
-        <v>1000000</v>
-      </c>
-      <c r="J16">
-        <v>4000000</v>
-      </c>
-      <c r="K16">
-        <v>-3000000</v>
-      </c>
-      <c r="L16">
-        <v>2000000</v>
-      </c>
-      <c r="M16">
-        <v>1000000</v>
-      </c>
-      <c r="N16">
-        <v>5000000</v>
-      </c>
-      <c r="O16">
-        <v>4000000</v>
-      </c>
-      <c r="P16">
-        <v>2000000</v>
-      </c>
-      <c r="Q16">
-        <v>2000000</v>
-      </c>
-      <c r="R16">
-        <v>3000000</v>
-      </c>
-      <c r="S16">
-        <v>5000000</v>
-      </c>
-      <c r="T16">
-        <v>4000000</v>
-      </c>
-      <c r="U16">
-        <v>2000000</v>
-      </c>
-      <c r="V16">
-        <v>4000000</v>
-      </c>
-      <c r="W16">
-        <v>2000000</v>
-      </c>
-      <c r="X16">
-        <v>3000000</v>
-      </c>
-      <c r="Y16">
-        <v>1000000</v>
-      </c>
-      <c r="Z16">
-        <v>2000000</v>
-      </c>
-      <c r="AA16">
-        <v>2000000</v>
-      </c>
-      <c r="AB16">
-        <v>3000000</v>
-      </c>
-      <c r="AC16">
-        <v>1000000</v>
-      </c>
-      <c r="AD16">
-        <v>2000000</v>
-      </c>
-      <c r="AE16">
-        <v>3000000</v>
-      </c>
-      <c r="AF16">
-        <v>2000000</v>
-      </c>
-      <c r="AH16">
-        <v>8000000</v>
-      </c>
-      <c r="AI16">
-        <v>16000000</v>
-      </c>
-      <c r="AJ16">
-        <v>18000000</v>
-      </c>
-      <c r="AK16">
-        <v>13000000</v>
-      </c>
-      <c r="AL16">
-        <v>15000000</v>
-      </c>
-      <c r="AM16">
-        <v>16000000</v>
-      </c>
       <c r="AN16">
-        <v>18000000</v>
+        <v>7400000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>3859000000</v>
+        <v>392000000</v>
       </c>
       <c r="C17">
-        <v>78000000</v>
+        <v>-174000000</v>
       </c>
       <c r="D17">
-        <v>1299000000</v>
+        <v>446000000</v>
       </c>
       <c r="E17">
-        <v>1339000000</v>
+        <v>297000000</v>
       </c>
       <c r="F17">
-        <v>1434000000</v>
+        <v>179000000</v>
       </c>
       <c r="G17">
-        <v>1524000000</v>
+        <v>202000000</v>
       </c>
       <c r="H17">
-        <v>1624000000</v>
+        <v>200000000</v>
       </c>
       <c r="I17">
-        <v>1405000000</v>
+        <v>227000000</v>
       </c>
       <c r="J17">
-        <v>1430000000</v>
+        <v>241000000</v>
       </c>
       <c r="K17">
-        <v>1306000000</v>
+        <v>94000000</v>
       </c>
       <c r="L17">
-        <v>1308000000</v>
+        <v>23000000</v>
       </c>
       <c r="M17">
-        <v>916000000</v>
+        <v>160000000</v>
       </c>
       <c r="N17">
-        <v>1583000000</v>
+        <v>92000000</v>
       </c>
       <c r="O17">
-        <v>1127000000</v>
+        <v>197000000</v>
       </c>
       <c r="P17">
-        <v>891000000</v>
+        <v>117000000</v>
       </c>
       <c r="Q17">
-        <v>1347000000</v>
+        <v>151000000</v>
       </c>
       <c r="R17">
-        <v>1543000000</v>
+        <v>59000000</v>
       </c>
       <c r="S17">
-        <v>1857000000</v>
+        <v>119000000</v>
       </c>
       <c r="T17">
-        <v>602000000</v>
+        <v>125000000</v>
       </c>
       <c r="U17">
-        <v>523000000</v>
+        <v>159000000</v>
       </c>
       <c r="V17">
-        <v>1429000000</v>
+        <v>48000000</v>
       </c>
       <c r="W17">
-        <v>1583000000</v>
+        <v>99000000</v>
       </c>
       <c r="X17">
-        <v>1323000000</v>
+        <v>68000000</v>
       </c>
       <c r="Y17">
-        <v>1155000000</v>
+        <v>52000000</v>
       </c>
       <c r="Z17">
-        <v>1329000000</v>
+        <v>31000000</v>
       </c>
       <c r="AA17">
-        <v>1291000000</v>
+        <v>307000000</v>
       </c>
       <c r="AB17">
-        <v>1275000000</v>
+        <v>-127000000</v>
       </c>
       <c r="AC17">
-        <v>1038000000</v>
+        <v>55000000</v>
       </c>
       <c r="AD17">
-        <v>1296000000</v>
+        <v>45000000</v>
       </c>
       <c r="AE17">
-        <v>1300000000</v>
+        <v>160000000</v>
       </c>
       <c r="AF17">
-        <v>1199000000</v>
+        <v>21000000</v>
       </c>
       <c r="AG17">
-        <v>1179000000</v>
+        <v>76000000</v>
       </c>
       <c r="AH17">
-        <v>1303000000</v>
+        <v>147400000</v>
       </c>
       <c r="AI17">
-        <v>1267000000</v>
+        <v>153100000</v>
       </c>
       <c r="AJ17">
-        <v>1207000000</v>
+        <v>93500000</v>
       </c>
       <c r="AK17">
-        <v>1103000000</v>
+        <v>124500000</v>
       </c>
       <c r="AL17">
-        <v>1230000000</v>
+        <v>115200000</v>
       </c>
       <c r="AM17">
-        <v>1197000000</v>
+        <v>95100000</v>
       </c>
       <c r="AN17">
-        <v>1129000000</v>
+        <v>72000000</v>
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>6.79</v>
+        <v>1.25</v>
       </c>
       <c r="C18">
+        <v>-0.55</v>
+      </c>
+      <c r="D18">
+        <v>1.39</v>
+      </c>
+      <c r="E18">
+        <v>0.92</v>
+      </c>
+      <c r="F18">
+        <v>0.55</v>
+      </c>
+      <c r="G18">
+        <v>0.62</v>
+      </c>
+      <c r="H18">
+        <v>0.61</v>
+      </c>
+      <c r="I18">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.74</v>
+      </c>
+      <c r="K18">
+        <v>0.29</v>
+      </c>
+      <c r="L18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.49</v>
+      </c>
+      <c r="N18">
+        <v>0.28</v>
+      </c>
+      <c r="O18">
+        <v>0.59</v>
+      </c>
+      <c r="P18">
+        <v>0.35</v>
+      </c>
+      <c r="Q18">
+        <v>0.45</v>
+      </c>
+      <c r="R18">
+        <v>0.17</v>
+      </c>
+      <c r="S18">
+        <v>0.34</v>
+      </c>
+      <c r="T18">
+        <v>0.36</v>
+      </c>
+      <c r="U18">
+        <v>0.53</v>
+      </c>
+      <c r="V18">
         <v>0.14</v>
       </c>
-      <c r="D18">
-        <v>2.27</v>
-      </c>
-      <c r="E18">
-        <v>2.33</v>
-      </c>
-      <c r="F18">
-        <v>2.47</v>
-      </c>
-      <c r="G18">
-        <v>2.62</v>
-      </c>
-      <c r="H18">
-        <v>2.8</v>
-      </c>
-      <c r="I18">
-        <v>2.4</v>
-      </c>
-      <c r="J18">
-        <v>2.45</v>
-      </c>
-      <c r="K18">
-        <v>2.24</v>
-      </c>
-      <c r="L18">
-        <v>2.24</v>
-      </c>
-      <c r="M18">
-        <v>1.68</v>
-      </c>
-      <c r="N18">
-        <v>2.75</v>
-      </c>
-      <c r="O18">
-        <v>1.95</v>
-      </c>
-      <c r="P18">
-        <v>1.54</v>
-      </c>
-      <c r="Q18">
-        <v>2.32</v>
-      </c>
-      <c r="R18">
-        <v>2.64</v>
-      </c>
-      <c r="S18">
-        <v>3.14</v>
-      </c>
-      <c r="T18">
-        <v>1.01</v>
-      </c>
-      <c r="U18">
-        <v>0.88</v>
-      </c>
-      <c r="V18">
-        <v>2.39</v>
-      </c>
       <c r="W18">
-        <v>2.65</v>
+        <v>0.28</v>
       </c>
       <c r="X18">
-        <v>2.21</v>
+        <v>0.195</v>
       </c>
       <c r="Y18">
-        <v>1.93</v>
+        <v>0.04</v>
       </c>
       <c r="Z18">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>2.13</v>
+        <v>1.3</v>
       </c>
       <c r="AB18">
-        <v>2.1</v>
+        <v>-0.45</v>
       </c>
       <c r="AC18">
-        <v>1.69</v>
+        <v>0.2</v>
       </c>
       <c r="AD18">
-        <v>2.09</v>
+        <v>0.16</v>
       </c>
       <c r="AE18">
-        <v>2.06</v>
+        <v>0.58</v>
       </c>
       <c r="AF18">
-        <v>1.88</v>
+        <v>0.075</v>
       </c>
       <c r="AG18">
-        <v>1.85</v>
+        <v>0.28</v>
       </c>
       <c r="AH18">
-        <v>2.02</v>
+        <v>0.535</v>
       </c>
       <c r="AI18">
-        <v>1.94</v>
+        <v>0.55</v>
       </c>
       <c r="AJ18">
-        <v>1.83</v>
+        <v>0.335</v>
       </c>
       <c r="AK18">
-        <v>1.65</v>
+        <v>0.435</v>
       </c>
       <c r="AL18">
-        <v>1.81</v>
+        <v>0.4</v>
       </c>
       <c r="AM18">
-        <v>1.74</v>
+        <v>0.325</v>
       </c>
       <c r="AN18">
-        <v>1.63</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>6.77</v>
+        <v>1.24</v>
       </c>
       <c r="C19">
-        <v>0.14</v>
+        <v>-0.55</v>
       </c>
       <c r="D19">
-        <v>2.26</v>
+        <v>1.37</v>
       </c>
       <c r="E19">
-        <v>2.31</v>
+        <v>0.9</v>
       </c>
       <c r="F19">
-        <v>2.45</v>
+        <v>0.54</v>
       </c>
       <c r="G19">
-        <v>2.59</v>
+        <v>0.61</v>
       </c>
       <c r="H19">
-        <v>2.77</v>
+        <v>0.6</v>
       </c>
       <c r="I19">
-        <v>2.38</v>
+        <v>0.68</v>
       </c>
       <c r="J19">
-        <v>2.43</v>
+        <v>0.72</v>
       </c>
       <c r="K19">
-        <v>2.22</v>
+        <v>0.28</v>
       </c>
       <c r="L19">
-        <v>2.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M19">
-        <v>1.66</v>
+        <v>0.48</v>
       </c>
       <c r="N19">
-        <v>2.72</v>
+        <v>0.27</v>
       </c>
       <c r="O19">
-        <v>1.92</v>
+        <v>0.58</v>
       </c>
       <c r="P19">
-        <v>1.51</v>
+        <v>0.34</v>
       </c>
       <c r="Q19">
-        <v>2.27</v>
+        <v>0.44</v>
       </c>
       <c r="R19">
-        <v>2.58</v>
+        <v>0.17</v>
       </c>
       <c r="S19">
-        <v>3.07</v>
+        <v>0.34</v>
       </c>
       <c r="T19">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
       <c r="U19">
-        <v>0.85</v>
+        <v>0.52</v>
       </c>
       <c r="V19">
-        <v>2.33</v>
+        <v>0.13</v>
       </c>
       <c r="W19">
-        <v>2.58</v>
+        <v>0.28</v>
       </c>
       <c r="X19">
-        <v>2.16</v>
+        <v>0.19</v>
       </c>
       <c r="Y19">
-        <v>1.88</v>
+        <v>0.04</v>
       </c>
       <c r="Z19">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>2.08</v>
+        <v>1.27</v>
       </c>
       <c r="AB19">
-        <v>2.05</v>
+        <v>-0.45</v>
       </c>
       <c r="AC19">
-        <v>1.66</v>
+        <v>0.195</v>
       </c>
       <c r="AD19">
-        <v>2.05</v>
+        <v>0.16</v>
       </c>
       <c r="AE19">
-        <v>2.02</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AF19">
-        <v>1.85</v>
+        <v>0.075</v>
       </c>
       <c r="AG19">
-        <v>1.81</v>
+        <v>0.27</v>
       </c>
       <c r="AH19">
-        <v>1.98</v>
+        <v>0.52</v>
       </c>
       <c r="AI19">
-        <v>1.91</v>
+        <v>0.535</v>
       </c>
       <c r="AJ19">
-        <v>1.79</v>
+        <v>0.325</v>
       </c>
       <c r="AK19">
-        <v>1.62</v>
+        <v>0.425</v>
       </c>
       <c r="AL19">
-        <v>1.78</v>
+        <v>0.39</v>
       </c>
       <c r="AM19">
-        <v>1.71</v>
+        <v>0.315</v>
       </c>
       <c r="AN19">
-        <v>1.61</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>568800000</v>
+        <v>314054000</v>
       </c>
       <c r="C20">
-        <v>571000000</v>
+        <v>317006000</v>
       </c>
       <c r="D20">
-        <v>572300000</v>
+        <v>320904000</v>
       </c>
       <c r="E20">
-        <v>579000000</v>
+        <v>325989000</v>
       </c>
       <c r="F20">
-        <v>579600000</v>
+        <v>325876000</v>
       </c>
       <c r="G20">
-        <v>581000000</v>
+        <v>327625000</v>
       </c>
       <c r="H20">
-        <v>580500000</v>
+        <v>327811000</v>
       </c>
       <c r="I20">
-        <v>577600000</v>
+        <v>326260000</v>
       </c>
       <c r="J20">
-        <v>577800000</v>
+        <v>326549000</v>
       </c>
       <c r="K20">
-        <v>577000000</v>
+        <v>325994000</v>
       </c>
       <c r="L20">
-        <v>576800000</v>
+        <v>325346000</v>
       </c>
       <c r="M20">
-        <v>577000000</v>
+        <v>331102000</v>
       </c>
       <c r="N20">
-        <v>576500000</v>
+        <v>331148000</v>
       </c>
       <c r="O20">
-        <v>577700000</v>
+        <v>332825000</v>
       </c>
       <c r="P20">
-        <v>577500000</v>
+        <v>334239000</v>
       </c>
       <c r="Q20">
-        <v>588500000</v>
+        <v>344796000</v>
       </c>
       <c r="R20">
-        <v>585600000</v>
+        <v>342982000</v>
       </c>
       <c r="S20">
-        <v>591400000</v>
+        <v>348221000</v>
       </c>
       <c r="T20">
-        <v>596200000</v>
+        <v>350215000</v>
       </c>
       <c r="U20">
-        <v>597500000</v>
+        <v>350269000</v>
       </c>
       <c r="V20">
-        <v>597600000</v>
+        <v>350327000</v>
       </c>
       <c r="W20">
-        <v>598100000</v>
+        <v>351066000</v>
       </c>
       <c r="X20">
-        <v>598100000</v>
+        <v>350048000</v>
       </c>
       <c r="Y20">
-        <v>604700000</v>
+        <v>316542000</v>
       </c>
       <c r="Z20">
-        <v>604400000</v>
+        <v>349128000</v>
       </c>
       <c r="AA20">
-        <v>606900000</v>
+        <v>284076000</v>
       </c>
       <c r="AB20">
-        <v>607400000</v>
+        <v>283586000</v>
       </c>
       <c r="AC20">
-        <v>625600000</v>
+        <v>274600000</v>
       </c>
       <c r="AD20">
-        <v>620600000</v>
+        <v>274674000</v>
       </c>
       <c r="AE20">
-        <v>631300000</v>
+        <v>275602000</v>
       </c>
       <c r="AF20">
-        <v>636200000</v>
+        <v>274172000</v>
       </c>
       <c r="AG20">
-        <v>649200000</v>
+        <v>277016000</v>
       </c>
       <c r="AH20">
-        <v>645300000</v>
+        <v>276020000</v>
       </c>
       <c r="AI20">
-        <v>652000000</v>
+        <v>278024000</v>
       </c>
       <c r="AJ20">
-        <v>661500000</v>
+        <v>280810000</v>
       </c>
       <c r="AK20">
-        <v>681900000</v>
+        <v>291886000</v>
       </c>
       <c r="AL20">
-        <v>679800000</v>
+        <v>289428000</v>
       </c>
       <c r="AM20">
-        <v>688200000</v>
+        <v>294176000</v>
       </c>
       <c r="AN20">
-        <v>691100000</v>
+        <v>297952000</v>
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>570000000</v>
+        <v>317061000</v>
       </c>
       <c r="C21">
-        <v>572700000</v>
+        <v>317006000</v>
       </c>
       <c r="D21">
-        <v>575000000</v>
+        <v>325916000</v>
       </c>
       <c r="E21">
-        <v>585300000</v>
+        <v>331615000</v>
       </c>
       <c r="F21">
-        <v>586300000</v>
+        <v>331595000</v>
       </c>
       <c r="G21">
-        <v>588600000</v>
+        <v>333378000</v>
       </c>
       <c r="H21">
-        <v>586300000</v>
+        <v>333673000</v>
       </c>
       <c r="I21">
-        <v>582200000</v>
+        <v>332815000</v>
       </c>
       <c r="J21">
-        <v>582400000</v>
+        <v>332654000</v>
       </c>
       <c r="K21">
-        <v>580800000</v>
+        <v>331717000</v>
       </c>
       <c r="L21">
-        <v>581500000</v>
+        <v>332326000</v>
       </c>
       <c r="M21">
-        <v>585100000</v>
+        <v>340121000</v>
       </c>
       <c r="N21">
-        <v>583000000</v>
+        <v>340632000</v>
       </c>
       <c r="O21">
-        <v>586100000</v>
+        <v>341637000</v>
       </c>
       <c r="P21">
-        <v>588500000</v>
+        <v>342676000</v>
       </c>
       <c r="Q21">
-        <v>602000000</v>
+        <v>352321000</v>
       </c>
       <c r="R21">
-        <v>598400000</v>
+        <v>349709000</v>
       </c>
       <c r="S21">
-        <v>604200000</v>
+        <v>354904000</v>
       </c>
       <c r="T21">
-        <v>612700000</v>
+        <v>357552000</v>
       </c>
       <c r="U21">
-        <v>612700000</v>
+        <v>356985000</v>
       </c>
       <c r="V21">
-        <v>612700000</v>
+        <v>358556000</v>
       </c>
       <c r="W21">
-        <v>612800000</v>
+        <v>358979000</v>
       </c>
       <c r="X21">
-        <v>612000000</v>
+        <v>357934000</v>
       </c>
       <c r="Y21">
-        <v>618700000</v>
+        <v>322884000</v>
       </c>
       <c r="Z21">
-        <v>618800000</v>
+        <v>355404000</v>
       </c>
       <c r="AA21">
-        <v>620900000</v>
+        <v>290454000</v>
       </c>
       <c r="AB21">
-        <v>621300000</v>
+        <v>283586000</v>
       </c>
       <c r="AC21">
-        <v>637200000</v>
+        <v>281968000</v>
       </c>
       <c r="AD21">
-        <v>631200000</v>
+        <v>281716000</v>
       </c>
       <c r="AE21">
-        <v>643000000</v>
+        <v>283080000</v>
       </c>
       <c r="AF21">
-        <v>649200000</v>
+        <v>282152000</v>
       </c>
       <c r="AG21">
-        <v>662000000</v>
+        <v>284860000</v>
       </c>
       <c r="AH21">
-        <v>657900000</v>
+        <v>284180000</v>
       </c>
       <c r="AI21">
-        <v>664600000</v>
+        <v>285720000</v>
       </c>
       <c r="AJ21">
-        <v>674500000</v>
+        <v>288116000</v>
       </c>
       <c r="AK21">
-        <v>693600000</v>
+        <v>298446000</v>
       </c>
       <c r="AL21">
-        <v>691800000</v>
+        <v>295790000</v>
       </c>
       <c r="AM21">
-        <v>699100000</v>
+        <v>300610000</v>
       </c>
       <c r="AN21">
-        <v>702100000</v>
+        <v>304632000</v>
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>0.4514</v>
+        <v>0.1711</v>
       </c>
       <c r="C22">
-        <v>0.4147</v>
+        <v>0.1667</v>
       </c>
       <c r="D22">
-        <v>0.4534</v>
+        <v>0.1884</v>
       </c>
       <c r="E22">
-        <v>0.4545</v>
+        <v>0.1886</v>
       </c>
       <c r="F22">
-        <v>0.4573</v>
+        <v>0.1976</v>
       </c>
       <c r="G22">
-        <v>0.4727</v>
+        <v>0.2021</v>
       </c>
       <c r="H22">
-        <v>0.4888</v>
+        <v>0.2022</v>
       </c>
       <c r="I22">
-        <v>0.4888</v>
+        <v>0.2108</v>
       </c>
       <c r="J22">
-        <v>0.4847</v>
+        <v>0.2144</v>
       </c>
       <c r="K22">
-        <v>0.4698</v>
+        <v>0.2039</v>
       </c>
       <c r="L22">
-        <v>0.4911</v>
+        <v>0.2047</v>
       </c>
       <c r="M22">
-        <v>0.4668</v>
+        <v>0.206</v>
       </c>
       <c r="N22">
-        <v>0.4759</v>
+        <v>0.1998</v>
       </c>
       <c r="O22">
-        <v>0.4722</v>
+        <v>0.1952</v>
       </c>
       <c r="P22">
-        <v>0.4519</v>
+        <v>0.191</v>
       </c>
       <c r="Q22">
-        <v>0.489</v>
+        <v>0.1987</v>
       </c>
       <c r="R22">
-        <v>0.4898</v>
+        <v>0.1982</v>
       </c>
       <c r="S22">
-        <v>0.4962</v>
+        <v>0.199</v>
       </c>
       <c r="T22">
-        <v>0.4883</v>
+        <v>0.1968</v>
       </c>
       <c r="U22">
-        <v>0.4876</v>
+        <v>0.2232</v>
       </c>
       <c r="V22">
-        <v>0.5033</v>
+        <v>0.196</v>
       </c>
       <c r="W22">
-        <v>0.4853</v>
+        <v>0.2049</v>
       </c>
       <c r="X22">
-        <v>0.4949</v>
+        <v>0.2014</v>
       </c>
       <c r="Y22">
-        <v>0.4823</v>
+        <v>0.2037</v>
       </c>
       <c r="Z22">
-        <v>0.501</v>
+        <v>0.1733</v>
       </c>
       <c r="AA22">
-        <v>0.5042</v>
+        <v>0.2138</v>
       </c>
       <c r="AB22">
-        <v>0.5036</v>
+        <v>0.1936</v>
       </c>
       <c r="AC22">
-        <v>0.4756</v>
+        <v>0.2055</v>
       </c>
       <c r="AD22">
-        <v>0.4973</v>
+        <v>0.1941</v>
       </c>
       <c r="AE22">
-        <v>0.498</v>
+        <v>0.1828</v>
       </c>
       <c r="AF22">
-        <v>0.4958</v>
+        <v>0.1882</v>
       </c>
       <c r="AG22">
-        <v>0.4783</v>
+        <v>0.1948</v>
       </c>
       <c r="AH22">
-        <v>0.4832</v>
+        <v>0.1928</v>
       </c>
       <c r="AI22">
-        <v>0.4856</v>
+        <v>0.1944</v>
       </c>
       <c r="AJ22">
-        <v>0.4853</v>
+        <v>0.1963</v>
       </c>
       <c r="AK22">
-        <v>0.4747</v>
+        <v>0.2057</v>
       </c>
       <c r="AL22">
-        <v>0.476</v>
+        <v>0.1892</v>
       </c>
       <c r="AM22">
-        <v>0.4823</v>
+        <v>0.1832</v>
       </c>
       <c r="AN22">
-        <v>0.4801</v>
+        <v>0.1745</v>
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.4822</v>
+        <v>0.1324</v>
       </c>
       <c r="C23">
-        <v>0.0126</v>
+        <v>-0.0259</v>
       </c>
       <c r="D23">
-        <v>0.1859</v>
+        <v>0.1642</v>
       </c>
       <c r="E23">
-        <v>0.1876</v>
+        <v>0.1034</v>
       </c>
       <c r="F23">
-        <v>0.2</v>
+        <v>0.067</v>
       </c>
       <c r="G23">
-        <v>0.2202</v>
+        <v>0.1078</v>
       </c>
       <c r="H23">
-        <v>0.2253</v>
+        <v>0.096</v>
       </c>
       <c r="I23">
-        <v>0.2154</v>
+        <v>0.0954</v>
       </c>
       <c r="J23">
-        <v>0.2286</v>
+        <v>0.1209</v>
       </c>
       <c r="K23">
-        <v>0.2425</v>
+        <v>0.0635</v>
       </c>
       <c r="L23">
-        <v>0.2059</v>
+        <v>0.0557</v>
       </c>
       <c r="M23">
-        <v>0.1634</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="N23">
-        <v>0.2517</v>
+        <v>0.06710000000000001</v>
       </c>
       <c r="O23">
-        <v>0.2083</v>
+        <v>0.1018</v>
       </c>
       <c r="P23">
-        <v>0.1445</v>
+        <v>0.0794</v>
       </c>
       <c r="Q23">
-        <v>0.2244</v>
+        <v>0.0706</v>
       </c>
       <c r="R23">
-        <v>0.2473</v>
+        <v>0.091</v>
       </c>
       <c r="S23">
-        <v>0.2862</v>
+        <v>0.0784</v>
       </c>
       <c r="T23">
-        <v>0.1216</v>
+        <v>0.08110000000000001</v>
       </c>
       <c r="U23">
-        <v>0.2239</v>
+        <v>0.1234</v>
       </c>
       <c r="V23">
-        <v>0.2457</v>
+        <v>0.0426</v>
       </c>
       <c r="W23">
-        <v>0.2757</v>
+        <v>0.0655</v>
       </c>
       <c r="X23">
-        <v>0.2267</v>
+        <v>0.0615</v>
       </c>
       <c r="Y23">
-        <v>0.2004</v>
+        <v>0.06419999999999999</v>
       </c>
       <c r="Z23">
-        <v>0.247</v>
+        <v>0.048</v>
       </c>
       <c r="AA23">
-        <v>0.2435</v>
+        <v>0.1374</v>
       </c>
       <c r="AB23">
-        <v>0.2413</v>
+        <v>-0.0626</v>
       </c>
       <c r="AC23">
-        <v>0.2055</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AD23">
-        <v>0.2433</v>
+        <v>0.0362</v>
       </c>
       <c r="AE23">
-        <v>0.2394</v>
+        <v>0.1262</v>
       </c>
       <c r="AF23">
-        <v>0.2283</v>
+        <v>0.0655</v>
       </c>
       <c r="AG23">
-        <v>0.2153</v>
+        <v>0.0678</v>
       </c>
       <c r="AH23">
-        <v>0.2336</v>
+        <v>0.1018</v>
       </c>
       <c r="AI23">
-        <v>0.2282</v>
+        <v>0.1117</v>
       </c>
       <c r="AJ23">
-        <v>0.2191</v>
+        <v>0.1083</v>
       </c>
       <c r="AK23">
-        <v>0.2086</v>
+        <v>0.1188</v>
       </c>
       <c r="AL23">
-        <v>0.2197</v>
+        <v>0.0929</v>
       </c>
       <c r="AM23">
-        <v>0.2196</v>
+        <v>0.0924</v>
       </c>
       <c r="AN23">
-        <v>0.2156</v>
+        <v>0.0718</v>
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>0.4794</v>
+        <v>0.1124</v>
       </c>
       <c r="C24">
-        <v>0.0069</v>
+        <v>-0.0428</v>
       </c>
       <c r="D24">
-        <v>0.1816</v>
+        <v>0.1456</v>
       </c>
       <c r="E24">
-        <v>0.1816</v>
+        <v>0.0814</v>
       </c>
       <c r="F24">
-        <v>0.1965</v>
+        <v>0.0476</v>
       </c>
       <c r="G24">
-        <v>0.2165</v>
+        <v>0.0888</v>
       </c>
       <c r="H24">
-        <v>0.2197</v>
+        <v>0.0746</v>
       </c>
       <c r="I24">
-        <v>0.2017</v>
+        <v>0.0732</v>
       </c>
       <c r="J24">
-        <v>0.2187</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="K24">
-        <v>0.2299</v>
+        <v>0.0396</v>
       </c>
       <c r="L24">
-        <v>0.1967</v>
+        <v>0.0158</v>
       </c>
       <c r="M24">
-        <v>0.1409</v>
+        <v>0.0452</v>
       </c>
       <c r="N24">
-        <v>0.246</v>
+        <v>0.0403</v>
       </c>
       <c r="O24">
-        <v>0.177</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="P24">
-        <v>0.1384</v>
+        <v>0.0503</v>
       </c>
       <c r="Q24">
-        <v>0.2165</v>
+        <v>0.0439</v>
       </c>
       <c r="R24">
-        <v>0.241</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="S24">
-        <v>0.2801</v>
+        <v>0.0535</v>
       </c>
       <c r="T24">
-        <v>0.1166</v>
+        <v>0.0546</v>
       </c>
       <c r="U24">
-        <v>0.2093</v>
+        <v>0.09760000000000001</v>
       </c>
       <c r="V24">
-        <v>0.2444</v>
+        <v>0.0172</v>
       </c>
       <c r="W24">
-        <v>0.2743</v>
+        <v>0.0392</v>
       </c>
       <c r="X24">
-        <v>0.226</v>
+        <v>0.034</v>
       </c>
       <c r="Y24">
-        <v>0.2197</v>
+        <v>0.0365</v>
       </c>
       <c r="Z24">
-        <v>0.2415</v>
+        <v>0.0182</v>
       </c>
       <c r="AA24">
-        <v>0.2395</v>
+        <v>0.0946</v>
       </c>
       <c r="AB24">
-        <v>0.2357</v>
+        <v>-0.119</v>
       </c>
       <c r="AC24">
-        <v>0.2005</v>
+        <v>0.0349</v>
       </c>
       <c r="AD24">
-        <v>0.2392</v>
+        <v>0.0081</v>
       </c>
       <c r="AE24">
-        <v>0.2358</v>
+        <v>0.1096</v>
       </c>
       <c r="AF24">
-        <v>0.2247</v>
+        <v>0.0146</v>
       </c>
       <c r="AG24">
-        <v>0.2122</v>
+        <v>0.0486</v>
       </c>
       <c r="AH24">
-        <v>0.231</v>
+        <v>0.0839</v>
       </c>
       <c r="AI24">
-        <v>0.2238</v>
+        <v>0.0939</v>
       </c>
       <c r="AJ24">
-        <v>0.2156</v>
+        <v>0.0718</v>
       </c>
       <c r="AK24">
-        <v>0.2058</v>
+        <v>0.0959</v>
       </c>
       <c r="AL24">
-        <v>0.2168</v>
+        <v>0.0723</v>
       </c>
       <c r="AM24">
-        <v>0.2156</v>
+        <v>0.0586</v>
       </c>
       <c r="AN24">
-        <v>0.2118</v>
+        <v>0.0493</v>
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>0.4477</v>
+        <v>0.0992</v>
       </c>
       <c r="C25">
-        <v>0.008999999999999999</v>
+        <v>-0.0421</v>
       </c>
       <c r="D25">
-        <v>0.1471</v>
+        <v>0.12</v>
       </c>
       <c r="E25">
-        <v>0.1555</v>
+        <v>0.0808</v>
       </c>
       <c r="F25">
-        <v>0.1604</v>
+        <v>0.0504</v>
       </c>
       <c r="G25">
-        <v>0.1703</v>
+        <v>0.0584</v>
       </c>
       <c r="H25">
-        <v>0.1835</v>
+        <v>0.064</v>
       </c>
       <c r="I25">
-        <v>0.1637</v>
+        <v>0.0732</v>
       </c>
       <c r="J25">
-        <v>0.1713</v>
+        <v>0.0779</v>
       </c>
       <c r="K25">
-        <v>0.182</v>
+        <v>0.0336</v>
       </c>
       <c r="L25">
-        <v>0.162</v>
+        <v>0.0083</v>
       </c>
       <c r="M25">
-        <v>0.1129</v>
+        <v>0.0588</v>
       </c>
       <c r="N25">
-        <v>0.1981</v>
+        <v>0.0312</v>
       </c>
       <c r="O25">
-        <v>0.1379</v>
+        <v>0.0653</v>
       </c>
       <c r="P25">
-        <v>0.1133</v>
+        <v>0.042</v>
       </c>
       <c r="Q25">
-        <v>0.1695</v>
+        <v>0.0539</v>
       </c>
       <c r="R25">
-        <v>0.1893</v>
+        <v>0.02</v>
       </c>
       <c r="S25">
-        <v>0.2213</v>
+        <v>0.0384</v>
       </c>
       <c r="T25">
-        <v>0.0727</v>
+        <v>0.0449</v>
       </c>
       <c r="U25">
-        <v>0.0655</v>
+        <v>0.0579</v>
       </c>
       <c r="V25">
-        <v>0.1749</v>
+        <v>0.0165</v>
       </c>
       <c r="W25">
-        <v>0.2027</v>
+        <v>0.0347</v>
       </c>
       <c r="X25">
-        <v>0.1722</v>
+        <v>0.0275</v>
       </c>
       <c r="Y25">
-        <v>0.1576</v>
+        <v>0.0206</v>
       </c>
       <c r="Z25">
-        <v>0.1724</v>
+        <v>0.0113</v>
       </c>
       <c r="AA25">
-        <v>0.1685</v>
+        <v>0.1512</v>
       </c>
       <c r="AB25">
-        <v>0.1721</v>
+        <v>-0.0723</v>
       </c>
       <c r="AC25">
-        <v>0.1422</v>
+        <v>0.0305</v>
       </c>
       <c r="AD25">
-        <v>0.168</v>
+        <v>0.0215</v>
       </c>
       <c r="AE25">
-        <v>0.1691</v>
+        <v>0.0737</v>
       </c>
       <c r="AF25">
-        <v>0.1582</v>
+        <v>0.0109</v>
       </c>
       <c r="AG25">
-        <v>0.1527</v>
+        <v>0.0374</v>
       </c>
       <c r="AH25">
-        <v>0.1601</v>
+        <v>0.0658</v>
       </c>
       <c r="AI25">
-        <v>0.1558</v>
+        <v>0.0668</v>
       </c>
       <c r="AJ25">
-        <v>0.1541</v>
+        <v>0.0466</v>
       </c>
       <c r="AK25">
-        <v>0.1457</v>
+        <v>0.0623</v>
       </c>
       <c r="AL25">
-        <v>0.1554</v>
+        <v>0.0506</v>
       </c>
       <c r="AM25">
-        <v>0.1544</v>
+        <v>0.0432</v>
       </c>
       <c r="AN25">
-        <v>0.1479</v>
+        <v>0.0362</v>
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>4606000000</v>
+        <v>680000000</v>
       </c>
       <c r="C26">
-        <v>572000000</v>
+        <v>61000000</v>
       </c>
       <c r="D26">
-        <v>2100000000</v>
+        <v>795000000</v>
       </c>
       <c r="E26">
-        <v>2123000000</v>
+        <v>565000000</v>
       </c>
       <c r="F26">
-        <v>2264000000</v>
+        <v>413000000</v>
       </c>
       <c r="G26">
-        <v>2443000000</v>
+        <v>545000000</v>
       </c>
       <c r="H26">
-        <v>2454000000</v>
+        <v>468000000</v>
       </c>
       <c r="I26">
-        <v>2347000000</v>
+        <v>465000000</v>
       </c>
       <c r="J26">
-        <v>2390000000</v>
+        <v>534000000</v>
       </c>
       <c r="K26">
-        <v>2232000000</v>
+        <v>348000000</v>
       </c>
       <c r="L26">
-        <v>2103000000</v>
+        <v>324000000</v>
       </c>
       <c r="M26">
-        <v>1788000000</v>
+        <v>374000000</v>
       </c>
       <c r="N26">
-        <v>2390000000</v>
+        <v>367000000</v>
       </c>
       <c r="O26">
-        <v>2078000000</v>
+        <v>478000000</v>
       </c>
       <c r="P26">
-        <v>1511000000</v>
+        <v>391000000</v>
       </c>
       <c r="Q26">
-        <v>2154000000</v>
+        <v>371000000</v>
       </c>
       <c r="R26">
-        <v>2371000000</v>
+        <v>439000000</v>
       </c>
       <c r="S26">
-        <v>2781000000</v>
+        <v>421000000</v>
       </c>
       <c r="T26">
-        <v>1389000000</v>
+        <v>406000000</v>
       </c>
       <c r="U26">
-        <v>2138000000</v>
+        <v>529000000</v>
       </c>
       <c r="V26">
-        <v>2385000000</v>
+        <v>286000000</v>
       </c>
       <c r="W26">
-        <v>2533000000</v>
+        <v>416000000</v>
       </c>
       <c r="X26">
-        <v>2180000000</v>
+        <v>300000000</v>
       </c>
       <c r="Y26">
-        <v>1853000000</v>
+        <v>316000000</v>
       </c>
       <c r="Z26">
-        <v>2272000000</v>
+        <v>278000000</v>
       </c>
       <c r="AA26">
-        <v>2232000000</v>
+        <v>357000000</v>
       </c>
       <c r="AB26">
-        <v>2144000000</v>
+        <v>-35000000</v>
       </c>
       <c r="AC26">
-        <v>1897000000</v>
+        <v>204000000</v>
       </c>
       <c r="AD26">
-        <v>2231000000</v>
+        <v>149000000</v>
       </c>
       <c r="AE26">
-        <v>2184000000</v>
+        <v>345000000</v>
       </c>
       <c r="AF26">
-        <v>2069000000</v>
+        <v>194000000</v>
       </c>
       <c r="AG26">
-        <v>2012000000</v>
+        <v>209000100</v>
       </c>
       <c r="AH26">
-        <v>2251000000</v>
+        <v>299299900</v>
       </c>
       <c r="AI26">
-        <v>2214000000</v>
+        <v>325499900</v>
       </c>
       <c r="AJ26">
-        <v>2066000000</v>
+        <v>286200000</v>
       </c>
       <c r="AK26">
-        <v>1936000000</v>
+        <v>313600300</v>
       </c>
       <c r="AL26">
-        <v>2082000000</v>
+        <v>288199900</v>
       </c>
       <c r="AM26">
-        <v>2037000000</v>
+        <v>277999900</v>
       </c>
       <c r="AN26">
-        <v>1982000000</v>
+        <v>215500000</v>
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>4156000000</v>
+        <v>523000000</v>
       </c>
       <c r="C27">
-        <v>110000000</v>
+        <v>-107000000</v>
       </c>
       <c r="D27">
-        <v>1641000000</v>
+        <v>610000000</v>
       </c>
       <c r="E27">
-        <v>1616000000</v>
+        <v>380000000</v>
       </c>
       <c r="F27">
-        <v>1788000000</v>
+        <v>238000000</v>
       </c>
       <c r="G27">
-        <v>1971000000</v>
+        <v>373000000</v>
       </c>
       <c r="H27">
-        <v>1994000000</v>
+        <v>300000000</v>
       </c>
       <c r="I27">
-        <v>1849000000</v>
+        <v>296000000</v>
       </c>
       <c r="J27">
-        <v>1909000000</v>
+        <v>374000000</v>
       </c>
       <c r="K27">
-        <v>1740000000</v>
+        <v>178000000</v>
       </c>
       <c r="L27">
-        <v>1663000000</v>
+        <v>155000000</v>
       </c>
       <c r="M27">
-        <v>1325000000</v>
+        <v>206000000</v>
       </c>
       <c r="N27">
-        <v>2011000000</v>
+        <v>198000000</v>
       </c>
       <c r="O27">
-        <v>1702000000</v>
+        <v>307000000</v>
       </c>
       <c r="P27">
-        <v>1136000000</v>
+        <v>221000000</v>
       </c>
       <c r="Q27">
-        <v>1783000000</v>
+        <v>198000000</v>
       </c>
       <c r="R27">
-        <v>2016000000</v>
+        <v>268000000</v>
       </c>
       <c r="S27">
-        <v>2401000000</v>
+        <v>243000000</v>
       </c>
       <c r="T27">
-        <v>1007000000</v>
+        <v>226000000</v>
       </c>
       <c r="U27">
-        <v>1789000000</v>
+        <v>339000000</v>
       </c>
       <c r="V27">
-        <v>2008000000</v>
+        <v>124000000</v>
       </c>
       <c r="W27">
-        <v>2153000000</v>
+        <v>187000000</v>
       </c>
       <c r="X27">
-        <v>1742000000</v>
+        <v>152000000</v>
       </c>
       <c r="Y27">
-        <v>1469000000</v>
+        <v>162000000</v>
       </c>
       <c r="Z27">
-        <v>1904000000</v>
+        <v>132000000</v>
       </c>
       <c r="AA27">
-        <v>1866000000</v>
+        <v>279000000</v>
       </c>
       <c r="AB27">
-        <v>1788000000</v>
+        <v>-110000000</v>
       </c>
       <c r="AC27">
-        <v>1500000000</v>
+        <v>130000000</v>
       </c>
       <c r="AD27">
-        <v>1876000000</v>
+        <v>76000000</v>
       </c>
       <c r="AE27">
-        <v>1840000000</v>
+        <v>274000000</v>
       </c>
       <c r="AF27">
-        <v>1730000000</v>
+        <v>126000000</v>
       </c>
       <c r="AG27">
-        <v>1662000000</v>
+        <v>137700200</v>
       </c>
       <c r="AH27">
-        <v>1901000000</v>
+        <v>227999900</v>
       </c>
       <c r="AI27">
-        <v>1856000000</v>
+        <v>255899900</v>
       </c>
       <c r="AJ27">
-        <v>1716000000</v>
+        <v>217400000</v>
       </c>
       <c r="AK27">
-        <v>1579000000</v>
+        <v>237300200</v>
       </c>
       <c r="AL27">
-        <v>1739000000</v>
+        <v>211599900</v>
       </c>
       <c r="AM27">
-        <v>1702000000</v>
+        <v>203499900</v>
       </c>
       <c r="AN27">
-        <v>1646000000</v>
+        <v>143000000</v>
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>3863000000</v>
+        <v>394000000</v>
       </c>
       <c r="C28">
-        <v>82000000</v>
+        <v>-165000000</v>
       </c>
       <c r="D28">
-        <v>1303000000</v>
+        <v>447000000</v>
       </c>
       <c r="E28">
-        <v>1340000000</v>
+        <v>297000000</v>
       </c>
       <c r="F28">
-        <v>1437000000</v>
+        <v>179000000</v>
       </c>
       <c r="G28">
-        <v>1525000000</v>
+        <v>202000000</v>
       </c>
       <c r="H28">
-        <v>1627000000</v>
+        <v>200000000</v>
       </c>
       <c r="I28">
-        <v>1406000000</v>
+        <v>227000000</v>
       </c>
       <c r="J28">
-        <v>1434000000</v>
+        <v>240000000</v>
       </c>
       <c r="K28">
-        <v>1303000000</v>
+        <v>92000000</v>
       </c>
       <c r="L28">
-        <v>1310000000</v>
+        <v>23000000</v>
       </c>
       <c r="M28">
-        <v>917000000</v>
+        <v>130000000</v>
       </c>
       <c r="N28">
-        <v>1588000000</v>
+        <v>92000000</v>
       </c>
       <c r="O28">
-        <v>1131000000</v>
+        <v>197000000</v>
       </c>
       <c r="P28">
-        <v>893000000</v>
+        <v>117000000</v>
       </c>
       <c r="Q28">
-        <v>1349000000</v>
+        <v>149000000</v>
       </c>
       <c r="R28">
-        <v>1546000000</v>
+        <v>59000000</v>
       </c>
       <c r="S28">
-        <v>1862000000</v>
+        <v>120000000</v>
       </c>
       <c r="T28">
-        <v>606000000</v>
+        <v>125000000</v>
       </c>
       <c r="U28">
-        <v>525000000</v>
+        <v>159000000</v>
       </c>
       <c r="V28">
-        <v>1433000000</v>
+        <v>51000000</v>
       </c>
       <c r="W28">
-        <v>1585000000</v>
+        <v>100000000</v>
       </c>
       <c r="X28">
-        <v>1326000000</v>
+        <v>70000000</v>
       </c>
       <c r="Y28">
-        <v>1156000000</v>
+        <v>52000000</v>
       </c>
       <c r="Z28">
-        <v>1331000000</v>
+        <v>34000000</v>
       </c>
       <c r="AA28">
-        <v>1293000000</v>
+        <v>307000000</v>
       </c>
       <c r="AB28">
-        <v>1278000000</v>
+        <v>-127000000</v>
       </c>
       <c r="AC28">
-        <v>1039000000</v>
+        <v>65000000</v>
       </c>
       <c r="AD28">
-        <v>1298000000</v>
+        <v>50000000</v>
       </c>
       <c r="AE28">
-        <v>1303000000</v>
+        <v>160000000</v>
       </c>
       <c r="AF28">
-        <v>1201000000</v>
+        <v>28000000</v>
       </c>
       <c r="AG28">
-        <v>1179000000</v>
+        <v>88400000</v>
       </c>
       <c r="AH28">
-        <v>1311000000</v>
+        <v>148400000</v>
       </c>
       <c r="AI28">
-        <v>1283000000</v>
+        <v>156300000</v>
       </c>
       <c r="AJ28">
-        <v>1225000000</v>
+        <v>104900000</v>
       </c>
       <c r="AK28">
-        <v>1116000000</v>
+        <v>134600000</v>
       </c>
       <c r="AL28">
-        <v>1245000000</v>
+        <v>121600000</v>
       </c>
       <c r="AM28">
-        <v>1213000000</v>
+        <v>99100000</v>
       </c>
       <c r="AN28">
-        <v>1147000000</v>
+        <v>79300000</v>
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>3863000000</v>
-      </c>
-      <c r="C29">
-        <v>82000000</v>
-      </c>
-      <c r="D29">
-        <v>1303000000</v>
-      </c>
-      <c r="E29">
-        <v>1340000000</v>
-      </c>
-      <c r="F29">
-        <v>1437000000</v>
-      </c>
-      <c r="G29">
-        <v>1525000000</v>
-      </c>
-      <c r="H29">
-        <v>1627000000</v>
-      </c>
-      <c r="I29">
-        <v>1406000000</v>
-      </c>
-      <c r="J29">
-        <v>1434000000</v>
-      </c>
-      <c r="K29">
-        <v>1303000000</v>
-      </c>
-      <c r="L29">
-        <v>1310000000</v>
-      </c>
-      <c r="M29">
-        <v>917000000</v>
-      </c>
-      <c r="N29">
-        <v>1588000000</v>
-      </c>
-      <c r="O29">
-        <v>1131000000</v>
-      </c>
-      <c r="P29">
-        <v>893000000</v>
-      </c>
-      <c r="Q29">
-        <v>1349000000</v>
-      </c>
-      <c r="R29">
-        <v>1546000000</v>
-      </c>
-      <c r="S29">
-        <v>1862000000</v>
-      </c>
-      <c r="T29">
-        <v>606000000</v>
-      </c>
-      <c r="U29">
-        <v>525000000</v>
-      </c>
-      <c r="V29">
-        <v>1433000000</v>
-      </c>
-      <c r="W29">
-        <v>1585000000</v>
-      </c>
-      <c r="X29">
-        <v>1326000000</v>
-      </c>
-      <c r="Y29">
-        <v>1156000000</v>
-      </c>
-      <c r="Z29">
-        <v>1331000000</v>
-      </c>
-      <c r="AA29">
-        <v>1293000000</v>
-      </c>
-      <c r="AB29">
-        <v>1278000000</v>
-      </c>
-      <c r="AC29">
-        <v>1039000000</v>
-      </c>
-      <c r="AD29">
-        <v>1298000000</v>
-      </c>
-      <c r="AE29">
-        <v>1303000000</v>
-      </c>
-      <c r="AF29">
-        <v>1201000000</v>
-      </c>
-      <c r="AG29">
-        <v>1179000000</v>
-      </c>
-      <c r="AH29">
-        <v>1311000000</v>
-      </c>
-      <c r="AI29">
-        <v>1283000000</v>
-      </c>
-      <c r="AJ29">
-        <v>1225000000</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AK29">
-        <v>1116000000</v>
+        <v>0</v>
       </c>
       <c r="AL29">
-        <v>1245000000</v>
-      </c>
-      <c r="AM29">
-        <v>1213000000</v>
+        <v>300000</v>
       </c>
       <c r="AN29">
-        <v>1147000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>6.7915</v>
+        <v>394000000</v>
       </c>
       <c r="C30">
-        <v>0.1436</v>
+        <v>-165000000</v>
       </c>
       <c r="D30">
-        <v>2.2768</v>
+        <v>447000000</v>
       </c>
       <c r="E30">
-        <v>2.3332</v>
+        <v>297000000</v>
       </c>
       <c r="F30">
-        <v>2.4793</v>
+        <v>179000000</v>
       </c>
       <c r="G30">
-        <v>2.6248</v>
+        <v>202000000</v>
       </c>
       <c r="H30">
-        <v>2.8028</v>
+        <v>200000000</v>
       </c>
       <c r="I30">
-        <v>2.4296</v>
+        <v>227000000</v>
       </c>
       <c r="J30">
-        <v>2.4818</v>
+        <v>240000000</v>
       </c>
       <c r="K30">
-        <v>2.2582</v>
+        <v>92000000</v>
       </c>
       <c r="L30">
-        <v>2.2712</v>
+        <v>23000000</v>
       </c>
       <c r="M30">
-        <v>1.5906</v>
+        <v>130000000</v>
       </c>
       <c r="N30">
-        <v>2.7546</v>
+        <v>92000000</v>
       </c>
       <c r="O30">
-        <v>1.9578</v>
+        <v>197000000</v>
       </c>
       <c r="P30">
-        <v>1.5463</v>
+        <v>117000000</v>
       </c>
       <c r="Q30">
-        <v>2.3081</v>
+        <v>149000000</v>
       </c>
       <c r="R30">
-        <v>2.64</v>
+        <v>59000000</v>
       </c>
       <c r="S30">
-        <v>3.1485</v>
+        <v>120000000</v>
       </c>
       <c r="T30">
-        <v>1.0164</v>
+        <v>125000000</v>
       </c>
       <c r="U30">
-        <v>0.8839</v>
+        <v>159000000</v>
       </c>
       <c r="V30">
-        <v>2.3979</v>
+        <v>51000000</v>
       </c>
       <c r="W30">
-        <v>2.6501</v>
+        <v>100000000</v>
       </c>
       <c r="X30">
-        <v>2.217</v>
+        <v>70000000</v>
       </c>
       <c r="Y30">
-        <v>1.9277</v>
+        <v>52000000</v>
       </c>
       <c r="Z30">
-        <v>2.2022</v>
+        <v>34000000</v>
       </c>
       <c r="AA30">
-        <v>2.1305</v>
+        <v>307000000</v>
       </c>
       <c r="AB30">
-        <v>2.1041</v>
+        <v>-127000000</v>
       </c>
       <c r="AC30">
-        <v>1.6949</v>
+        <v>65000000</v>
       </c>
       <c r="AD30">
-        <v>2.0915</v>
+        <v>50000000</v>
       </c>
       <c r="AE30">
-        <v>2.064</v>
+        <v>160000000</v>
       </c>
       <c r="AF30">
-        <v>1.8878</v>
+        <v>28000000</v>
       </c>
       <c r="AG30">
-        <v>1.8474</v>
+        <v>88400000</v>
       </c>
       <c r="AH30">
-        <v>2.0316</v>
+        <v>148400000</v>
       </c>
       <c r="AI30">
-        <v>1.9678</v>
+        <v>156300000</v>
       </c>
       <c r="AJ30">
-        <v>1.8519</v>
+        <v>104900000</v>
       </c>
       <c r="AK30">
-        <v>1.6696</v>
+        <v>134600000</v>
       </c>
       <c r="AL30">
-        <v>1.8314</v>
+        <v>121900000</v>
       </c>
       <c r="AM30">
-        <v>1.7626</v>
+        <v>99100000</v>
       </c>
       <c r="AN30">
-        <v>1.6597</v>
+        <v>79400000</v>
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>6.7772</v>
+        <v>1.2546</v>
       </c>
       <c r="C31">
-        <v>0.1432</v>
+        <v>-0.5205</v>
       </c>
       <c r="D31">
-        <v>2.2661</v>
+        <v>1.3929</v>
       </c>
       <c r="E31">
-        <v>2.313</v>
+        <v>0.9174</v>
       </c>
       <c r="F31">
-        <v>2.451</v>
+        <v>0.5493</v>
       </c>
       <c r="G31">
-        <v>2.5909</v>
+        <v>0.6166</v>
       </c>
       <c r="H31">
-        <v>2.775</v>
+        <v>0.6101</v>
       </c>
       <c r="I31">
-        <v>2.4077</v>
+        <v>0.696</v>
       </c>
       <c r="J31">
-        <v>2.4622</v>
+        <v>0.735</v>
       </c>
       <c r="K31">
-        <v>2.2435</v>
+        <v>0.2822</v>
       </c>
       <c r="L31">
-        <v>2.2528</v>
+        <v>0.0707</v>
       </c>
       <c r="M31">
-        <v>1.5696</v>
+        <v>0.3991</v>
       </c>
       <c r="N31">
-        <v>2.7238</v>
+        <v>0.2778</v>
       </c>
       <c r="O31">
-        <v>1.9297</v>
+        <v>0.5919</v>
       </c>
       <c r="P31">
-        <v>1.5174</v>
+        <v>0.35</v>
       </c>
       <c r="Q31">
-        <v>2.2543</v>
+        <v>0.4403</v>
       </c>
       <c r="R31">
-        <v>2.5836</v>
+        <v>0.172</v>
       </c>
       <c r="S31">
-        <v>3.0818</v>
+        <v>0.3446</v>
       </c>
       <c r="T31">
-        <v>0.9891</v>
+        <v>0.3569</v>
       </c>
       <c r="U31">
-        <v>0.8548</v>
+        <v>0.4545</v>
       </c>
       <c r="V31">
-        <v>2.3388</v>
+        <v>0.1456</v>
       </c>
       <c r="W31">
-        <v>2.5865</v>
+        <v>0.2848</v>
       </c>
       <c r="X31">
-        <v>2.1667</v>
+        <v>0.2</v>
       </c>
       <c r="Y31">
-        <v>1.8848</v>
+        <v>0.1101</v>
       </c>
       <c r="Z31">
-        <v>2.1509</v>
+        <v>0.0974</v>
       </c>
       <c r="AA31">
-        <v>2.0825</v>
+        <v>1.0807</v>
       </c>
       <c r="AB31">
-        <v>2.057</v>
+        <v>-0.4478</v>
       </c>
       <c r="AC31">
-        <v>1.6645</v>
+        <v>0.2387</v>
       </c>
       <c r="AD31">
-        <v>2.0564</v>
+        <v>0.182</v>
       </c>
       <c r="AE31">
-        <v>2.0264</v>
+        <v>0.5805</v>
       </c>
       <c r="AF31">
-        <v>1.85</v>
+        <v>0.1021</v>
       </c>
       <c r="AG31">
-        <v>1.8105</v>
+        <v>0.3243</v>
       </c>
       <c r="AH31">
-        <v>1.9927</v>
+        <v>0.5376</v>
       </c>
       <c r="AI31">
-        <v>1.9305</v>
+        <v>0.5622</v>
       </c>
       <c r="AJ31">
-        <v>1.8162</v>
+        <v>0.3736</v>
       </c>
       <c r="AK31">
-        <v>1.6381</v>
+        <v>0.43</v>
       </c>
       <c r="AL31">
-        <v>1.7997</v>
+        <v>0.4</v>
       </c>
       <c r="AM31">
-        <v>1.7351</v>
+        <v>0.325</v>
       </c>
       <c r="AN31">
-        <v>1.6337</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>6.7915</v>
+        <v>1.2427</v>
       </c>
       <c r="C32">
-        <v>0.1436</v>
+        <v>-0.5205</v>
       </c>
       <c r="D32">
-        <v>2.2768</v>
+        <v>1.3715</v>
       </c>
       <c r="E32">
-        <v>2.3332</v>
+        <v>0.9025</v>
       </c>
       <c r="F32">
-        <v>2.4793</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="G32">
-        <v>2.6248</v>
+        <v>0.6059</v>
       </c>
       <c r="H32">
-        <v>2.8028</v>
+        <v>0.5994</v>
       </c>
       <c r="I32">
-        <v>2.4296</v>
+        <v>0.6807</v>
       </c>
       <c r="J32">
-        <v>2.4818</v>
+        <v>0.7215</v>
       </c>
       <c r="K32">
-        <v>2.2582</v>
+        <v>0.2773</v>
       </c>
       <c r="L32">
-        <v>2.2712</v>
+        <v>0.0692</v>
       </c>
       <c r="M32">
-        <v>1.5906</v>
+        <v>0.3878</v>
       </c>
       <c r="N32">
-        <v>2.7546</v>
+        <v>0.2701</v>
       </c>
       <c r="O32">
-        <v>1.9578</v>
+        <v>0.5766</v>
       </c>
       <c r="P32">
-        <v>1.5463</v>
+        <v>0.3414</v>
       </c>
       <c r="Q32">
-        <v>2.3081</v>
+        <v>0.4293</v>
       </c>
       <c r="R32">
-        <v>2.64</v>
+        <v>0.1687</v>
       </c>
       <c r="S32">
-        <v>3.1485</v>
+        <v>0.3381</v>
       </c>
       <c r="T32">
-        <v>1.0164</v>
+        <v>0.3496</v>
       </c>
       <c r="U32">
-        <v>0.8839</v>
+        <v>0.4481</v>
       </c>
       <c r="V32">
-        <v>2.3979</v>
+        <v>0.1422</v>
       </c>
       <c r="W32">
-        <v>2.6501</v>
+        <v>0.2786</v>
       </c>
       <c r="X32">
-        <v>2.217</v>
+        <v>0.1956</v>
       </c>
       <c r="Y32">
-        <v>1.9277</v>
+        <v>0.119</v>
       </c>
       <c r="Z32">
-        <v>2.2022</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="AA32">
-        <v>2.1305</v>
+        <v>1.057</v>
       </c>
       <c r="AB32">
-        <v>2.1041</v>
+        <v>-0.4478</v>
       </c>
       <c r="AC32">
-        <v>1.6949</v>
+        <v>0.2327</v>
       </c>
       <c r="AD32">
-        <v>2.0915</v>
+        <v>0.1775</v>
       </c>
       <c r="AE32">
-        <v>2.064</v>
+        <v>0.5652</v>
       </c>
       <c r="AF32">
-        <v>1.8878</v>
+        <v>0.0992</v>
       </c>
       <c r="AG32">
-        <v>1.8474</v>
+        <v>0.3149</v>
       </c>
       <c r="AH32">
-        <v>2.0316</v>
+        <v>0.5222</v>
       </c>
       <c r="AI32">
-        <v>1.9678</v>
+        <v>0.547</v>
       </c>
       <c r="AJ32">
-        <v>1.8519</v>
+        <v>0.3641</v>
       </c>
       <c r="AK32">
-        <v>1.6696</v>
+        <v>0.425</v>
       </c>
       <c r="AL32">
-        <v>1.8314</v>
+        <v>0.39</v>
       </c>
       <c r="AM32">
-        <v>1.7626</v>
+        <v>0.315</v>
       </c>
       <c r="AN32">
-        <v>1.6597</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>6.7772</v>
-      </c>
-      <c r="C33">
-        <v>0.1432</v>
-      </c>
-      <c r="D33">
-        <v>2.2661</v>
-      </c>
-      <c r="E33">
-        <v>2.313</v>
-      </c>
-      <c r="F33">
-        <v>2.451</v>
-      </c>
-      <c r="G33">
-        <v>2.5909</v>
-      </c>
-      <c r="H33">
-        <v>2.775</v>
-      </c>
-      <c r="I33">
-        <v>2.4077</v>
-      </c>
-      <c r="J33">
-        <v>2.4622</v>
-      </c>
-      <c r="K33">
-        <v>2.2435</v>
-      </c>
-      <c r="L33">
-        <v>2.2528</v>
-      </c>
-      <c r="M33">
-        <v>1.5696</v>
-      </c>
-      <c r="N33">
-        <v>2.7238</v>
-      </c>
-      <c r="O33">
-        <v>1.9297</v>
-      </c>
-      <c r="P33">
-        <v>1.5174</v>
-      </c>
-      <c r="Q33">
-        <v>2.2543</v>
-      </c>
-      <c r="R33">
-        <v>2.5836</v>
-      </c>
-      <c r="S33">
-        <v>3.0818</v>
-      </c>
-      <c r="T33">
-        <v>0.9891</v>
-      </c>
-      <c r="U33">
-        <v>0.8548</v>
-      </c>
-      <c r="V33">
-        <v>2.3388</v>
-      </c>
-      <c r="W33">
-        <v>2.5865</v>
-      </c>
-      <c r="X33">
-        <v>2.1667</v>
-      </c>
-      <c r="Y33">
-        <v>1.8848</v>
-      </c>
-      <c r="Z33">
-        <v>2.1509</v>
-      </c>
-      <c r="AA33">
-        <v>2.0825</v>
-      </c>
-      <c r="AB33">
-        <v>2.057</v>
-      </c>
-      <c r="AC33">
-        <v>1.6645</v>
-      </c>
-      <c r="AD33">
-        <v>2.0564</v>
-      </c>
-      <c r="AE33">
-        <v>2.0264</v>
-      </c>
-      <c r="AF33">
-        <v>1.85</v>
-      </c>
-      <c r="AG33">
-        <v>1.8105</v>
-      </c>
-      <c r="AH33">
-        <v>1.9927</v>
-      </c>
-      <c r="AI33">
-        <v>1.9305</v>
-      </c>
-      <c r="AJ33">
-        <v>1.8162</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AK33">
-        <v>1.6381</v>
+        <v>0</v>
       </c>
       <c r="AL33">
-        <v>1.7997</v>
-      </c>
-      <c r="AM33">
-        <v>1.7351</v>
+        <v>0.001</v>
       </c>
       <c r="AN33">
-        <v>1.6337</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>570000000</v>
-      </c>
-      <c r="C34">
-        <v>572700000</v>
-      </c>
-      <c r="D34">
-        <v>575000000</v>
-      </c>
-      <c r="E34">
-        <v>579900000</v>
-      </c>
-      <c r="F34">
-        <v>586300000</v>
-      </c>
-      <c r="G34">
-        <v>588600000</v>
-      </c>
-      <c r="H34">
-        <v>586300000</v>
-      </c>
-      <c r="I34">
-        <v>584000000</v>
-      </c>
-      <c r="J34">
-        <v>582400000</v>
-      </c>
-      <c r="K34">
-        <v>580800000</v>
-      </c>
-      <c r="L34">
-        <v>581500000</v>
-      </c>
-      <c r="M34">
-        <v>582700000</v>
-      </c>
-      <c r="N34">
-        <v>583000000</v>
-      </c>
-      <c r="O34">
-        <v>586100000</v>
-      </c>
-      <c r="P34">
-        <v>588500000</v>
-      </c>
-      <c r="Q34">
-        <v>592600000</v>
-      </c>
-      <c r="R34">
-        <v>598400000</v>
-      </c>
-      <c r="S34">
-        <v>604200000</v>
-      </c>
-      <c r="T34">
-        <v>612700000</v>
-      </c>
-      <c r="U34">
-        <v>613400000</v>
-      </c>
-      <c r="V34">
-        <v>612700000</v>
-      </c>
-      <c r="W34">
-        <v>612800000</v>
-      </c>
-      <c r="X34">
-        <v>612000000</v>
-      </c>
-      <c r="Y34">
-        <v>613800000</v>
-      </c>
-      <c r="Z34">
-        <v>618800000</v>
-      </c>
-      <c r="AA34">
-        <v>620900000</v>
-      </c>
-      <c r="AB34">
-        <v>621300000</v>
-      </c>
-      <c r="AC34">
-        <v>625400000</v>
-      </c>
-      <c r="AD34">
-        <v>631200000</v>
-      </c>
-      <c r="AE34">
-        <v>643000000</v>
-      </c>
-      <c r="AF34">
-        <v>649200000</v>
-      </c>
-      <c r="AG34">
-        <v>650900000</v>
-      </c>
-      <c r="AH34">
-        <v>657900000</v>
-      </c>
-      <c r="AI34">
-        <v>664600000</v>
-      </c>
-      <c r="AJ34">
-        <v>674500000</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="AK34">
-        <v>681300000</v>
+        <v>0</v>
       </c>
       <c r="AL34">
-        <v>691800000</v>
-      </c>
-      <c r="AM34">
-        <v>699100000</v>
+        <v>0.001</v>
       </c>
       <c r="AN34">
-        <v>702100000</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>0.5344</v>
+        <v>1.2546</v>
       </c>
       <c r="C35">
-        <v>0.06569999999999999</v>
+        <v>-0.5205</v>
       </c>
       <c r="D35">
-        <v>0.2379</v>
+        <v>1.3929</v>
       </c>
       <c r="E35">
-        <v>0.2465</v>
+        <v>0.9174</v>
       </c>
       <c r="F35">
-        <v>0.2532</v>
+        <v>0.5493</v>
       </c>
       <c r="G35">
-        <v>0.273</v>
+        <v>0.6166</v>
       </c>
       <c r="H35">
-        <v>0.2773</v>
+        <v>0.6101</v>
       </c>
       <c r="I35">
-        <v>0.2734</v>
+        <v>0.696</v>
       </c>
       <c r="J35">
-        <v>0.2862</v>
+        <v>0.735</v>
       </c>
       <c r="K35">
-        <v>0.311</v>
+        <v>0.2822</v>
       </c>
       <c r="L35">
-        <v>0.2604</v>
+        <v>0.0707</v>
       </c>
       <c r="M35">
-        <v>0.2204</v>
+        <v>0.3991</v>
       </c>
       <c r="N35">
-        <v>0.2991</v>
+        <v>0.2778</v>
       </c>
       <c r="O35">
-        <v>0.2543</v>
+        <v>0.5919</v>
       </c>
       <c r="P35">
-        <v>0.1922</v>
+        <v>0.35</v>
       </c>
       <c r="Q35">
-        <v>0.2711</v>
+        <v>0.4403</v>
       </c>
       <c r="R35">
-        <v>0.2908</v>
+        <v>0.172</v>
       </c>
       <c r="S35">
-        <v>0.3315</v>
+        <v>0.3446</v>
       </c>
       <c r="T35">
-        <v>0.1678</v>
+        <v>0.3569</v>
       </c>
       <c r="U35">
-        <v>0.2676</v>
+        <v>0.4545</v>
       </c>
       <c r="V35">
-        <v>0.2919</v>
+        <v>0.1456</v>
       </c>
       <c r="W35">
+        <v>0.2848</v>
+      </c>
+      <c r="X35">
+        <v>0.2</v>
+      </c>
+      <c r="Y35">
+        <v>0.1101</v>
+      </c>
+      <c r="Z35">
+        <v>0.0974</v>
+      </c>
+      <c r="AA35">
+        <v>1.0807</v>
+      </c>
+      <c r="AB35">
+        <v>-0.4478</v>
+      </c>
+      <c r="AC35">
+        <v>0.2387</v>
+      </c>
+      <c r="AD35">
+        <v>0.182</v>
+      </c>
+      <c r="AE35">
+        <v>0.5805</v>
+      </c>
+      <c r="AF35">
+        <v>0.1021</v>
+      </c>
+      <c r="AG35">
         <v>0.3243</v>
       </c>
-      <c r="X35">
-        <v>0.2837</v>
-      </c>
-      <c r="Y35">
-        <v>0.2528</v>
-      </c>
-      <c r="Z35">
-        <v>0.2947</v>
-      </c>
-      <c r="AA35">
-        <v>0.2913</v>
-      </c>
-      <c r="AB35">
-        <v>0.2894</v>
-      </c>
-      <c r="AC35">
-        <v>0.2599</v>
-      </c>
-      <c r="AD35">
-        <v>0.2893</v>
-      </c>
-      <c r="AE35">
-        <v>0.2842</v>
-      </c>
-      <c r="AF35">
-        <v>0.273</v>
-      </c>
-      <c r="AG35">
-        <v>0.2607</v>
-      </c>
       <c r="AH35">
-        <v>0.2766</v>
+        <v>0.5376</v>
       </c>
       <c r="AI35">
-        <v>0.2722</v>
+        <v>0.5622</v>
       </c>
       <c r="AJ35">
-        <v>0.2638</v>
+        <v>0.3736</v>
       </c>
       <c r="AK35">
-        <v>0.2558</v>
+        <v>0.4658</v>
       </c>
       <c r="AL35">
-        <v>0.263</v>
+        <v>0.4212</v>
       </c>
       <c r="AM35">
-        <v>0.2628</v>
+        <v>0.3369</v>
       </c>
       <c r="AN35">
-        <v>0.2596</v>
+        <v>0.2665</v>
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.1776</v>
+        <v>1.2427</v>
       </c>
       <c r="C36">
-        <v>0.1295</v>
+        <v>-0.5205</v>
       </c>
       <c r="D36">
-        <v>0.1145</v>
+        <v>1.3715</v>
       </c>
       <c r="E36">
-        <v>0.2328</v>
+        <v>0.9025</v>
       </c>
       <c r="F36">
-        <v>0.2096</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="G36">
-        <v>0.2108</v>
+        <v>0.6059</v>
       </c>
       <c r="H36">
-        <v>0.1907</v>
+        <v>0.5994</v>
       </c>
       <c r="I36">
-        <v>0.293</v>
+        <v>0.6807</v>
       </c>
       <c r="J36">
-        <v>0.297</v>
+        <v>0.7215</v>
       </c>
       <c r="K36">
-        <v>0.2655</v>
+        <v>0.2773</v>
       </c>
       <c r="L36">
-        <v>0.1502</v>
+        <v>0.0692</v>
       </c>
       <c r="M36">
-        <v>0.2883</v>
+        <v>0.3878</v>
       </c>
       <c r="N36">
-        <v>0.253</v>
+        <v>0.2701</v>
       </c>
       <c r="O36">
-        <v>0.2034</v>
+        <v>0.5766</v>
       </c>
       <c r="P36">
-        <v>0.1333</v>
+        <v>0.3414</v>
       </c>
       <c r="Q36">
-        <v>0.2842</v>
+        <v>0.4293</v>
       </c>
       <c r="R36">
-        <v>0.2624</v>
+        <v>0.1687</v>
       </c>
       <c r="S36">
-        <v>0.2263</v>
+        <v>0.3381</v>
       </c>
       <c r="T36">
-        <v>0.0173</v>
+        <v>0.3496</v>
       </c>
       <c r="U36">
-        <v>0.2328</v>
+        <v>0.4481</v>
       </c>
       <c r="V36">
-        <v>0.2141</v>
+        <v>0.1422</v>
       </c>
       <c r="W36">
-        <v>0.2102</v>
+        <v>0.2786</v>
       </c>
       <c r="X36">
-        <v>0.1286</v>
+        <v>0.1956</v>
       </c>
       <c r="Y36">
-        <v>0.3014</v>
+        <v>0.119</v>
       </c>
       <c r="Z36">
-        <v>0.2475</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.1677</v>
+        <v>1.057</v>
       </c>
       <c r="AB36">
-        <v>0.1701</v>
+        <v>-0.4478</v>
       </c>
       <c r="AC36">
-        <v>0.3204</v>
+        <v>0.2327</v>
       </c>
       <c r="AD36">
-        <v>0.2158</v>
+        <v>0.1775</v>
       </c>
       <c r="AE36">
-        <v>0.1741</v>
+        <v>0.5652</v>
       </c>
       <c r="AF36">
-        <v>0.1425</v>
+        <v>0.0992</v>
       </c>
       <c r="AG36">
-        <v>0.2828</v>
+        <v>0.3149</v>
       </c>
       <c r="AH36">
-        <v>0.2103</v>
+        <v>0.5222</v>
       </c>
       <c r="AI36">
-        <v>0.2016</v>
+        <v>0.547</v>
       </c>
       <c r="AJ36">
-        <v>0.1394</v>
+        <v>0.3641</v>
       </c>
       <c r="AK36">
-        <v>0.2633</v>
+        <v>0.4551</v>
       </c>
       <c r="AL36">
-        <v>0.1454</v>
+        <v>0.4121</v>
       </c>
       <c r="AM36">
-        <v>0.2166</v>
+        <v>0.3297</v>
       </c>
       <c r="AN36">
-        <v>0.1302</v>
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <v>317061000</v>
+      </c>
+      <c r="C37">
+        <v>317006000</v>
+      </c>
+      <c r="D37">
+        <v>325916000</v>
+      </c>
+      <c r="E37">
+        <v>328218000</v>
+      </c>
+      <c r="F37">
+        <v>331595000</v>
+      </c>
+      <c r="G37">
+        <v>333378000</v>
+      </c>
+      <c r="H37">
+        <v>333673000</v>
+      </c>
+      <c r="I37">
+        <v>333898000</v>
+      </c>
+      <c r="J37">
+        <v>332654000</v>
+      </c>
+      <c r="K37">
+        <v>331717000</v>
+      </c>
+      <c r="L37">
+        <v>332326000</v>
+      </c>
+      <c r="M37">
+        <v>334860000</v>
+      </c>
+      <c r="N37">
+        <v>340632000</v>
+      </c>
+      <c r="O37">
+        <v>341637000</v>
+      </c>
+      <c r="P37">
+        <v>342676000</v>
+      </c>
+      <c r="Q37">
+        <v>346274000</v>
+      </c>
+      <c r="R37">
+        <v>349709000</v>
+      </c>
+      <c r="S37">
+        <v>354904000</v>
+      </c>
+      <c r="T37">
+        <v>357552000</v>
+      </c>
+      <c r="U37">
+        <v>356384000</v>
+      </c>
+      <c r="V37">
+        <v>358556000</v>
+      </c>
+      <c r="W37">
+        <v>358979000</v>
+      </c>
+      <c r="X37">
+        <v>357934000</v>
+      </c>
+      <c r="Y37">
+        <v>355540000</v>
+      </c>
+      <c r="Z37">
+        <v>355404000</v>
+      </c>
+      <c r="AA37">
+        <v>290454000</v>
+      </c>
+      <c r="AB37">
+        <v>283586000</v>
+      </c>
+      <c r="AC37">
+        <v>281050000</v>
+      </c>
+      <c r="AD37">
+        <v>281716000</v>
+      </c>
+      <c r="AE37">
+        <v>283080000</v>
+      </c>
+      <c r="AF37">
+        <v>282152000</v>
+      </c>
+      <c r="AG37">
+        <v>281492000</v>
+      </c>
+      <c r="AH37">
+        <v>284180000</v>
+      </c>
+      <c r="AI37">
+        <v>285720000</v>
+      </c>
+      <c r="AJ37">
+        <v>288116000</v>
+      </c>
+      <c r="AK37">
+        <v>293270000</v>
+      </c>
+      <c r="AL37">
+        <v>295790000</v>
+      </c>
+      <c r="AM37">
+        <v>300610000</v>
+      </c>
+      <c r="AN37">
+        <v>304632000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>0.1721</v>
+      </c>
+      <c r="C38">
+        <v>0.0148</v>
+      </c>
+      <c r="D38">
+        <v>0.2139</v>
+      </c>
+      <c r="E38">
+        <v>0.1538</v>
+      </c>
+      <c r="F38">
+        <v>0.1162</v>
+      </c>
+      <c r="G38">
+        <v>0.1576</v>
+      </c>
+      <c r="H38">
+        <v>0.1498</v>
+      </c>
+      <c r="I38">
+        <v>0.1499</v>
+      </c>
+      <c r="J38">
+        <v>0.1726</v>
+      </c>
+      <c r="K38">
+        <v>0.1242</v>
+      </c>
+      <c r="L38">
+        <v>0.1163</v>
+      </c>
+      <c r="M38">
+        <v>0.1376</v>
+      </c>
+      <c r="N38">
+        <v>0.1243</v>
+      </c>
+      <c r="O38">
+        <v>0.1584</v>
+      </c>
+      <c r="P38">
+        <v>0.1404</v>
+      </c>
+      <c r="Q38">
+        <v>0.1324</v>
+      </c>
+      <c r="R38">
+        <v>0.149</v>
+      </c>
+      <c r="S38">
+        <v>0.1358</v>
+      </c>
+      <c r="T38">
+        <v>0.1458</v>
+      </c>
+      <c r="U38">
+        <v>0.1926</v>
+      </c>
+      <c r="V38">
+        <v>0.0983</v>
+      </c>
+      <c r="W38">
+        <v>0.1457</v>
+      </c>
+      <c r="X38">
+        <v>0.1213</v>
+      </c>
+      <c r="Y38">
+        <v>0.1252</v>
+      </c>
+      <c r="Z38">
+        <v>0.101</v>
+      </c>
+      <c r="AA38">
+        <v>0.1759</v>
+      </c>
+      <c r="AB38">
+        <v>-0.0199</v>
+      </c>
+      <c r="AC38">
+        <v>0.113</v>
+      </c>
+      <c r="AD38">
+        <v>0.0711</v>
+      </c>
+      <c r="AE38">
+        <v>0.1588</v>
+      </c>
+      <c r="AF38">
+        <v>0.1009</v>
+      </c>
+      <c r="AG38">
+        <v>0.1028</v>
+      </c>
+      <c r="AH38">
+        <v>0.1337</v>
+      </c>
+      <c r="AI38">
+        <v>0.142</v>
+      </c>
+      <c r="AJ38">
+        <v>0.1426</v>
+      </c>
+      <c r="AK38">
+        <v>0.1571</v>
+      </c>
+      <c r="AL38">
+        <v>0.1265</v>
+      </c>
+      <c r="AM38">
+        <v>0.1262</v>
+      </c>
+      <c r="AN38">
+        <v>0.1082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>0.044</v>
+      </c>
+      <c r="C39">
+        <v>0.0982</v>
+      </c>
+      <c r="D39">
+        <v>-0.2164</v>
+      </c>
+      <c r="E39">
+        <v>0.2406</v>
+      </c>
+      <c r="F39">
+        <v>0.1993</v>
+      </c>
+      <c r="G39">
+        <v>0.1865</v>
+      </c>
+      <c r="H39">
+        <v>-0.1526</v>
+      </c>
+      <c r="I39">
+        <v>0.3504</v>
+      </c>
+      <c r="J39">
+        <v>0.1866</v>
+      </c>
+      <c r="K39">
+        <v>0.1699</v>
+      </c>
+      <c r="L39">
+        <v>-0.2542</v>
+      </c>
+      <c r="M39">
+        <v>0.3281</v>
+      </c>
+      <c r="N39">
+        <v>0.1365</v>
+      </c>
+      <c r="O39">
+        <v>0.1266</v>
+      </c>
+      <c r="P39">
+        <v>-0.0463</v>
+      </c>
+      <c r="Q39">
+        <v>0.1923</v>
+      </c>
+      <c r="R39">
+        <v>0.2013</v>
+      </c>
+      <c r="S39">
+        <v>0.1638</v>
+      </c>
+      <c r="T39">
+        <v>-0.0266</v>
+      </c>
+      <c r="U39">
+        <v>0.2672</v>
+      </c>
+      <c r="V39">
+        <v>0.1661</v>
+      </c>
+      <c r="W39">
+        <v>0.2319</v>
+      </c>
+      <c r="X39">
+        <v>-0.1622</v>
+      </c>
+      <c r="Y39">
+        <v>0.2481</v>
+      </c>
+      <c r="Z39">
+        <v>-0.1704</v>
+      </c>
+      <c r="AA39">
+        <v>0.2079</v>
+      </c>
+      <c r="AB39">
+        <v>-0.2198</v>
+      </c>
+      <c r="AC39">
+        <v>0.2271</v>
+      </c>
+      <c r="AD39">
+        <v>0.1841</v>
+      </c>
+      <c r="AE39">
+        <v>0.1805</v>
+      </c>
+      <c r="AF39">
+        <v>-0.0941</v>
+      </c>
+      <c r="AG39">
+        <v>0.1781</v>
+      </c>
+      <c r="AH39">
+        <v>0.1965</v>
+      </c>
+      <c r="AI39">
+        <v>0.1511</v>
+      </c>
+      <c r="AJ39">
+        <v>-0.0679</v>
+      </c>
+      <c r="AK39">
+        <v>0.2142</v>
+      </c>
+      <c r="AL39">
+        <v>0.2186</v>
+      </c>
+      <c r="AM39">
+        <v>0.1081</v>
+      </c>
+      <c r="AN39">
+        <v>-0.163</v>
       </c>
     </row>
   </sheetData>
